--- a/02-23-sny.xlsx
+++ b/02-23-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC62F1BA-8912-440A-925A-80FE558B9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A4E58A-F0FC-4FC2-A567-2C48CB4809A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="120" windowWidth="15465" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="610">
   <si>
     <t>2022-23</t>
   </si>
@@ -2184,6 +2184,27 @@
   </si>
   <si>
     <t>01-01-23 - 31-12-23 kira bedeli 2022 yılında  Ödendi</t>
+  </si>
+  <si>
+    <t>ekim ayı elektrik</t>
+  </si>
+  <si>
+    <t>boya masrafı</t>
+  </si>
+  <si>
+    <t>nakit ödeme</t>
+  </si>
+  <si>
+    <t>aralık 15 te boşaltacağını söyledi</t>
+  </si>
+  <si>
+    <t>boşaltma tarihinden itibaren 3 aylık kira bedelini alacağımı söyledim.</t>
+  </si>
+  <si>
+    <t>Bu sürede işyeri kiraya verilirse kalan gün kadar bedeli iade ederim dedim.</t>
+  </si>
+  <si>
+    <t>Yaptığı ödemenin kalanını yeni kiracıdan alınca veririm dedim.</t>
   </si>
 </sst>
 </file>
@@ -2942,7 +2963,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3822,15 +3843,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3846,49 +3859,13 @@
     <xf numFmtId="174" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3897,7 +3874,55 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4233,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4459,7 +4484,7 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="384"/>
+      <c r="D18" s="359"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
@@ -8837,21 +8862,21 @@
       <c r="D2" s="156"/>
       <c r="E2" s="157"/>
       <c r="F2" s="156"/>
-      <c r="G2" s="359" t="s">
+      <c r="G2" s="365" t="s">
         <v>481</v>
       </c>
-      <c r="H2" s="359"/>
-      <c r="I2" s="359"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
       <c r="L2" s="156"/>
-      <c r="M2" s="359" t="s">
+      <c r="M2" s="365" t="s">
         <v>482</v>
       </c>
-      <c r="N2" s="359"/>
-      <c r="O2" s="359"/>
-      <c r="P2" s="359"/>
-      <c r="Q2" s="359"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
       <c r="R2" s="156"/>
       <c r="S2" s="158"/>
     </row>
@@ -8863,23 +8888,23 @@
       <c r="E3" s="160" t="s">
         <v>484</v>
       </c>
-      <c r="G3" s="360" t="s">
+      <c r="G3" s="366" t="s">
         <v>485</v>
       </c>
-      <c r="H3" s="360"/>
-      <c r="J3" s="361" t="s">
+      <c r="H3" s="366"/>
+      <c r="J3" s="367" t="s">
         <v>486</v>
       </c>
-      <c r="K3" s="361"/>
-      <c r="M3" s="360" t="s">
+      <c r="K3" s="367"/>
+      <c r="M3" s="366" t="s">
         <v>485</v>
       </c>
-      <c r="N3" s="360"/>
-      <c r="O3" s="360"/>
-      <c r="P3" s="361" t="s">
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="367" t="s">
         <v>486</v>
       </c>
-      <c r="Q3" s="361"/>
+      <c r="Q3" s="367"/>
       <c r="S3" s="161" t="s">
         <v>366</v>
       </c>
@@ -8942,11 +8967,11 @@
         <v>450000</v>
       </c>
       <c r="F5" s="157"/>
-      <c r="G5" s="362">
+      <c r="G5" s="360">
         <f>K5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="362"/>
+      <c r="H5" s="360"/>
       <c r="I5" s="176"/>
       <c r="J5" s="177" t="s">
         <v>490</v>
@@ -8955,11 +8980,11 @@
         <v>225000</v>
       </c>
       <c r="L5" s="178"/>
-      <c r="M5" s="363">
+      <c r="M5" s="361">
         <f>Q5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="363"/>
+      <c r="N5" s="361"/>
       <c r="O5" s="179"/>
       <c r="P5" s="176"/>
       <c r="Q5" s="175">
@@ -8979,11 +9004,11 @@
         <v>491</v>
       </c>
       <c r="F6" s="165"/>
-      <c r="G6" s="364">
+      <c r="G6" s="362">
         <f>K6/$E$5</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="H6" s="364"/>
+      <c r="H6" s="362"/>
       <c r="I6" s="183" t="s">
         <v>492</v>
       </c>
@@ -8995,11 +9020,11 @@
         <v>351562.54</v>
       </c>
       <c r="L6" s="165"/>
-      <c r="M6" s="364">
+      <c r="M6" s="362">
         <f>Q6/$E$5</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="N6" s="364"/>
+      <c r="N6" s="362"/>
       <c r="O6" s="186" t="s">
         <v>493</v>
       </c>
@@ -12062,23 +12087,23 @@
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="159"/>
-      <c r="C65" s="365" t="s">
+      <c r="C65" s="363" t="s">
         <v>519</v>
       </c>
-      <c r="D65" s="365"/>
-      <c r="E65" s="365"/>
-      <c r="G65" s="366" t="e">
+      <c r="D65" s="363"/>
+      <c r="E65" s="363"/>
+      <c r="G65" s="364" t="e">
         <f>G64</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="366"/>
+      <c r="H65" s="364"/>
       <c r="I65" s="151"/>
       <c r="J65" s="147"/>
-      <c r="M65" s="366" t="e">
+      <c r="M65" s="364" t="e">
         <f>M64</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="366"/>
+      <c r="N65" s="364"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="149"/>
       <c r="R65" s="147"/>
@@ -12086,15 +12111,15 @@
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="159"/>
-      <c r="C66" s="365"/>
-      <c r="D66" s="365"/>
-      <c r="E66" s="365"/>
-      <c r="G66" s="366"/>
-      <c r="H66" s="366"/>
+      <c r="C66" s="363"/>
+      <c r="D66" s="363"/>
+      <c r="E66" s="363"/>
+      <c r="G66" s="364"/>
+      <c r="H66" s="364"/>
       <c r="I66" s="151"/>
       <c r="J66" s="147"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="366"/>
+      <c r="M66" s="364"/>
+      <c r="N66" s="364"/>
       <c r="P66" s="147"/>
       <c r="Q66" s="149"/>
       <c r="R66" s="147"/>
@@ -12521,6 +12546,12 @@
     <row r="1048548" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="G6:H6"/>
@@ -12528,12 +12559,6 @@
     <mergeCell ref="C65:E66"/>
     <mergeCell ref="G65:H66"/>
     <mergeCell ref="M65:N66"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12807,24 +12832,24 @@
       <c r="G1" s="147"/>
       <c r="O1" s="150"/>
       <c r="T1" s="147"/>
-      <c r="V1" s="369" t="s">
+      <c r="V1" s="378" t="s">
         <v>527</v>
       </c>
       <c r="W1" s="253" t="s">
         <v>528</v>
       </c>
-      <c r="X1" s="370" t="s">
+      <c r="X1" s="375" t="s">
         <v>523</v>
       </c>
-      <c r="Y1" s="370"/>
-      <c r="Z1" s="370" t="s">
+      <c r="Y1" s="375"/>
+      <c r="Z1" s="375" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="370"/>
-      <c r="AB1" s="370" t="s">
+      <c r="AA1" s="375"/>
+      <c r="AB1" s="375" t="s">
         <v>529</v>
       </c>
-      <c r="AC1" s="370"/>
+      <c r="AC1" s="375"/>
     </row>
     <row r="2" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="254"/>
@@ -12836,24 +12861,24 @@
       <c r="E2" s="258"/>
       <c r="F2" s="259"/>
       <c r="G2" s="257"/>
-      <c r="H2" s="367" t="s">
+      <c r="H2" s="384" t="s">
         <v>481</v>
       </c>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367"/>
-      <c r="K2" s="367"/>
-      <c r="L2" s="367"/>
+      <c r="I2" s="384"/>
+      <c r="J2" s="384"/>
+      <c r="K2" s="384"/>
+      <c r="L2" s="384"/>
       <c r="M2" s="257"/>
-      <c r="N2" s="367" t="s">
+      <c r="N2" s="384" t="s">
         <v>482</v>
       </c>
-      <c r="O2" s="367"/>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
+      <c r="O2" s="384"/>
+      <c r="P2" s="384"/>
+      <c r="Q2" s="384"/>
+      <c r="R2" s="384"/>
       <c r="S2" s="257"/>
       <c r="T2" s="260"/>
-      <c r="V2" s="369"/>
+      <c r="V2" s="378"/>
       <c r="W2" s="261" t="s">
         <v>287</v>
       </c>
@@ -13001,11 +13026,11 @@
       </c>
       <c r="F5" s="276"/>
       <c r="G5" s="165"/>
-      <c r="H5" s="371">
+      <c r="H5" s="383">
         <f>L5/$E$4</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="I5" s="371"/>
+      <c r="I5" s="383"/>
       <c r="J5" s="183" t="s">
         <v>533</v>
       </c>
@@ -13017,11 +13042,11 @@
         <v>351562.54</v>
       </c>
       <c r="M5" s="165"/>
-      <c r="N5" s="371">
+      <c r="N5" s="383">
         <f>R5/$E$4</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="O5" s="371"/>
+      <c r="O5" s="383"/>
       <c r="P5" s="186" t="s">
         <v>493</v>
       </c>
@@ -13164,44 +13189,44 @@
       </c>
       <c r="I8" s="372"/>
       <c r="J8" s="157"/>
-      <c r="K8" s="368" t="s">
+      <c r="K8" s="373" t="s">
         <v>486</v>
       </c>
-      <c r="L8" s="368"/>
+      <c r="L8" s="373"/>
       <c r="M8" s="157"/>
       <c r="N8" s="372" t="s">
         <v>485</v>
       </c>
       <c r="O8" s="372"/>
       <c r="P8" s="372"/>
-      <c r="Q8" s="368" t="s">
+      <c r="Q8" s="373" t="s">
         <v>486</v>
       </c>
-      <c r="R8" s="368"/>
+      <c r="R8" s="373"/>
       <c r="S8" s="157"/>
       <c r="T8" s="275" t="s">
         <v>366</v>
       </c>
-      <c r="V8" s="378" t="s">
+      <c r="V8" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="W8" s="379">
+      <c r="W8" s="382">
         <f>SUM(W3:W7)</f>
         <v>626102.71</v>
       </c>
-      <c r="X8" s="376">
+      <c r="X8" s="370">
         <f>SUM(X3:X7)</f>
         <v>626102.71</v>
       </c>
-      <c r="Y8" s="377" t="e">
+      <c r="Y8" s="371" t="e">
         <f>SUM(Y3:Y7)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="376" t="e">
+      <c r="Z8" s="370" t="e">
         <f>SUM(Z3:Z7)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="377" t="e">
+      <c r="AA8" s="371" t="e">
         <f>SUM(AA3:AA7)</f>
         <v>#REF!</v>
       </c>
@@ -13261,16 +13286,16 @@
       <c r="T9" s="286" t="s">
         <v>488</v>
       </c>
-      <c r="V9" s="378"/>
-      <c r="W9" s="379"/>
-      <c r="X9" s="376"/>
-      <c r="Y9" s="377"/>
-      <c r="Z9" s="376"/>
-      <c r="AA9" s="377"/>
-      <c r="AB9" s="373" t="s">
+      <c r="V9" s="381"/>
+      <c r="W9" s="382"/>
+      <c r="X9" s="370"/>
+      <c r="Y9" s="371"/>
+      <c r="Z9" s="370"/>
+      <c r="AA9" s="371"/>
+      <c r="AB9" s="374" t="s">
         <v>537</v>
       </c>
-      <c r="AC9" s="373"/>
+      <c r="AC9" s="374"/>
     </row>
     <row r="10" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="190">
@@ -13358,25 +13383,25 @@
       <c r="T11" s="268">
         <v>5.52</v>
       </c>
-      <c r="V11" s="369" t="s">
+      <c r="V11" s="378" t="s">
         <v>538</v>
       </c>
-      <c r="W11" s="374" t="e">
+      <c r="W11" s="379" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="X11" s="370" t="s">
+      <c r="X11" s="375" t="s">
         <v>523</v>
       </c>
-      <c r="Y11" s="370"/>
-      <c r="Z11" s="370" t="s">
+      <c r="Y11" s="375"/>
+      <c r="Z11" s="375" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="370"/>
-      <c r="AB11" s="370" t="s">
+      <c r="AA11" s="375"/>
+      <c r="AB11" s="375" t="s">
         <v>529</v>
       </c>
-      <c r="AC11" s="370"/>
+      <c r="AC11" s="375"/>
     </row>
     <row r="12" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A12" s="159" t="s">
@@ -13437,8 +13462,8 @@
       <c r="T12" s="268">
         <v>5.52</v>
       </c>
-      <c r="V12" s="369"/>
-      <c r="W12" s="374"/>
+      <c r="V12" s="378"/>
+      <c r="W12" s="379"/>
       <c r="X12" s="262" t="s">
         <v>287</v>
       </c>
@@ -13480,7 +13505,7 @@
       <c r="V13" s="268">
         <v>2018</v>
       </c>
-      <c r="W13" s="374"/>
+      <c r="W13" s="379"/>
       <c r="X13" s="270">
         <f>I15</f>
         <v>16406.251866666666</v>
@@ -13531,7 +13556,7 @@
       <c r="V14" s="268">
         <v>2019</v>
       </c>
-      <c r="W14" s="374"/>
+      <c r="W14" s="379"/>
       <c r="X14" s="270">
         <f>I25</f>
         <v>20699.204717171131</v>
@@ -13596,7 +13621,7 @@
       <c r="V15" s="268">
         <v>2020</v>
       </c>
-      <c r="W15" s="374"/>
+      <c r="W15" s="379"/>
       <c r="X15" s="270">
         <f>I42</f>
         <v>50197.878908060913</v>
@@ -13659,7 +13684,7 @@
       <c r="V16" s="268">
         <v>2021</v>
       </c>
-      <c r="W16" s="374"/>
+      <c r="W16" s="379"/>
       <c r="X16" s="270">
         <f>I60</f>
         <v>118343.48939231082</v>
@@ -13729,7 +13754,7 @@
       <c r="V17" s="268">
         <v>2022</v>
       </c>
-      <c r="W17" s="374"/>
+      <c r="W17" s="379"/>
       <c r="X17" s="270" t="e">
         <f>I86</f>
         <v>#REF!</v>
@@ -13770,23 +13795,23 @@
       <c r="P18" s="151"/>
       <c r="R18" s="197"/>
       <c r="T18" s="268"/>
-      <c r="V18" s="375" t="s">
+      <c r="V18" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="W18" s="374"/>
-      <c r="X18" s="376" t="e">
+      <c r="W18" s="379"/>
+      <c r="X18" s="370" t="e">
         <f>SUM(X13:X17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="377" t="e">
+      <c r="Y18" s="371" t="e">
         <f>SUM(Y13:Y17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="376" t="e">
+      <c r="Z18" s="370" t="e">
         <f>SUM(Z13:Z17)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA18" s="377" t="e">
+      <c r="AA18" s="371" t="e">
         <f>SUM(AA13:AA17)</f>
         <v>#REF!</v>
       </c>
@@ -13822,16 +13847,16 @@
       <c r="R19" s="158"/>
       <c r="S19" s="156"/>
       <c r="T19" s="290"/>
-      <c r="V19" s="375"/>
-      <c r="W19" s="374"/>
-      <c r="X19" s="376"/>
-      <c r="Y19" s="377"/>
-      <c r="Z19" s="376"/>
-      <c r="AA19" s="377"/>
-      <c r="AB19" s="373" t="s">
+      <c r="V19" s="380"/>
+      <c r="W19" s="379"/>
+      <c r="X19" s="370"/>
+      <c r="Y19" s="371"/>
+      <c r="Z19" s="370"/>
+      <c r="AA19" s="371"/>
+      <c r="AB19" s="374" t="s">
         <v>543</v>
       </c>
-      <c r="AC19" s="373"/>
+      <c r="AC19" s="374"/>
     </row>
     <row r="20" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A20" s="159" t="s">
@@ -13958,25 +13983,25 @@
       <c r="T21" s="268">
         <v>5.73</v>
       </c>
-      <c r="V21" s="369" t="s">
+      <c r="V21" s="378" t="s">
         <v>544</v>
       </c>
-      <c r="W21" s="374" t="e">
+      <c r="W21" s="379" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="X21" s="370" t="s">
+      <c r="X21" s="375" t="s">
         <v>523</v>
       </c>
-      <c r="Y21" s="370"/>
-      <c r="Z21" s="370" t="s">
+      <c r="Y21" s="375"/>
+      <c r="Z21" s="375" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="370"/>
-      <c r="AB21" s="370" t="s">
+      <c r="AA21" s="375"/>
+      <c r="AB21" s="375" t="s">
         <v>529</v>
       </c>
-      <c r="AC21" s="370"/>
+      <c r="AC21" s="375"/>
     </row>
     <row r="22" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A22" s="159" t="s">
@@ -14037,8 +14062,8 @@
       <c r="T22" s="268">
         <v>5.73</v>
       </c>
-      <c r="V22" s="369"/>
-      <c r="W22" s="374"/>
+      <c r="V22" s="378"/>
+      <c r="W22" s="379"/>
       <c r="X22" s="262" t="s">
         <v>287</v>
       </c>
@@ -14070,7 +14095,7 @@
       <c r="V23" s="268">
         <v>2018</v>
       </c>
-      <c r="W23" s="374"/>
+      <c r="W23" s="379"/>
       <c r="X23" s="270">
         <f>O15</f>
         <v>4593.7481333333335</v>
@@ -14122,7 +14147,7 @@
       <c r="V24" s="268">
         <v>2019</v>
       </c>
-      <c r="W24" s="374"/>
+      <c r="W24" s="379"/>
       <c r="X24" s="270">
         <f>O25</f>
         <v>5800.7952828288689</v>
@@ -14186,7 +14211,7 @@
       <c r="V25" s="268">
         <v>2020</v>
       </c>
-      <c r="W25" s="374"/>
+      <c r="W25" s="379"/>
       <c r="X25" s="270">
         <f>O42</f>
         <v>14302.121091939091</v>
@@ -14249,7 +14274,7 @@
       <c r="V26" s="268">
         <v>2021</v>
       </c>
-      <c r="W26" s="374"/>
+      <c r="W26" s="379"/>
       <c r="X26" s="270">
         <f>O60</f>
         <v>33916.510607689197</v>
@@ -14319,7 +14344,7 @@
       <c r="V27" s="268">
         <v>2022</v>
       </c>
-      <c r="W27" s="374"/>
+      <c r="W27" s="379"/>
       <c r="X27" s="270" t="e">
         <f>O86</f>
         <v>#REF!</v>
@@ -14356,23 +14381,23 @@
       <c r="P28" s="151"/>
       <c r="R28" s="197"/>
       <c r="T28" s="268"/>
-      <c r="V28" s="375" t="s">
+      <c r="V28" s="380" t="s">
         <v>535</v>
       </c>
-      <c r="W28" s="374"/>
-      <c r="X28" s="376" t="e">
+      <c r="W28" s="379"/>
+      <c r="X28" s="370" t="e">
         <f>SUM(X23:X27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y28" s="377" t="e">
+      <c r="Y28" s="371" t="e">
         <f>SUM(Y23:Y27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z28" s="376" t="e">
+      <c r="Z28" s="370" t="e">
         <f>SUM(Z23:Z27)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA28" s="377" t="e">
+      <c r="AA28" s="371" t="e">
         <f>SUM(AA23:AA27)</f>
         <v>#REF!</v>
       </c>
@@ -14408,16 +14433,16 @@
       <c r="R29" s="158"/>
       <c r="S29" s="156"/>
       <c r="T29" s="290"/>
-      <c r="V29" s="375"/>
-      <c r="W29" s="374"/>
-      <c r="X29" s="376"/>
-      <c r="Y29" s="377"/>
-      <c r="Z29" s="376"/>
-      <c r="AA29" s="377"/>
-      <c r="AB29" s="373" t="s">
+      <c r="V29" s="380"/>
+      <c r="W29" s="379"/>
+      <c r="X29" s="370"/>
+      <c r="Y29" s="371"/>
+      <c r="Z29" s="370"/>
+      <c r="AA29" s="371"/>
+      <c r="AB29" s="374" t="s">
         <v>549</v>
       </c>
-      <c r="AC29" s="373"/>
+      <c r="AC29" s="374"/>
     </row>
     <row r="30" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A30" s="159" t="s">
@@ -14546,18 +14571,18 @@
       </c>
       <c r="V31" s="153"/>
       <c r="W31" s="156"/>
-      <c r="X31" s="370" t="s">
+      <c r="X31" s="375" t="s">
         <v>523</v>
       </c>
-      <c r="Y31" s="370"/>
-      <c r="Z31" s="380" t="s">
+      <c r="Y31" s="375"/>
+      <c r="Z31" s="376" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="380"/>
-      <c r="AB31" s="381" t="s">
+      <c r="AA31" s="376"/>
+      <c r="AB31" s="377" t="s">
         <v>529</v>
       </c>
-      <c r="AC31" s="381"/>
+      <c r="AC31" s="377"/>
     </row>
     <row r="32" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A32" s="159" t="s">
@@ -14701,23 +14726,23 @@
       <c r="T33" s="268">
         <v>7.93</v>
       </c>
-      <c r="V33" s="383" t="s">
+      <c r="V33" s="369" t="s">
         <v>550</v>
       </c>
-      <c r="W33" s="383"/>
-      <c r="X33" s="376" t="e">
+      <c r="W33" s="369"/>
+      <c r="X33" s="370" t="e">
         <f>X28+X18</f>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="377" t="e">
+      <c r="Y33" s="371" t="e">
         <f>Y28+Y18</f>
         <v>#REF!</v>
       </c>
-      <c r="Z33" s="376" t="e">
+      <c r="Z33" s="370" t="e">
         <f>Z28+Z18</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="377" t="e">
+      <c r="AA33" s="371" t="e">
         <f>AA28+AA18</f>
         <v>#REF!</v>
       </c>
@@ -14789,16 +14814,16 @@
       <c r="T34" s="268">
         <v>7.93</v>
       </c>
-      <c r="V34" s="383"/>
-      <c r="W34" s="383"/>
-      <c r="X34" s="376"/>
-      <c r="Y34" s="377"/>
-      <c r="Z34" s="376"/>
-      <c r="AA34" s="377"/>
-      <c r="AB34" s="373" t="s">
+      <c r="V34" s="369"/>
+      <c r="W34" s="369"/>
+      <c r="X34" s="370"/>
+      <c r="Y34" s="371"/>
+      <c r="Z34" s="370"/>
+      <c r="AA34" s="371"/>
+      <c r="AB34" s="374" t="s">
         <v>537</v>
       </c>
-      <c r="AC34" s="373"/>
+      <c r="AC34" s="374"/>
     </row>
     <row r="35" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
@@ -14982,16 +15007,16 @@
       <c r="T37" s="268">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V37" s="383" t="s">
+      <c r="V37" s="369" t="s">
         <v>551</v>
       </c>
-      <c r="W37" s="383"/>
-      <c r="X37" s="383"/>
-      <c r="Y37" s="383"/>
-      <c r="Z37" s="383"/>
-      <c r="AA37" s="383"/>
-      <c r="AB37" s="383"/>
-      <c r="AC37" s="383"/>
+      <c r="W37" s="369"/>
+      <c r="X37" s="369"/>
+      <c r="Y37" s="369"/>
+      <c r="Z37" s="369"/>
+      <c r="AA37" s="369"/>
+      <c r="AB37" s="369"/>
+      <c r="AC37" s="369"/>
     </row>
     <row r="38" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
@@ -15400,20 +15425,20 @@
       </c>
       <c r="I45" s="372"/>
       <c r="J45" s="157"/>
-      <c r="K45" s="368" t="s">
+      <c r="K45" s="373" t="s">
         <v>486</v>
       </c>
-      <c r="L45" s="368"/>
+      <c r="L45" s="373"/>
       <c r="M45" s="157"/>
       <c r="N45" s="372" t="s">
         <v>485</v>
       </c>
       <c r="O45" s="372"/>
       <c r="P45" s="372"/>
-      <c r="Q45" s="368" t="s">
+      <c r="Q45" s="373" t="s">
         <v>486</v>
       </c>
-      <c r="R45" s="368"/>
+      <c r="R45" s="373"/>
       <c r="S45" s="157"/>
       <c r="T45" s="275" t="s">
         <v>366</v>
@@ -19510,22 +19535,22 @@
         <v>571</v>
       </c>
       <c r="G84" s="334"/>
-      <c r="H84" s="382" t="e">
+      <c r="H84" s="368" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="I84" s="382"/>
+      <c r="I84" s="368"/>
       <c r="J84" s="335" t="s">
         <v>481</v>
       </c>
       <c r="K84" s="334"/>
       <c r="L84" s="336"/>
       <c r="M84" s="332"/>
-      <c r="N84" s="382" t="e">
+      <c r="N84" s="368" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="O84" s="382"/>
+      <c r="O84" s="368"/>
       <c r="P84" s="337" t="s">
         <v>482</v>
       </c>
@@ -48432,35 +48457,18 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="V33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="V37:AC37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W19"/>
@@ -48477,18 +48485,35 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="V33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="V37:AC37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -54126,8 +54151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -54261,6 +54286,9 @@
       <c r="A10" s="60">
         <v>45194</v>
       </c>
+      <c r="B10" s="385" t="s">
+        <v>605</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29">
         <v>83000</v>
@@ -54273,6 +54301,9 @@
     <row r="11" spans="1:6">
       <c r="A11" s="60">
         <v>45195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>605</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29">
@@ -54301,6 +54332,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" s="386">
+        <v>45244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>606</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="27">
@@ -54310,6 +54347,9 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="30"/>
+      <c r="B14" t="s">
+        <v>607</v>
+      </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="27">
@@ -54319,6 +54359,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="30"/>
+      <c r="B15" t="s">
+        <v>608</v>
+      </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="27">
@@ -54328,6 +54371,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="30"/>
+      <c r="B16" t="s">
+        <v>609</v>
+      </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
       <c r="F16" s="27">
@@ -54346,6 +54392,9 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="30"/>
+      <c r="B18" t="s">
+        <v>603</v>
+      </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="27">
@@ -54355,6 +54404,9 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="30"/>
+      <c r="B19" t="s">
+        <v>604</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="27">

--- a/02-23-sny.xlsx
+++ b/02-23-sny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A4E58A-F0FC-4FC2-A567-2C48CB4809A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9BE43B-1AAE-4C01-A517-10E95959D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="614">
   <si>
     <t>2022-23</t>
   </si>
@@ -890,9 +890,6 @@
     <t>elden nakit iade</t>
   </si>
   <si>
-    <t>Sanayi 1 Yazıhane</t>
-  </si>
-  <si>
     <t>300 m2</t>
   </si>
   <si>
@@ -2205,6 +2202,21 @@
   </si>
   <si>
     <t>Yaptığı ödemenin kalanını yeni kiracıdan alınca veririm dedim.</t>
+  </si>
+  <si>
+    <t>vazgeçip bankadan ödeme yapıldı</t>
+  </si>
+  <si>
+    <t>Alçıpan - çatı uçtu</t>
+  </si>
+  <si>
+    <t>işçilik - selanik 2 işçi 1/2 gün 1000 TL</t>
+  </si>
+  <si>
+    <t>snyA Çatı Masrafı</t>
+  </si>
+  <si>
+    <t>SnyH  Yazıhane</t>
   </si>
 </sst>
 </file>
@@ -3844,6 +3856,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3859,13 +3884,49 @@
     <xf numFmtId="174" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3874,55 +3935,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4258,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4355,7 +4367,7 @@
       </c>
       <c r="C10" s="3">
         <f>'SnyC301-22'!D4</f>
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="D10" s="3">
         <f>'SnyC301-22'!E4</f>
@@ -4363,7 +4375,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="F10" s="4">
         <f>'SnyC301-22'!D6</f>
@@ -4431,11 +4443,11 @@
       </c>
       <c r="D13" s="3">
         <f>'SnyG702-22'!E4</f>
-        <v>86000</v>
+        <v>96000</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
         <f>'SnyG702-22'!D6</f>
@@ -4451,12 +4463,12 @@
       </c>
       <c r="C14" s="4">
         <f>SnH_yazıhane!F2*-1</f>
-        <v>-3056.4</v>
+        <v>-5556.4</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <f>C14+D14</f>
-        <v>-3056.4</v>
+        <v>-5556.4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4468,15 +4480,15 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>582256.11909485457</v>
+        <v>619756.11909485457</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
-        <v>356312.52</v>
+        <v>366312.52</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>225943.59909485455</v>
+        <v>253443.59909485455</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -4519,13 +4531,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="25.5">
       <c r="F1" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="H1" s="110" t="s">
         <v>285</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>286</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="111"/>
@@ -4535,28 +4547,28 @@
         <v>2018</v>
       </c>
       <c r="F2" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="J2" s="114"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="60">
         <v>43403</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="4">
         <v>25000</v>
@@ -4569,13 +4581,13 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="60">
         <v>43403</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G4" s="4">
         <v>7500</v>
@@ -4594,13 +4606,13 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="60">
         <v>43461</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G5" s="4">
         <v>13500</v>
@@ -4620,7 +4632,7 @@
     <row r="6" spans="2:10">
       <c r="C6" s="60"/>
       <c r="D6" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(F3:F5)</f>
@@ -4655,13 +4667,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="60">
         <v>43595</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G9" s="4">
         <v>2000</v>
@@ -4680,13 +4692,13 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="60">
         <v>43718</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G10" s="4">
         <v>2000</v>
@@ -4705,13 +4717,13 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="60">
         <v>43768</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F11" s="117">
         <v>30645</v>
@@ -4725,16 +4737,16 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="60">
         <v>43799</v>
       </c>
       <c r="D12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="F12" s="117">
         <v>4000</v>
@@ -4748,13 +4760,13 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="60">
         <v>43799</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="117"/>
@@ -4775,13 +4787,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="60">
         <v>43781</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E14" t="s">
         <v>236</v>
@@ -4805,7 +4817,7 @@
     <row r="15" spans="2:10">
       <c r="C15" s="60"/>
       <c r="D15" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" s="118">
         <f>SUM(F9:F14)</f>
@@ -4836,7 +4848,7 @@
     <row r="17" spans="2:10">
       <c r="C17" s="60"/>
       <c r="D17" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E17" s="97"/>
       <c r="F17" s="119"/>
@@ -4849,16 +4861,16 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="60">
         <v>43920</v>
       </c>
       <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" t="s">
         <v>303</v>
-      </c>
-      <c r="E18" t="s">
-        <v>304</v>
       </c>
       <c r="F18" s="117">
         <v>6200</v>
@@ -4872,13 +4884,13 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19" s="60">
         <v>43920</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117">
@@ -4898,13 +4910,13 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="60">
         <v>43922</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117">
@@ -4924,13 +4936,13 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" s="60">
         <v>44073</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F21" s="117">
         <v>30000</v>
@@ -4944,13 +4956,13 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="60">
         <v>44063</v>
       </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="117"/>
@@ -4971,13 +4983,13 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="60">
         <v>44104</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="117"/>
@@ -4998,16 +5010,16 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" s="60">
         <v>44134</v>
       </c>
       <c r="D24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" t="s">
         <v>311</v>
-      </c>
-      <c r="E24" t="s">
-        <v>312</v>
       </c>
       <c r="F24" s="117">
         <v>7800</v>
@@ -5021,13 +5033,13 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25" s="60">
         <v>44134</v>
       </c>
       <c r="D25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117">
@@ -5047,13 +5059,13 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="60">
         <v>44134</v>
       </c>
       <c r="D26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F26" s="117">
         <v>3014</v>
@@ -5067,13 +5079,13 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="60">
         <v>44151</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F27" s="117">
         <v>1610</v>
@@ -5087,13 +5099,13 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" s="60">
         <v>44124</v>
       </c>
       <c r="D28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F28" s="117">
         <v>35000</v>
@@ -5107,13 +5119,13 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" s="60">
         <v>44124</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F29" s="117"/>
       <c r="G29" s="117">
@@ -5133,13 +5145,13 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C30" s="60">
         <v>44165</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F30" s="117"/>
       <c r="G30" s="117">
@@ -5159,13 +5171,13 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="60">
         <v>44147</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="117"/>
@@ -5186,13 +5198,13 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C32" s="60">
         <v>44177</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="117"/>
@@ -5213,7 +5225,7 @@
     </row>
     <row r="33" spans="2:10" customFormat="1">
       <c r="D33" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="118">
         <f>SUM(F18:F32)</f>
@@ -5249,13 +5261,13 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="60">
         <v>44226</v>
       </c>
       <c r="D36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F36" s="117"/>
       <c r="G36" s="117">
@@ -5275,13 +5287,13 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C37" s="60">
         <v>44285</v>
       </c>
       <c r="D37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" s="117"/>
       <c r="G37" s="117">
@@ -5301,16 +5313,16 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C38" s="60">
         <v>44316</v>
       </c>
       <c r="D38" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" t="s">
         <v>325</v>
-      </c>
-      <c r="E38" t="s">
-        <v>326</v>
       </c>
       <c r="F38" s="117">
         <v>6800</v>
@@ -5324,13 +5336,13 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C39" s="60">
         <v>44316</v>
       </c>
       <c r="D39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F39" s="117"/>
       <c r="G39" s="117">
@@ -5350,13 +5362,13 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="60">
         <v>44457</v>
       </c>
       <c r="D40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F40" s="117">
         <v>24000</v>
@@ -5370,13 +5382,13 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C41" s="60">
         <v>44457</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F41" s="117"/>
       <c r="G41" s="117">
@@ -5396,13 +5408,13 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C42" s="60">
         <v>44267</v>
       </c>
       <c r="D42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F42" s="117"/>
       <c r="G42" s="117">
@@ -5422,13 +5434,13 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C43" s="60">
         <v>44672</v>
       </c>
       <c r="D43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F43" s="117"/>
       <c r="G43" s="117">
@@ -5448,13 +5460,13 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C44" s="60">
         <v>44717</v>
       </c>
       <c r="D44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F44" s="117"/>
       <c r="G44" s="117">
@@ -5474,13 +5486,13 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C45" s="60">
         <v>44438</v>
       </c>
       <c r="D45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F45" s="117">
         <v>28800</v>
@@ -5494,13 +5506,13 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C46" s="60">
         <v>44438</v>
       </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F46" s="117"/>
       <c r="G46" s="117">
@@ -5520,13 +5532,13 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C47" s="60">
         <v>44894</v>
       </c>
       <c r="D47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F47" s="117">
         <v>43160</v>
@@ -5540,13 +5552,13 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C48" s="60">
         <v>44894</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F48" s="117"/>
       <c r="G48" s="117">
@@ -5566,13 +5578,13 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C49" s="60">
         <v>44413</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F49" s="117">
         <v>30000</v>
@@ -5586,13 +5598,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C50" s="60">
         <v>44413</v>
       </c>
       <c r="D50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F50" s="117"/>
       <c r="G50" s="117">
@@ -5619,7 +5631,7 @@
     </row>
     <row r="52" spans="2:10">
       <c r="D52" s="97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F52" s="118">
         <f>SUM(F36:F50)</f>
@@ -5634,7 +5646,7 @@
     </row>
     <row r="53" spans="2:10">
       <c r="D53" s="97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F53" s="117"/>
       <c r="G53" s="118">
@@ -5678,13 +5690,13 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C60" s="60">
         <v>44651</v>
       </c>
       <c r="D60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F60" s="121">
         <v>36000</v>
@@ -5698,13 +5710,13 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C61" s="60">
         <v>44651</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F61" s="117"/>
       <c r="G61" s="121">
@@ -5724,13 +5736,13 @@
     </row>
     <row r="62" spans="2:10" customFormat="1">
       <c r="B62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" s="60">
         <v>44681</v>
       </c>
       <c r="D62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F62" s="117"/>
       <c r="G62" s="121">
@@ -5750,13 +5762,13 @@
     </row>
     <row r="63" spans="2:10" customFormat="1">
       <c r="B63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C63" s="60">
         <v>44711</v>
       </c>
       <c r="D63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F63" s="117"/>
       <c r="G63" s="121">
@@ -5776,13 +5788,13 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C64" s="60">
         <v>44774</v>
       </c>
       <c r="D64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F64" s="117">
         <v>45000</v>
@@ -5796,13 +5808,13 @@
     </row>
     <row r="65" spans="2:13">
       <c r="B65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="60">
         <v>44774</v>
       </c>
       <c r="D65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F65" s="117"/>
       <c r="G65" s="117">
@@ -5822,13 +5834,13 @@
     </row>
     <row r="66" spans="2:13">
       <c r="B66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C66" s="60">
         <v>44778</v>
       </c>
       <c r="D66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F66" s="117"/>
       <c r="G66" s="117">
@@ -5849,13 +5861,13 @@
     </row>
     <row r="67" spans="2:13">
       <c r="B67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="60">
         <v>44798</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F67" s="122">
         <v>48000</v>
@@ -5870,13 +5882,13 @@
     </row>
     <row r="68" spans="2:13">
       <c r="B68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C68" s="60">
         <v>44798</v>
       </c>
       <c r="D68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F68" s="117"/>
       <c r="G68" s="122">
@@ -5898,13 +5910,13 @@
     </row>
     <row r="69" spans="2:13">
       <c r="B69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C69" s="60">
         <v>44834</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F69" s="117"/>
       <c r="G69" s="122">
@@ -5926,13 +5938,13 @@
     </row>
     <row r="70" spans="2:13">
       <c r="B70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C70" s="60">
         <v>44864</v>
       </c>
       <c r="D70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F70" s="117"/>
       <c r="G70" s="122">
@@ -5954,13 +5966,13 @@
     </row>
     <row r="71" spans="2:13">
       <c r="B71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="60">
         <v>44844</v>
       </c>
       <c r="D71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F71" s="117">
         <v>40000</v>
@@ -5976,13 +5988,13 @@
     </row>
     <row r="72" spans="2:13">
       <c r="B72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C72" s="60">
         <v>44844</v>
       </c>
       <c r="D72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F72" s="117"/>
       <c r="G72" s="117">
@@ -6004,13 +6016,13 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C73" s="60">
         <v>44895</v>
       </c>
       <c r="D73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F73" s="117"/>
       <c r="G73" s="122">
@@ -6032,13 +6044,13 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C74" s="60">
         <v>44895</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F74" s="4">
         <v>82000</v>
@@ -6053,13 +6065,13 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C75" s="60">
         <v>44895</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G75" s="4">
         <v>80000</v>
@@ -6079,13 +6091,13 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C76" s="60">
         <v>44895</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G76" s="4">
         <v>2000</v>
@@ -6105,13 +6117,13 @@
     </row>
     <row r="77" spans="2:13">
       <c r="B77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C77" s="60">
         <v>44895</v>
       </c>
       <c r="D77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F77" s="4">
         <v>84000</v>
@@ -6125,13 +6137,13 @@
     </row>
     <row r="78" spans="2:13">
       <c r="B78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C78" s="60">
         <v>44895</v>
       </c>
       <c r="D78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G78" s="4">
         <v>84000</v>
@@ -6151,13 +6163,13 @@
     </row>
     <row r="79" spans="2:13">
       <c r="B79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C79" s="60">
         <v>44925</v>
       </c>
       <c r="D79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G79" s="4">
         <v>1000</v>
@@ -6179,13 +6191,13 @@
     </row>
     <row r="81" spans="2:10" customFormat="1">
       <c r="B81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="60">
         <v>44763</v>
       </c>
       <c r="D81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4">
@@ -6205,13 +6217,13 @@
     </row>
     <row r="82" spans="2:10" customFormat="1">
       <c r="B82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="60">
         <v>44763</v>
       </c>
       <c r="D82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F82" s="4">
         <v>3892.36</v>
@@ -6225,13 +6237,13 @@
     </row>
     <row r="83" spans="2:10" customFormat="1">
       <c r="B83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C83" s="60">
         <v>44763</v>
       </c>
       <c r="D83" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
@@ -6251,7 +6263,7 @@
     </row>
     <row r="84" spans="2:10" customFormat="1">
       <c r="B84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F84" s="4">
         <v>11181.35</v>
@@ -6265,7 +6277,7 @@
     </row>
     <row r="85" spans="2:10" customFormat="1">
       <c r="B85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4">
@@ -6294,7 +6306,7 @@
     </row>
     <row r="87" spans="2:10" customFormat="1">
       <c r="D87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4">
@@ -6320,7 +6332,7 @@
     </row>
     <row r="90" spans="2:10">
       <c r="D90" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F90" s="6">
         <f>SUM(F60:F89)</f>
@@ -6334,7 +6346,7 @@
     </row>
     <row r="91" spans="2:10" customFormat="1">
       <c r="D91" s="97" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="6">
@@ -6345,7 +6357,7 @@
     </row>
     <row r="92" spans="2:10" customFormat="1">
       <c r="D92" s="97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6360,7 +6372,7 @@
     </row>
     <row r="94" spans="2:10" customFormat="1">
       <c r="D94" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F94" s="6">
         <f>F90+F52+F33+F15+F6</f>
@@ -6449,11 +6461,11 @@
       <c r="A1" s="123"/>
       <c r="B1" s="123"/>
       <c r="C1" s="123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D1" s="123"/>
       <c r="E1" s="123" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F1" s="124"/>
       <c r="G1" s="125"/>
@@ -6466,13 +6478,13 @@
       <c r="D2" s="123"/>
       <c r="E2" s="123"/>
       <c r="F2" s="128" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G2" s="129" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" s="129" t="s">
         <v>365</v>
-      </c>
-      <c r="H2" s="129" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="11.25" customHeight="1">
@@ -6480,13 +6492,13 @@
         <v>2014</v>
       </c>
       <c r="B3" s="126" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="126" t="s">
         <v>367</v>
-      </c>
-      <c r="D3" s="126" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="126" t="s">
-        <v>368</v>
       </c>
       <c r="F3" s="130">
         <v>-16.91</v>
@@ -6501,13 +6513,13 @@
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1">
       <c r="B4" s="126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4" s="126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="130">
         <v>-3.31</v>
@@ -6529,16 +6541,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="126">
         <v>2018</v>
       </c>
       <c r="D6" s="126" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="126" t="s">
         <v>371</v>
-      </c>
-      <c r="E6" s="126" t="s">
-        <v>372</v>
       </c>
       <c r="F6" s="130">
         <v>-257.25</v>
@@ -6553,16 +6565,16 @@
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
       <c r="B7" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="126">
         <v>2018</v>
       </c>
       <c r="D7" s="126" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="133" t="s">
         <v>373</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>374</v>
       </c>
       <c r="F7" s="130">
         <v>-142.18</v>
@@ -6577,16 +6589,16 @@
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1">
       <c r="B8" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="126">
         <v>2018</v>
       </c>
       <c r="D8" s="126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F8" s="130">
         <v>-142.18</v>
@@ -6601,16 +6613,16 @@
     </row>
     <row r="9" spans="1:8" ht="11.25" customHeight="1">
       <c r="B9" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="126">
         <v>2018</v>
       </c>
       <c r="D9" s="126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F9" s="130">
         <v>-250.8</v>
@@ -6625,7 +6637,7 @@
     </row>
     <row r="10" spans="1:8" ht="11.25" customHeight="1">
       <c r="B10" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" s="126">
         <v>2018</v>
@@ -6634,7 +6646,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F10" s="130">
         <v>-197.61</v>
@@ -6649,13 +6661,13 @@
     </row>
     <row r="11" spans="1:8" ht="11.25" customHeight="1">
       <c r="B11" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" s="126">
         <v>2018</v>
       </c>
       <c r="D11" s="126" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E11" s="131"/>
       <c r="F11" s="130">
@@ -6671,7 +6683,7 @@
     </row>
     <row r="12" spans="1:8" ht="11.25" customHeight="1">
       <c r="D12" s="126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E12" s="131"/>
       <c r="F12" s="130">
@@ -6681,7 +6693,7 @@
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1">
       <c r="D13" s="126" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" s="131"/>
       <c r="F13" s="130">
@@ -6691,13 +6703,13 @@
     </row>
     <row r="14" spans="1:8" ht="11.25" customHeight="1">
       <c r="B14" s="126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="126">
         <v>2018</v>
       </c>
       <c r="D14" s="126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="130">
@@ -6713,7 +6725,7 @@
     </row>
     <row r="15" spans="1:8" ht="11.25" customHeight="1">
       <c r="D15" s="126" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E15" s="131"/>
       <c r="F15" s="130">
@@ -6732,7 +6744,7 @@
       <c r="C16" s="135"/>
       <c r="D16" s="134"/>
       <c r="E16" s="136" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F16" s="137">
         <f>SUM(F3:F15)</f>
@@ -6746,7 +6758,7 @@
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
       <c r="E17" s="140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F17" s="141">
         <f>F16</f>
@@ -6768,26 +6780,26 @@
         <v>2019</v>
       </c>
       <c r="B19" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C19" s="126">
         <v>2019</v>
       </c>
       <c r="D19" s="131" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E19" s="131"/>
       <c r="H19" s="132"/>
     </row>
     <row r="20" spans="1:8" ht="11.25" customHeight="1">
       <c r="B20" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="126">
         <v>2019</v>
       </c>
       <c r="D20" s="131" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F20" s="130">
         <v>-179.2</v>
@@ -6802,13 +6814,13 @@
     </row>
     <row r="21" spans="1:8" ht="11.25" customHeight="1">
       <c r="B21" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C21" s="126">
         <v>2019</v>
       </c>
       <c r="D21" s="131" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F21" s="130">
         <v>-55.9</v>
@@ -6823,16 +6835,16 @@
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1">
       <c r="B22" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C22" s="126">
         <v>2019</v>
       </c>
       <c r="D22" s="126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" s="133" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F22" s="130">
         <v>-142.13</v>
@@ -6847,16 +6859,16 @@
     </row>
     <row r="23" spans="1:8" ht="11.25" customHeight="1">
       <c r="B23" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C23" s="126">
         <v>2019</v>
       </c>
       <c r="D23" s="126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E23" s="133" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F23" s="130">
         <v>-429.54</v>
@@ -6871,13 +6883,13 @@
     </row>
     <row r="24" spans="1:8" ht="11.25" customHeight="1">
       <c r="B24" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="126">
         <v>2019</v>
       </c>
       <c r="D24" s="131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F24" s="130">
         <v>-65.8</v>
@@ -6892,13 +6904,13 @@
     </row>
     <row r="25" spans="1:8" ht="11.25" customHeight="1">
       <c r="B25" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" s="126">
         <v>2019</v>
       </c>
       <c r="D25" s="131" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F25" s="130">
         <v>-82.94</v>
@@ -6913,13 +6925,13 @@
     </row>
     <row r="26" spans="1:8" ht="11.25" customHeight="1">
       <c r="B26" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C26" s="126">
         <v>2019</v>
       </c>
       <c r="D26" s="131" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F26" s="130">
         <v>-78.790000000000006</v>
@@ -6934,13 +6946,13 @@
     </row>
     <row r="27" spans="1:8" ht="11.25" customHeight="1">
       <c r="B27" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C27" s="126">
         <v>2019</v>
       </c>
       <c r="D27" s="131" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F27" s="130">
         <v>-39.35</v>
@@ -6955,16 +6967,16 @@
     </row>
     <row r="28" spans="1:8" ht="11.25" customHeight="1">
       <c r="B28" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C28" s="126">
         <v>2019</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F28" s="130">
         <v>-598.75</v>
@@ -6979,13 +6991,13 @@
     </row>
     <row r="29" spans="1:8" ht="11.25" customHeight="1">
       <c r="B29" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" s="126">
         <v>2019</v>
       </c>
       <c r="D29" s="131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F29" s="130">
         <v>-100.02</v>
@@ -7000,13 +7012,13 @@
     </row>
     <row r="30" spans="1:8" ht="11.25" customHeight="1">
       <c r="B30" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C30" s="126">
         <v>2019</v>
       </c>
       <c r="D30" s="131" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F30" s="130">
         <v>-232.4</v>
@@ -7021,13 +7033,13 @@
     </row>
     <row r="31" spans="1:8" ht="11.25" customHeight="1">
       <c r="B31" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C31" s="126">
         <v>2019</v>
       </c>
       <c r="D31" s="126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E31" s="131"/>
       <c r="F31" s="130">
@@ -7046,7 +7058,7 @@
       <c r="C32" s="135"/>
       <c r="D32" s="134"/>
       <c r="E32" s="136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F32" s="137">
         <f>SUM(F19:F31)</f>
@@ -7060,7 +7072,7 @@
     </row>
     <row r="33" spans="1:8" ht="11.25" customHeight="1">
       <c r="E33" s="140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F33" s="141">
         <f>F32+F16</f>
@@ -7081,13 +7093,13 @@
         <v>2020</v>
       </c>
       <c r="B35" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C35" s="133">
         <v>44110</v>
       </c>
       <c r="D35" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E35" s="131"/>
       <c r="F35" s="130">
@@ -7103,13 +7115,13 @@
     </row>
     <row r="36" spans="1:8" ht="11.25" customHeight="1">
       <c r="B36" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C36" s="133">
         <v>44160</v>
       </c>
       <c r="D36" s="131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E36" s="131"/>
       <c r="F36" s="130">
@@ -7125,13 +7137,13 @@
     </row>
     <row r="37" spans="1:8" ht="11.25" customHeight="1">
       <c r="B37" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C37" s="133">
         <v>44160</v>
       </c>
       <c r="D37" s="131" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E37" s="131"/>
       <c r="F37" s="130">
@@ -7147,10 +7159,10 @@
     </row>
     <row r="38" spans="1:8" ht="11.25" customHeight="1">
       <c r="B38" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D38" s="126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E38" s="131"/>
       <c r="F38" s="130">
@@ -7166,10 +7178,10 @@
     </row>
     <row r="39" spans="1:8" ht="11.25" customHeight="1">
       <c r="B39" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D39" s="126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E39" s="131"/>
       <c r="F39" s="130">
@@ -7185,10 +7197,10 @@
     </row>
     <row r="40" spans="1:8" ht="11.25" customHeight="1">
       <c r="B40" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D40" s="126" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E40" s="131"/>
       <c r="F40" s="130">
@@ -7204,10 +7216,10 @@
     </row>
     <row r="41" spans="1:8" ht="11.25" customHeight="1">
       <c r="B41" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D41" s="126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E41" s="131"/>
       <c r="F41" s="130">
@@ -7223,10 +7235,10 @@
     </row>
     <row r="42" spans="1:8" ht="11.25" customHeight="1">
       <c r="B42" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D42" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E42" s="131"/>
       <c r="F42" s="130">
@@ -7242,10 +7254,10 @@
     </row>
     <row r="43" spans="1:8" ht="11.25" customHeight="1">
       <c r="B43" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D43" s="126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E43" s="131"/>
       <c r="F43" s="130">
@@ -7261,13 +7273,13 @@
     </row>
     <row r="44" spans="1:8" ht="11.25" customHeight="1">
       <c r="B44" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C44" s="133">
         <v>43941</v>
       </c>
       <c r="D44" s="126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E44" s="131"/>
       <c r="F44" s="130">
@@ -7283,10 +7295,10 @@
     </row>
     <row r="45" spans="1:8" ht="11.25" customHeight="1">
       <c r="B45" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D45" s="131" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F45" s="130">
         <v>-9.9</v>
@@ -7301,10 +7313,10 @@
     </row>
     <row r="46" spans="1:8" ht="11.25" customHeight="1">
       <c r="B46" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D46" s="131" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F46" s="130">
         <v>-5.46</v>
@@ -7319,10 +7331,10 @@
     </row>
     <row r="47" spans="1:8" ht="11.25" customHeight="1">
       <c r="B47" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D47" s="131" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F47" s="130">
         <v>-13.65</v>
@@ -7337,10 +7349,10 @@
     </row>
     <row r="48" spans="1:8" ht="11.25" customHeight="1">
       <c r="B48" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D48" s="131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F48" s="130">
         <v>-13</v>
@@ -7355,13 +7367,13 @@
     </row>
     <row r="49" spans="2:8" ht="11.25" customHeight="1">
       <c r="B49" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="133">
         <v>44165</v>
       </c>
       <c r="D49" s="131" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F49" s="130">
         <v>-170</v>
@@ -7376,11 +7388,11 @@
     </row>
     <row r="50" spans="2:8" ht="11.25" customHeight="1">
       <c r="B50" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="133"/>
       <c r="D50" s="131" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F50" s="130">
         <v>-226.11</v>
@@ -7395,7 +7407,7 @@
     </row>
     <row r="51" spans="2:8" ht="11.25" customHeight="1">
       <c r="B51" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="133">
         <v>44165</v>
@@ -7417,10 +7429,10 @@
     </row>
     <row r="52" spans="2:8" ht="11.25" customHeight="1">
       <c r="B52" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D52" s="126" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E52" s="131"/>
       <c r="F52" s="130">
@@ -7436,13 +7448,13 @@
     </row>
     <row r="53" spans="2:8" ht="11.25" customHeight="1">
       <c r="B53" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="133">
         <v>44174</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E53" s="131"/>
       <c r="F53" s="130">
@@ -7458,7 +7470,7 @@
     </row>
     <row r="54" spans="2:8" ht="11.25" customHeight="1">
       <c r="B54" s="134" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C54" s="135"/>
       <c r="D54" s="134"/>
@@ -7475,10 +7487,10 @@
     </row>
     <row r="55" spans="2:8" ht="11.25" customHeight="1">
       <c r="B55" s="126" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" s="126" t="s">
         <v>418</v>
-      </c>
-      <c r="D55" s="126" t="s">
-        <v>419</v>
       </c>
       <c r="E55" s="131"/>
       <c r="F55" s="130">
@@ -7494,10 +7506,10 @@
     </row>
     <row r="56" spans="2:8" ht="11.25" customHeight="1">
       <c r="B56" s="126" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D56" s="126" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E56" s="131"/>
       <c r="F56" s="130">
@@ -7528,13 +7540,13 @@
     </row>
     <row r="58" spans="2:8" ht="11.25" customHeight="1">
       <c r="B58" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C58" s="133">
         <v>44063</v>
       </c>
       <c r="D58" s="126" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E58" s="131"/>
       <c r="F58" s="130">
@@ -7550,13 +7562,13 @@
     </row>
     <row r="59" spans="2:8" ht="11.25" customHeight="1">
       <c r="B59" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C59" s="133">
         <v>44065</v>
       </c>
       <c r="D59" s="126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E59" s="131"/>
       <c r="F59" s="130">
@@ -7572,13 +7584,13 @@
     </row>
     <row r="60" spans="2:8" ht="11.25" customHeight="1">
       <c r="B60" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C60" s="133">
         <v>44067</v>
       </c>
       <c r="D60" s="126" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E60" s="131"/>
       <c r="F60" s="130">
@@ -7594,13 +7606,13 @@
     </row>
     <row r="61" spans="2:8" ht="11.25" customHeight="1">
       <c r="B61" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C61" s="133">
         <v>44076</v>
       </c>
       <c r="D61" s="126" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E61" s="131"/>
       <c r="F61" s="130">
@@ -7616,13 +7628,13 @@
     </row>
     <row r="62" spans="2:8" ht="11.25" customHeight="1">
       <c r="B62" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C62" s="133">
         <v>44076</v>
       </c>
       <c r="D62" s="126" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E62" s="131"/>
       <c r="F62" s="130">
@@ -7638,13 +7650,13 @@
     </row>
     <row r="63" spans="2:8" ht="11.25" customHeight="1">
       <c r="B63" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C63" s="133">
         <v>44076</v>
       </c>
       <c r="D63" s="126" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E63" s="131"/>
       <c r="F63" s="130">
@@ -7660,13 +7672,13 @@
     </row>
     <row r="64" spans="2:8" ht="11.25" customHeight="1">
       <c r="B64" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C64" s="133">
         <v>44076</v>
       </c>
       <c r="D64" s="126" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E64" s="131"/>
       <c r="F64" s="130">
@@ -7697,13 +7709,13 @@
     </row>
     <row r="66" spans="2:8" ht="11.25" customHeight="1">
       <c r="B66" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C66" s="126" t="s">
         <v>130</v>
       </c>
       <c r="D66" s="126" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E66" s="131"/>
       <c r="F66" s="130">
@@ -7719,10 +7731,10 @@
     </row>
     <row r="67" spans="2:8" ht="11.25" customHeight="1">
       <c r="B67" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D67" s="126" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E67" s="131"/>
       <c r="F67" s="130">
@@ -7742,10 +7754,10 @@
     </row>
     <row r="69" spans="2:8" ht="11.25" customHeight="1">
       <c r="B69" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D69" s="126" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E69" s="131"/>
       <c r="F69" s="130">
@@ -7761,10 +7773,10 @@
     </row>
     <row r="70" spans="2:8" ht="11.25" customHeight="1">
       <c r="B70" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D70" s="126" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E70" s="131"/>
       <c r="F70" s="130">
@@ -7780,10 +7792,10 @@
     </row>
     <row r="71" spans="2:8" ht="11.25" customHeight="1">
       <c r="B71" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D71" s="126" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E71" s="131"/>
       <c r="F71" s="130">
@@ -7799,10 +7811,10 @@
     </row>
     <row r="72" spans="2:8" ht="11.25" customHeight="1">
       <c r="B72" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D72" s="126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E72" s="131"/>
       <c r="F72" s="130">
@@ -7818,10 +7830,10 @@
     </row>
     <row r="73" spans="2:8" ht="11.25" customHeight="1">
       <c r="B73" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D73" s="126" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E73" s="131"/>
       <c r="F73" s="130">
@@ -7837,10 +7849,10 @@
     </row>
     <row r="74" spans="2:8" ht="11.25" customHeight="1">
       <c r="B74" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D74" s="131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E74" s="131"/>
       <c r="F74" s="130">
@@ -7856,10 +7868,10 @@
     </row>
     <row r="75" spans="2:8" ht="11.25" customHeight="1">
       <c r="B75" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D75" s="131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E75" s="131"/>
       <c r="F75" s="130">
@@ -7875,10 +7887,10 @@
     </row>
     <row r="76" spans="2:8" ht="11.25" customHeight="1">
       <c r="B76" s="126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D76" s="131" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E76" s="131"/>
       <c r="F76" s="130">
@@ -7909,10 +7921,10 @@
     </row>
     <row r="78" spans="2:8" ht="11.25" customHeight="1">
       <c r="B78" s="126" t="s">
+        <v>439</v>
+      </c>
+      <c r="D78" s="126" t="s">
         <v>440</v>
-      </c>
-      <c r="D78" s="126" t="s">
-        <v>441</v>
       </c>
       <c r="F78" s="130">
         <v>-35000</v>
@@ -7927,13 +7939,13 @@
     </row>
     <row r="79" spans="2:8" ht="11.25" customHeight="1">
       <c r="B79" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D79" s="126" t="s">
+        <v>441</v>
+      </c>
+      <c r="E79" s="126" t="s">
         <v>442</v>
-      </c>
-      <c r="E79" s="126" t="s">
-        <v>443</v>
       </c>
       <c r="F79" s="130">
         <v>-3885</v>
@@ -7948,13 +7960,13 @@
     </row>
     <row r="80" spans="2:8" ht="11.25" customHeight="1">
       <c r="B80" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D80" s="126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E80" s="126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F80" s="130">
         <v>-4194.2240000000002</v>
@@ -7987,7 +7999,7 @@
       <c r="C82" s="135"/>
       <c r="D82" s="134"/>
       <c r="E82" s="136" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F82" s="137">
         <f>F81+F77+F65+F57+F54</f>
@@ -8001,7 +8013,7 @@
     </row>
     <row r="83" spans="1:8" ht="11.25" customHeight="1">
       <c r="E83" s="140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F83" s="141">
         <f>F82+F33</f>
@@ -8021,13 +8033,13 @@
         <v>2021</v>
       </c>
       <c r="B85" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C85" s="133">
         <v>44226</v>
       </c>
       <c r="D85" s="126" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F85" s="130">
         <v>-143.08000000000001</v>
@@ -8037,13 +8049,13 @@
     </row>
     <row r="86" spans="1:8" ht="11.25" customHeight="1">
       <c r="B86" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C86" s="133">
         <v>44255</v>
       </c>
       <c r="D86" s="126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F86" s="130">
         <v>-69</v>
@@ -8053,13 +8065,13 @@
     </row>
     <row r="87" spans="1:8" ht="11.25" customHeight="1">
       <c r="B87" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C87" s="133">
         <v>44285</v>
       </c>
       <c r="D87" s="126" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F87" s="130">
         <v>-15.52</v>
@@ -8069,13 +8081,13 @@
     </row>
     <row r="88" spans="1:8" ht="11.25" customHeight="1">
       <c r="B88" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C88" s="133">
         <v>44316</v>
       </c>
       <c r="D88" s="126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F88" s="130">
         <v>-43.51</v>
@@ -8085,13 +8097,13 @@
     </row>
     <row r="89" spans="1:8" ht="11.25" customHeight="1">
       <c r="B89" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C89" s="133">
         <v>44346</v>
       </c>
       <c r="D89" s="126" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E89" s="131"/>
       <c r="F89" s="130">
@@ -8102,13 +8114,13 @@
     </row>
     <row r="90" spans="1:8" ht="11.25" customHeight="1">
       <c r="B90" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C90" s="133">
         <v>44483</v>
       </c>
       <c r="D90" s="126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E90" s="131"/>
       <c r="F90" s="130">
@@ -8119,13 +8131,13 @@
     </row>
     <row r="91" spans="1:8" ht="11.25" customHeight="1">
       <c r="B91" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C91" s="133">
         <v>44483</v>
       </c>
       <c r="D91" s="126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F91" s="130">
         <v>-29.7</v>
@@ -8135,13 +8147,13 @@
     </row>
     <row r="92" spans="1:8" ht="11.25" customHeight="1">
       <c r="B92" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C92" s="133">
         <v>44377</v>
       </c>
       <c r="D92" s="126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E92" s="133"/>
       <c r="F92" s="130">
@@ -8152,13 +8164,13 @@
     </row>
     <row r="93" spans="1:8" ht="11.25" customHeight="1">
       <c r="B93" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C93" s="133">
         <v>44407</v>
       </c>
       <c r="D93" s="126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E93" s="133"/>
       <c r="F93" s="130">
@@ -8169,13 +8181,13 @@
     </row>
     <row r="94" spans="1:8" ht="11.25" customHeight="1">
       <c r="B94" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C94" s="133">
         <v>44438</v>
       </c>
       <c r="D94" s="126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E94" s="131"/>
       <c r="F94" s="130">
@@ -8186,13 +8198,13 @@
     </row>
     <row r="95" spans="1:8" ht="11.25" customHeight="1">
       <c r="B95" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C95" s="133">
         <v>44469</v>
       </c>
       <c r="D95" s="126" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E95" s="131"/>
       <c r="F95" s="130">
@@ -8203,13 +8215,13 @@
     </row>
     <row r="96" spans="1:8" ht="11.25" customHeight="1">
       <c r="B96" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C96" s="133">
         <v>44499</v>
       </c>
       <c r="D96" s="126" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E96" s="131"/>
       <c r="F96" s="130">
@@ -8220,13 +8232,13 @@
     </row>
     <row r="97" spans="2:8" ht="11.25" customHeight="1">
       <c r="B97" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C97" s="133">
         <v>44483</v>
       </c>
       <c r="D97" s="126" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E97" s="131"/>
       <c r="F97" s="130">
@@ -8237,13 +8249,13 @@
     </row>
     <row r="98" spans="2:8" ht="11.25" customHeight="1">
       <c r="B98" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C98" s="133">
         <v>44483</v>
       </c>
       <c r="D98" s="126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F98" s="130">
         <v>-297</v>
@@ -8253,13 +8265,13 @@
     </row>
     <row r="99" spans="2:8" ht="11.25" customHeight="1">
       <c r="B99" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C99" s="133">
         <v>44483</v>
       </c>
       <c r="D99" s="126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F99" s="130">
         <v>-29.7</v>
@@ -8269,13 +8281,13 @@
     </row>
     <row r="100" spans="2:8" ht="11.25" customHeight="1">
       <c r="B100" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C100" s="133">
         <v>44560</v>
       </c>
       <c r="D100" s="126" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E100" s="131"/>
       <c r="F100" s="130">
@@ -8286,11 +8298,11 @@
     </row>
     <row r="101" spans="2:8" ht="11.25" customHeight="1">
       <c r="B101" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C101" s="133"/>
       <c r="D101" s="126" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E101" s="131"/>
       <c r="F101" s="130">
@@ -8318,13 +8330,13 @@
     </row>
     <row r="103" spans="2:8" ht="11.25" customHeight="1">
       <c r="B103" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C103" s="133">
         <v>44423</v>
       </c>
       <c r="D103" s="131" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E103" s="131"/>
       <c r="F103" s="144">
@@ -8334,10 +8346,10 @@
     </row>
     <row r="104" spans="2:8" ht="11.25" customHeight="1">
       <c r="B104" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D104" s="131" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E104" s="131"/>
       <c r="F104" s="144">
@@ -8347,11 +8359,11 @@
     </row>
     <row r="105" spans="2:8" ht="11.25" customHeight="1">
       <c r="B105" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C105" s="133"/>
       <c r="D105" s="126" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E105" s="131"/>
       <c r="F105" s="130">
@@ -8361,11 +8373,11 @@
     </row>
     <row r="106" spans="2:8" ht="11.25" customHeight="1">
       <c r="B106" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C106" s="133"/>
       <c r="D106" s="126" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E106" s="131"/>
       <c r="F106" s="130">
@@ -8375,11 +8387,11 @@
     </row>
     <row r="107" spans="2:8" ht="11.25" customHeight="1">
       <c r="B107" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C107" s="133"/>
       <c r="D107" s="126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E107" s="131"/>
       <c r="F107" s="130">
@@ -8389,11 +8401,11 @@
     </row>
     <row r="108" spans="2:8" ht="11.25" customHeight="1">
       <c r="B108" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C108" s="133"/>
       <c r="D108" s="126" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E108" s="131"/>
       <c r="F108" s="130">
@@ -8403,11 +8415,11 @@
     </row>
     <row r="109" spans="2:8" ht="11.25" customHeight="1">
       <c r="B109" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C109" s="133"/>
       <c r="D109" s="126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E109" s="131"/>
       <c r="F109" s="130">
@@ -8417,11 +8429,11 @@
     </row>
     <row r="110" spans="2:8" ht="11.25" customHeight="1">
       <c r="B110" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C110" s="133"/>
       <c r="D110" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E110" s="131"/>
       <c r="F110" s="130">
@@ -8431,10 +8443,10 @@
     </row>
     <row r="111" spans="2:8" ht="11.25" customHeight="1">
       <c r="B111" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D111" s="131" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E111" s="131"/>
       <c r="F111" s="130">
@@ -8444,10 +8456,10 @@
     </row>
     <row r="112" spans="2:8" ht="11.25" customHeight="1">
       <c r="B112" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D112" s="131" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E112" s="131"/>
       <c r="F112" s="130">
@@ -8457,10 +8469,10 @@
     </row>
     <row r="113" spans="2:8" ht="11.25" customHeight="1">
       <c r="B113" s="126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D113" s="131" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E113" s="131"/>
       <c r="F113" s="130">
@@ -8487,13 +8499,13 @@
     </row>
     <row r="115" spans="2:8" ht="11.25" customHeight="1">
       <c r="B115" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C115" s="133">
         <v>44423</v>
       </c>
       <c r="D115" s="131" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E115" s="131"/>
       <c r="F115" s="144">
@@ -8503,10 +8515,10 @@
     </row>
     <row r="116" spans="2:8" ht="11.25" customHeight="1">
       <c r="B116" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D116" s="131" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E116" s="131"/>
       <c r="F116" s="144">
@@ -8516,11 +8528,11 @@
     </row>
     <row r="117" spans="2:8" ht="11.25" customHeight="1">
       <c r="B117" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C117" s="133"/>
       <c r="D117" s="126" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E117" s="131"/>
       <c r="F117" s="130">
@@ -8530,11 +8542,11 @@
     </row>
     <row r="118" spans="2:8" ht="11.25" customHeight="1">
       <c r="B118" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C118" s="133"/>
       <c r="D118" s="126" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E118" s="131"/>
       <c r="F118" s="130">
@@ -8544,11 +8556,11 @@
     </row>
     <row r="119" spans="2:8" ht="11.25" customHeight="1">
       <c r="B119" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C119" s="133"/>
       <c r="D119" s="126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E119" s="131"/>
       <c r="F119" s="130">
@@ -8558,11 +8570,11 @@
     </row>
     <row r="120" spans="2:8" ht="11.25" customHeight="1">
       <c r="B120" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C120" s="133"/>
       <c r="D120" s="126" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E120" s="131"/>
       <c r="F120" s="130">
@@ -8572,11 +8584,11 @@
     </row>
     <row r="121" spans="2:8" ht="11.25" customHeight="1">
       <c r="B121" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C121" s="133"/>
       <c r="D121" s="126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E121" s="131"/>
       <c r="F121" s="130">
@@ -8586,11 +8598,11 @@
     </row>
     <row r="122" spans="2:8" ht="11.25" customHeight="1">
       <c r="B122" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C122" s="133"/>
       <c r="D122" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E122" s="131"/>
       <c r="F122" s="130">
@@ -8600,10 +8612,10 @@
     </row>
     <row r="123" spans="2:8" ht="11.25" customHeight="1">
       <c r="B123" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D123" s="131" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E123" s="131"/>
       <c r="F123" s="130">
@@ -8613,10 +8625,10 @@
     </row>
     <row r="124" spans="2:8" ht="11.25" customHeight="1">
       <c r="B124" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D124" s="131" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E124" s="131"/>
       <c r="F124" s="130">
@@ -8646,7 +8658,7 @@
       <c r="C126" s="135"/>
       <c r="D126" s="134"/>
       <c r="E126" s="136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F126" s="137">
         <f>F125+F114+F102</f>
@@ -8660,7 +8672,7 @@
     </row>
     <row r="127" spans="2:8" ht="11.25" customHeight="1">
       <c r="E127" s="140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F127" s="141">
         <f>F126+F83</f>
@@ -8680,13 +8692,13 @@
         <v>2022</v>
       </c>
       <c r="B129" s="126" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C129" s="133">
         <v>44926</v>
       </c>
       <c r="D129" s="126" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F129" s="130">
         <f>SnH_yazıhane!G2</f>
@@ -8696,13 +8708,13 @@
     </row>
     <row r="130" spans="1:8" ht="11.25" customHeight="1">
       <c r="B130" s="126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C130" s="133">
         <v>44864</v>
       </c>
       <c r="D130" s="126" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F130" s="130" t="e">
         <f>'SnyG702-22'!#REF!*-1</f>
@@ -8713,13 +8725,13 @@
     </row>
     <row r="131" spans="1:8" ht="11.25" customHeight="1">
       <c r="B131" s="126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C131" s="133">
         <v>44864</v>
       </c>
       <c r="D131" s="126" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F131" s="130">
         <v>-8000</v>
@@ -8731,7 +8743,7 @@
       <c r="C132" s="135"/>
       <c r="D132" s="134"/>
       <c r="E132" s="136" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F132" s="137" t="e">
         <f>SUM(F129:F131)</f>
@@ -8747,7 +8759,7 @@
     </row>
     <row r="133" spans="1:8" ht="11.25" customHeight="1">
       <c r="E133" s="140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F133" s="141" t="e">
         <f>F132+F127</f>
@@ -8856,57 +8868,57 @@
     <row r="2" spans="1:19" ht="11.25" customHeight="1">
       <c r="A2" s="153"/>
       <c r="B2" s="154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="155"/>
       <c r="D2" s="156"/>
       <c r="E2" s="157"/>
       <c r="F2" s="156"/>
-      <c r="G2" s="365" t="s">
+      <c r="G2" s="362" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="362" t="s">
         <v>481</v>
       </c>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
-      <c r="K2" s="365"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="365" t="s">
-        <v>482</v>
-      </c>
-      <c r="N2" s="365"/>
-      <c r="O2" s="365"/>
-      <c r="P2" s="365"/>
-      <c r="Q2" s="365"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
       <c r="R2" s="156"/>
       <c r="S2" s="158"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="159"/>
       <c r="B3" s="160" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="160" t="s">
         <v>483</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="G3" s="363" t="s">
         <v>484</v>
       </c>
-      <c r="G3" s="366" t="s">
+      <c r="H3" s="363"/>
+      <c r="J3" s="364" t="s">
         <v>485</v>
       </c>
-      <c r="H3" s="366"/>
-      <c r="J3" s="367" t="s">
-        <v>486</v>
-      </c>
-      <c r="K3" s="367"/>
-      <c r="M3" s="366" t="s">
+      <c r="K3" s="364"/>
+      <c r="M3" s="363" t="s">
+        <v>484</v>
+      </c>
+      <c r="N3" s="363"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="364" t="s">
         <v>485</v>
       </c>
-      <c r="N3" s="366"/>
-      <c r="O3" s="366"/>
-      <c r="P3" s="367" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q3" s="367"/>
+      <c r="Q3" s="364"/>
       <c r="S3" s="161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="11.25" customHeight="1" thickBot="1">
@@ -8915,43 +8927,43 @@
       <c r="C4" s="164"/>
       <c r="D4" s="165"/>
       <c r="E4" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" s="167"/>
       <c r="G4" s="168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H4" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I4" s="169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J4" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K4" s="169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L4" s="166"/>
       <c r="M4" s="168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N4" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O4" s="170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P4" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="166" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R4" s="167"/>
       <c r="S4" s="171" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="11.25" customHeight="1">
@@ -8961,30 +8973,30 @@
       <c r="B5" s="173"/>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E5" s="175">
         <v>450000</v>
       </c>
       <c r="F5" s="157"/>
-      <c r="G5" s="360">
+      <c r="G5" s="365">
         <f>K5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="360"/>
+      <c r="H5" s="365"/>
       <c r="I5" s="176"/>
       <c r="J5" s="177" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K5" s="175">
         <v>225000</v>
       </c>
       <c r="L5" s="178"/>
-      <c r="M5" s="361">
+      <c r="M5" s="366">
         <f>Q5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="361"/>
+      <c r="N5" s="366"/>
       <c r="O5" s="179"/>
       <c r="P5" s="176"/>
       <c r="Q5" s="175">
@@ -9001,16 +9013,16 @@
       <c r="C6" s="165"/>
       <c r="D6" s="165"/>
       <c r="E6" s="182" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F6" s="165"/>
-      <c r="G6" s="362">
+      <c r="G6" s="367">
         <f>K6/$E$5</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="H6" s="362"/>
+      <c r="H6" s="367"/>
       <c r="I6" s="183" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J6" s="184">
         <v>126562.54</v>
@@ -9020,13 +9032,13 @@
         <v>351562.54</v>
       </c>
       <c r="L6" s="165"/>
-      <c r="M6" s="362">
+      <c r="M6" s="367">
         <f>Q6/$E$5</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="N6" s="362"/>
+      <c r="N6" s="367"/>
       <c r="O6" s="186" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P6" s="187">
         <f>J6</f>
@@ -9064,13 +9076,13 @@
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1">
       <c r="A8" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="146">
         <v>43403</v>
       </c>
       <c r="C8" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D8" s="145">
         <v>25000</v>
@@ -9126,7 +9138,7 @@
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1">
       <c r="A9" s="159" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="146">
         <v>43403</v>
@@ -9186,7 +9198,7 @@
     <row r="10" spans="1:19" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="162"/>
       <c r="B10" s="198" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" s="198"/>
       <c r="D10" s="199">
@@ -9249,13 +9261,13 @@
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1">
       <c r="A12" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="146">
         <v>43781</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D12" s="145">
         <v>30645</v>
@@ -9311,13 +9323,13 @@
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1">
       <c r="A13" s="159" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" s="146">
         <v>43799</v>
       </c>
       <c r="C13" s="146" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D13" s="145">
         <v>4000</v>
@@ -9373,7 +9385,7 @@
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1">
       <c r="A14" s="159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B14" s="146">
         <v>43799</v>
@@ -9433,7 +9445,7 @@
     <row r="15" spans="1:19" ht="11.25" customHeight="1">
       <c r="A15" s="159"/>
       <c r="B15" s="210" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C15" s="210"/>
       <c r="D15" s="211">
@@ -9472,7 +9484,7 @@
       <c r="A16" s="213"/>
       <c r="B16" s="167"/>
       <c r="C16" s="214" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D16" s="167">
         <f>D15+D10</f>
@@ -9522,13 +9534,13 @@
     </row>
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="159" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" s="146">
         <v>43920</v>
       </c>
       <c r="C18" s="146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D18" s="145">
         <v>6200</v>
@@ -9584,13 +9596,13 @@
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B19" s="146">
         <v>44134</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D19" s="145">
         <v>7800</v>
@@ -9646,7 +9658,7 @@
     </row>
     <row r="20" spans="1:19" ht="11.25" customHeight="1">
       <c r="A20" s="159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B20" s="146">
         <v>44134</v>
@@ -9704,13 +9716,13 @@
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
       <c r="A21" s="159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="146">
         <v>44177</v>
       </c>
       <c r="C21" s="146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D21" s="145">
         <v>30000</v>
@@ -9766,7 +9778,7 @@
     </row>
     <row r="22" spans="1:19" ht="11.25" customHeight="1">
       <c r="A22" s="159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" s="146">
         <v>44177</v>
@@ -9824,13 +9836,13 @@
     </row>
     <row r="23" spans="1:19" ht="11.25" customHeight="1">
       <c r="A23" s="159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B23" s="146">
         <v>44165</v>
       </c>
       <c r="C23" s="146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D23" s="145">
         <v>35000</v>
@@ -9886,7 +9898,7 @@
     </row>
     <row r="24" spans="1:19" ht="11.25" customHeight="1">
       <c r="A24" s="159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B24" s="146">
         <v>44165</v>
@@ -9944,7 +9956,7 @@
     </row>
     <row r="25" spans="1:19" ht="11.25" customHeight="1">
       <c r="A25" s="159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" s="146">
         <v>44165</v>
@@ -10002,13 +10014,13 @@
     </row>
     <row r="26" spans="1:19" ht="11.25" customHeight="1">
       <c r="A26" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B26" s="146">
         <v>43922</v>
       </c>
       <c r="C26" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D26" s="145">
         <v>3014</v>
@@ -10064,7 +10076,7 @@
     </row>
     <row r="27" spans="1:19" ht="11.25" customHeight="1">
       <c r="A27" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" s="146">
         <v>43922</v>
@@ -10126,7 +10138,7 @@
     <row r="28" spans="1:19" ht="11.25" customHeight="1">
       <c r="A28" s="159"/>
       <c r="B28" s="210" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C28" s="210"/>
       <c r="D28" s="211">
@@ -10163,7 +10175,7 @@
       <c r="A29" s="181"/>
       <c r="B29" s="216"/>
       <c r="C29" s="214" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D29" s="167">
         <f>D28+D16</f>
@@ -10213,13 +10225,13 @@
     </row>
     <row r="31" spans="1:19" ht="11.25" customHeight="1">
       <c r="A31" s="159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" s="146">
         <v>44316</v>
       </c>
       <c r="C31" s="146" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D31" s="145">
         <v>6800</v>
@@ -10276,7 +10288,7 @@
     </row>
     <row r="32" spans="1:19" ht="11.25" customHeight="1">
       <c r="A32" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B32" s="146">
         <v>44285</v>
@@ -10333,13 +10345,13 @@
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1">
       <c r="A33" s="159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" s="146">
         <v>44457</v>
       </c>
       <c r="C33" s="146" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D33" s="145">
         <v>24000</v>
@@ -10396,7 +10408,7 @@
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1">
       <c r="A34" s="159" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="146">
         <v>44352</v>
@@ -10453,13 +10465,13 @@
     </row>
     <row r="35" spans="1:19" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="146">
         <v>44438</v>
       </c>
       <c r="C35" s="146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D35" s="145">
         <v>28800</v>
@@ -10516,13 +10528,13 @@
     </row>
     <row r="36" spans="1:19" ht="11.25" customHeight="1">
       <c r="A36" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" s="146">
         <v>44529</v>
       </c>
       <c r="C36" s="146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D36" s="145">
         <v>43160</v>
@@ -10579,13 +10591,13 @@
     </row>
     <row r="37" spans="1:19" ht="11.25" customHeight="1">
       <c r="A37" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" s="146">
         <v>44413</v>
       </c>
       <c r="C37" s="146" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D37" s="145">
         <v>30000</v>
@@ -10642,7 +10654,7 @@
     </row>
     <row r="38" spans="1:19" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="146">
         <v>44423</v>
@@ -10700,7 +10712,7 @@
     </row>
     <row r="39" spans="1:19" ht="11.25" customHeight="1">
       <c r="A39" s="159" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B39" s="146">
         <v>44423</v>
@@ -10758,7 +10770,7 @@
     </row>
     <row r="40" spans="1:19" ht="11.25" customHeight="1">
       <c r="A40" s="159" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B40" s="146">
         <v>44423</v>
@@ -10817,7 +10829,7 @@
     <row r="41" spans="1:19" ht="11.25" customHeight="1">
       <c r="A41" s="159"/>
       <c r="B41" s="210" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C41" s="210"/>
       <c r="D41" s="211">
@@ -10857,7 +10869,7 @@
       <c r="A42" s="162"/>
       <c r="B42" s="164"/>
       <c r="C42" s="214" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D42" s="167">
         <f>D41+D29</f>
@@ -10921,13 +10933,13 @@
     </row>
     <row r="46" spans="1:19" ht="11.25" customHeight="1">
       <c r="A46" s="159" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" s="146">
         <v>44651</v>
       </c>
       <c r="C46" s="146" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D46" s="145">
         <v>36000</v>
@@ -10984,13 +10996,13 @@
     </row>
     <row r="47" spans="1:19" ht="11.25" customHeight="1">
       <c r="A47" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="146">
         <v>44774</v>
       </c>
       <c r="C47" s="146" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D47" s="145">
         <v>45000</v>
@@ -11047,7 +11059,7 @@
     </row>
     <row r="48" spans="1:19" ht="11.25" customHeight="1">
       <c r="A48" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B48" s="146">
         <v>44778</v>
@@ -11104,7 +11116,7 @@
     </row>
     <row r="49" spans="1:19" ht="11.25" customHeight="1">
       <c r="A49" s="159" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B49" s="146">
         <v>44777</v>
@@ -11162,13 +11174,13 @@
     </row>
     <row r="50" spans="1:19" ht="11.25" customHeight="1">
       <c r="A50" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" s="146">
         <v>44798</v>
       </c>
       <c r="C50" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D50" s="145">
         <v>40000</v>
@@ -11224,13 +11236,13 @@
     </row>
     <row r="51" spans="1:19" ht="11.25" customHeight="1">
       <c r="A51" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" s="146">
         <v>44834</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D51" s="145">
         <v>1000</v>
@@ -11286,13 +11298,13 @@
     </row>
     <row r="52" spans="1:19" ht="11.25" customHeight="1">
       <c r="A52" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="146">
         <v>44844</v>
       </c>
       <c r="C52" s="146" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D52" s="145">
         <v>40000</v>
@@ -11349,13 +11361,13 @@
     </row>
     <row r="53" spans="1:19" ht="11.25" customHeight="1">
       <c r="A53" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B53" s="146">
         <v>44864</v>
       </c>
       <c r="C53" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D53" s="145">
         <v>1000</v>
@@ -11411,13 +11423,13 @@
     </row>
     <row r="54" spans="1:19" ht="11.25" customHeight="1">
       <c r="A54" s="159" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B54" s="146">
         <v>44895</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D54" s="145">
         <v>82000</v>
@@ -11473,13 +11485,13 @@
     </row>
     <row r="55" spans="1:19" ht="11.25" customHeight="1">
       <c r="A55" s="159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B55" s="146">
         <v>44895</v>
       </c>
       <c r="C55" s="146" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D55" s="145">
         <v>84000</v>
@@ -11535,13 +11547,13 @@
     </row>
     <row r="56" spans="1:19" ht="11.25" customHeight="1">
       <c r="A56" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B56" s="146">
         <v>44895</v>
       </c>
       <c r="C56" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D56" s="145">
         <v>1000</v>
@@ -11597,13 +11609,13 @@
     </row>
     <row r="57" spans="1:19" ht="11.25" customHeight="1">
       <c r="A57" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B57" s="146">
         <v>44925</v>
       </c>
       <c r="C57" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D57" s="145">
         <v>1000</v>
@@ -11659,13 +11671,13 @@
     </row>
     <row r="58" spans="1:19" ht="11.25" customHeight="1">
       <c r="A58" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="146">
         <v>44956</v>
       </c>
       <c r="C58" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D58" s="145">
         <v>1000</v>
@@ -11720,13 +11732,13 @@
     </row>
     <row r="59" spans="1:19" ht="11.25" customHeight="1">
       <c r="A59" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B59" s="146">
         <v>44985</v>
       </c>
       <c r="C59" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D59" s="145">
         <v>1000</v>
@@ -11781,13 +11793,13 @@
     </row>
     <row r="60" spans="1:19" ht="11.25" customHeight="1">
       <c r="A60" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" s="146">
         <v>45015</v>
       </c>
       <c r="C60" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D60" s="145">
         <v>1000</v>
@@ -11842,13 +11854,13 @@
     </row>
     <row r="61" spans="1:19" ht="11.25" customHeight="1">
       <c r="A61" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" s="146">
         <v>45046</v>
       </c>
       <c r="C61" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D61" s="145">
         <v>1000</v>
@@ -11903,13 +11915,13 @@
     </row>
     <row r="62" spans="1:19" ht="11.25" customHeight="1">
       <c r="A62" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="146">
         <v>44764</v>
       </c>
       <c r="C62" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D62" s="221"/>
       <c r="E62" s="194">
@@ -11963,13 +11975,13 @@
     </row>
     <row r="63" spans="1:19" ht="11.25" customHeight="1">
       <c r="A63" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B63" s="146">
         <v>44764</v>
       </c>
       <c r="C63" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D63" s="221">
         <v>3892.36</v>
@@ -12025,13 +12037,13 @@
     </row>
     <row r="64" spans="1:19" ht="11.25" customHeight="1">
       <c r="A64" s="159" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B64" s="146">
         <v>44764</v>
       </c>
       <c r="C64" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D64" s="221">
         <v>11181.35</v>
@@ -12087,23 +12099,23 @@
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="159"/>
-      <c r="C65" s="363" t="s">
-        <v>519</v>
-      </c>
-      <c r="D65" s="363"/>
-      <c r="E65" s="363"/>
-      <c r="G65" s="364" t="e">
+      <c r="C65" s="368" t="s">
+        <v>518</v>
+      </c>
+      <c r="D65" s="368"/>
+      <c r="E65" s="368"/>
+      <c r="G65" s="369" t="e">
         <f>G64</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="364"/>
+      <c r="H65" s="369"/>
       <c r="I65" s="151"/>
       <c r="J65" s="147"/>
-      <c r="M65" s="364" t="e">
+      <c r="M65" s="369" t="e">
         <f>M64</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="364"/>
+      <c r="N65" s="369"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="149"/>
       <c r="R65" s="147"/>
@@ -12111,15 +12123,15 @@
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="159"/>
-      <c r="C66" s="363"/>
-      <c r="D66" s="363"/>
-      <c r="E66" s="363"/>
-      <c r="G66" s="364"/>
-      <c r="H66" s="364"/>
+      <c r="C66" s="368"/>
+      <c r="D66" s="368"/>
+      <c r="E66" s="368"/>
+      <c r="G66" s="369"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="151"/>
       <c r="J66" s="147"/>
-      <c r="M66" s="364"/>
-      <c r="N66" s="364"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="369"/>
       <c r="P66" s="147"/>
       <c r="Q66" s="149"/>
       <c r="R66" s="147"/>
@@ -12128,7 +12140,7 @@
     <row r="67" spans="1:19" ht="11.25" customHeight="1">
       <c r="A67" s="159"/>
       <c r="B67" s="210" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C67" s="210"/>
       <c r="D67" s="221">
@@ -12168,7 +12180,7 @@
       <c r="A68" s="162"/>
       <c r="B68" s="198"/>
       <c r="C68" s="214" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D68" s="225">
         <f>D67+D42</f>
@@ -12213,7 +12225,7 @@
     <row r="72" spans="1:19" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="73" spans="1:19" ht="11.25" customHeight="1">
       <c r="A73" s="190" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B73" s="155"/>
       <c r="C73" s="155"/>
@@ -12236,7 +12248,7 @@
     </row>
     <row r="74" spans="1:19" ht="11.25" customHeight="1">
       <c r="A74" s="229" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B74" s="145"/>
       <c r="C74" s="152"/>
@@ -12369,7 +12381,7 @@
       <c r="C81" s="164"/>
       <c r="D81" s="163"/>
       <c r="E81" s="237" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F81" s="167"/>
       <c r="G81" s="202"/>
@@ -12546,12 +12558,6 @@
     <row r="1048548" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="G6:H6"/>
@@ -12559,6 +12565,12 @@
     <mergeCell ref="C65:E66"/>
     <mergeCell ref="G65:H66"/>
     <mergeCell ref="M65:N66"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12626,13 +12638,13 @@
     <row r="4" spans="1:11">
       <c r="B4" s="52"/>
       <c r="C4" s="245" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12824,81 +12836,81 @@
   <sheetData>
     <row r="1" spans="1:30" ht="12.75" customHeight="1" thickBot="1">
       <c r="A1" s="249" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B1" s="250" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G1" s="147"/>
       <c r="O1" s="150"/>
       <c r="T1" s="147"/>
-      <c r="V1" s="378" t="s">
+      <c r="V1" s="375" t="s">
+        <v>526</v>
+      </c>
+      <c r="W1" s="253" t="s">
         <v>527</v>
       </c>
-      <c r="W1" s="253" t="s">
+      <c r="X1" s="370" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y1" s="370"/>
+      <c r="Z1" s="370" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="370"/>
+      <c r="AB1" s="370" t="s">
         <v>528</v>
       </c>
-      <c r="X1" s="375" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y1" s="375"/>
-      <c r="Z1" s="375" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="375"/>
-      <c r="AB1" s="375" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC1" s="375"/>
+      <c r="AC1" s="370"/>
     </row>
     <row r="2" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="254"/>
       <c r="B2" s="255" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" s="256"/>
       <c r="D2" s="257"/>
       <c r="E2" s="258"/>
       <c r="F2" s="259"/>
       <c r="G2" s="257"/>
-      <c r="H2" s="384" t="s">
+      <c r="H2" s="374" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
+      <c r="K2" s="374"/>
+      <c r="L2" s="374"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="374" t="s">
         <v>481</v>
       </c>
-      <c r="I2" s="384"/>
-      <c r="J2" s="384"/>
-      <c r="K2" s="384"/>
-      <c r="L2" s="384"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="384" t="s">
-        <v>482</v>
-      </c>
-      <c r="O2" s="384"/>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="384"/>
-      <c r="R2" s="384"/>
+      <c r="O2" s="374"/>
+      <c r="P2" s="374"/>
+      <c r="Q2" s="374"/>
+      <c r="R2" s="374"/>
       <c r="S2" s="257"/>
       <c r="T2" s="260"/>
-      <c r="V2" s="378"/>
+      <c r="V2" s="375"/>
       <c r="W2" s="261" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X2" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y2" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z2" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA2" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB2" s="264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC2" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
@@ -12948,7 +12960,7 @@
       <c r="B4" s="173"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E4" s="175">
         <v>450000</v>
@@ -12961,7 +12973,7 @@
       </c>
       <c r="I4" s="176"/>
       <c r="J4" s="177" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K4" s="176"/>
       <c r="L4" s="274">
@@ -13018,21 +13030,21 @@
       </c>
       <c r="B5" s="164"/>
       <c r="C5" s="165" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D5" s="165"/>
       <c r="E5" s="182" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F5" s="276"/>
       <c r="G5" s="165"/>
-      <c r="H5" s="383">
+      <c r="H5" s="371">
         <f>L5/$E$4</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="I5" s="383"/>
+      <c r="I5" s="371"/>
       <c r="J5" s="183" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K5" s="184">
         <v>126562.54</v>
@@ -13042,13 +13054,13 @@
         <v>351562.54</v>
       </c>
       <c r="M5" s="165"/>
-      <c r="N5" s="383">
+      <c r="N5" s="371">
         <f>R5/$E$4</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="O5" s="383"/>
+      <c r="O5" s="371"/>
       <c r="P5" s="186" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="187">
         <f>K5</f>
@@ -13177,56 +13189,56 @@
       <c r="B8" s="155"/>
       <c r="C8" s="155"/>
       <c r="D8" s="157" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E8" s="178" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F8" s="280"/>
       <c r="G8" s="157"/>
       <c r="H8" s="372" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I8" s="372"/>
       <c r="J8" s="157"/>
       <c r="K8" s="373" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L8" s="373"/>
       <c r="M8" s="157"/>
       <c r="N8" s="372" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O8" s="372"/>
       <c r="P8" s="372"/>
       <c r="Q8" s="373" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R8" s="373"/>
       <c r="S8" s="157"/>
       <c r="T8" s="275" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V8" s="381" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W8" s="382">
         <f>SUM(W3:W7)</f>
         <v>626102.71</v>
       </c>
-      <c r="X8" s="370">
+      <c r="X8" s="379">
         <f>SUM(X3:X7)</f>
         <v>626102.71</v>
       </c>
-      <c r="Y8" s="371" t="e">
+      <c r="Y8" s="380" t="e">
         <f>SUM(Y3:Y7)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="370" t="e">
+      <c r="Z8" s="379" t="e">
         <f>SUM(Z3:Z7)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="371" t="e">
+      <c r="AA8" s="380" t="e">
         <f>SUM(AA3:AA7)</f>
         <v>#REF!</v>
       </c>
@@ -13244,58 +13256,58 @@
       <c r="B9" s="163"/>
       <c r="C9" s="164"/>
       <c r="D9" s="167" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E9" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="283"/>
       <c r="G9" s="167"/>
       <c r="H9" s="284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I9" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J9" s="169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K9" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L9" s="285" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M9" s="166"/>
       <c r="N9" s="284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O9" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P9" s="170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R9" s="171" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S9" s="167"/>
       <c r="T9" s="286" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V9" s="381"/>
       <c r="W9" s="382"/>
-      <c r="X9" s="370"/>
-      <c r="Y9" s="371"/>
-      <c r="Z9" s="370"/>
-      <c r="AA9" s="371"/>
-      <c r="AB9" s="374" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC9" s="374"/>
+      <c r="X9" s="379"/>
+      <c r="Y9" s="380"/>
+      <c r="Z9" s="379"/>
+      <c r="AA9" s="380"/>
+      <c r="AB9" s="376" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC9" s="376"/>
     </row>
     <row r="10" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="190">
@@ -13323,13 +13335,13 @@
     </row>
     <row r="11" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A11" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="146">
         <v>43403</v>
       </c>
       <c r="C11" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D11" s="194">
         <v>25000</v>
@@ -13383,29 +13395,29 @@
       <c r="T11" s="268">
         <v>5.52</v>
       </c>
-      <c r="V11" s="378" t="s">
-        <v>538</v>
-      </c>
-      <c r="W11" s="379" t="e">
+      <c r="V11" s="375" t="s">
+        <v>537</v>
+      </c>
+      <c r="W11" s="377" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="X11" s="375" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y11" s="375"/>
-      <c r="Z11" s="375" t="s">
+      <c r="X11" s="370" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y11" s="370"/>
+      <c r="Z11" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="375"/>
-      <c r="AB11" s="375" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC11" s="375"/>
+      <c r="AA11" s="370"/>
+      <c r="AB11" s="370" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC11" s="370"/>
     </row>
     <row r="12" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A12" s="159" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="146">
         <v>43403</v>
@@ -13462,25 +13474,25 @@
       <c r="T12" s="268">
         <v>5.52</v>
       </c>
-      <c r="V12" s="378"/>
-      <c r="W12" s="379"/>
+      <c r="V12" s="375"/>
+      <c r="W12" s="377"/>
       <c r="X12" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y12" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z12" s="264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA12" s="264" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB12" s="264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC12" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AD12" s="293"/>
     </row>
@@ -13505,7 +13517,7 @@
       <c r="V13" s="268">
         <v>2018</v>
       </c>
-      <c r="W13" s="379"/>
+      <c r="W13" s="377"/>
       <c r="X13" s="270">
         <f>I15</f>
         <v>16406.251866666666</v>
@@ -13535,7 +13547,7 @@
     <row r="14" spans="1:30" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A14" s="159"/>
       <c r="D14" s="296" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E14" s="194">
         <f>SUM(D11:D12)</f>
@@ -13556,7 +13568,7 @@
       <c r="V14" s="268">
         <v>2019</v>
       </c>
-      <c r="W14" s="379"/>
+      <c r="W14" s="377"/>
       <c r="X14" s="270">
         <f>I25</f>
         <v>20699.204717171131</v>
@@ -13585,7 +13597,7 @@
     <row r="15" spans="1:30" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A15" s="159"/>
       <c r="D15" s="210" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E15" s="194">
         <f>E11</f>
@@ -13621,7 +13633,7 @@
       <c r="V15" s="268">
         <v>2020</v>
       </c>
-      <c r="W15" s="379"/>
+      <c r="W15" s="377"/>
       <c r="X15" s="270">
         <f>I42</f>
         <v>50197.878908060913</v>
@@ -13650,7 +13662,7 @@
     <row r="16" spans="1:30" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A16" s="159"/>
       <c r="D16" s="210" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E16" s="194">
         <f>E12</f>
@@ -13684,7 +13696,7 @@
       <c r="V16" s="268">
         <v>2021</v>
       </c>
-      <c r="W16" s="379"/>
+      <c r="W16" s="377"/>
       <c r="X16" s="270">
         <f>I60</f>
         <v>118343.48939231082</v>
@@ -13715,7 +13727,7 @@
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
       <c r="D17" s="198" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E17" s="200">
         <f>E15+E16</f>
@@ -13754,7 +13766,7 @@
       <c r="V17" s="268">
         <v>2022</v>
       </c>
-      <c r="W17" s="379"/>
+      <c r="W17" s="377"/>
       <c r="X17" s="270" t="e">
         <f>I86</f>
         <v>#REF!</v>
@@ -13795,23 +13807,23 @@
       <c r="P18" s="151"/>
       <c r="R18" s="197"/>
       <c r="T18" s="268"/>
-      <c r="V18" s="380" t="s">
-        <v>535</v>
-      </c>
-      <c r="W18" s="379"/>
-      <c r="X18" s="370" t="e">
+      <c r="V18" s="378" t="s">
+        <v>534</v>
+      </c>
+      <c r="W18" s="377"/>
+      <c r="X18" s="379" t="e">
         <f>SUM(X13:X17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="371" t="e">
+      <c r="Y18" s="380" t="e">
         <f>SUM(Y13:Y17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="370" t="e">
+      <c r="Z18" s="379" t="e">
         <f>SUM(Z13:Z17)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA18" s="371" t="e">
+      <c r="AA18" s="380" t="e">
         <f>SUM(AA13:AA17)</f>
         <v>#REF!</v>
       </c>
@@ -13847,26 +13859,26 @@
       <c r="R19" s="158"/>
       <c r="S19" s="156"/>
       <c r="T19" s="290"/>
-      <c r="V19" s="380"/>
-      <c r="W19" s="379"/>
-      <c r="X19" s="370"/>
-      <c r="Y19" s="371"/>
-      <c r="Z19" s="370"/>
-      <c r="AA19" s="371"/>
-      <c r="AB19" s="374" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC19" s="374"/>
+      <c r="V19" s="378"/>
+      <c r="W19" s="377"/>
+      <c r="X19" s="379"/>
+      <c r="Y19" s="380"/>
+      <c r="Z19" s="379"/>
+      <c r="AA19" s="380"/>
+      <c r="AB19" s="376" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC19" s="376"/>
     </row>
     <row r="20" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A20" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="146">
         <v>43781</v>
       </c>
       <c r="C20" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D20" s="194">
         <v>30645</v>
@@ -13923,13 +13935,13 @@
     </row>
     <row r="21" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A21" s="159" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="146">
         <v>43799</v>
       </c>
       <c r="C21" s="146" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D21" s="194">
         <v>4000</v>
@@ -13983,29 +13995,29 @@
       <c r="T21" s="268">
         <v>5.73</v>
       </c>
-      <c r="V21" s="378" t="s">
-        <v>544</v>
-      </c>
-      <c r="W21" s="379" t="e">
+      <c r="V21" s="375" t="s">
+        <v>543</v>
+      </c>
+      <c r="W21" s="377" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="X21" s="375" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y21" s="375"/>
-      <c r="Z21" s="375" t="s">
+      <c r="X21" s="370" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y21" s="370"/>
+      <c r="Z21" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="375"/>
-      <c r="AB21" s="375" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC21" s="375"/>
+      <c r="AA21" s="370"/>
+      <c r="AB21" s="370" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC21" s="370"/>
     </row>
     <row r="22" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A22" s="159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B22" s="146">
         <v>43799</v>
@@ -14062,25 +14074,25 @@
       <c r="T22" s="268">
         <v>5.73</v>
       </c>
-      <c r="V22" s="378"/>
-      <c r="W22" s="379"/>
+      <c r="V22" s="375"/>
+      <c r="W22" s="377"/>
       <c r="X22" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y22" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z22" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA22" s="264" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB22" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC22" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
@@ -14095,7 +14107,7 @@
       <c r="V23" s="268">
         <v>2018</v>
       </c>
-      <c r="W23" s="379"/>
+      <c r="W23" s="377"/>
       <c r="X23" s="270">
         <f>O15</f>
         <v>4593.7481333333335</v>
@@ -14125,7 +14137,7 @@
       <c r="A24" s="159"/>
       <c r="B24" s="218"/>
       <c r="D24" s="296" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E24" s="235">
         <f>SUM(D20:D22)</f>
@@ -14147,7 +14159,7 @@
       <c r="V24" s="268">
         <v>2019</v>
       </c>
-      <c r="W24" s="379"/>
+      <c r="W24" s="377"/>
       <c r="X24" s="270">
         <f>O25</f>
         <v>5800.7952828288689</v>
@@ -14176,7 +14188,7 @@
     <row r="25" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A25" s="159"/>
       <c r="D25" s="210" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E25" s="194">
         <f>E20+E21</f>
@@ -14211,7 +14223,7 @@
       <c r="V25" s="268">
         <v>2020</v>
       </c>
-      <c r="W25" s="379"/>
+      <c r="W25" s="377"/>
       <c r="X25" s="270">
         <f>O42</f>
         <v>14302.121091939091</v>
@@ -14240,7 +14252,7 @@
     <row r="26" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A26" s="159"/>
       <c r="D26" s="210" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E26" s="194">
         <f>E22</f>
@@ -14274,7 +14286,7 @@
       <c r="V26" s="268">
         <v>2021</v>
       </c>
-      <c r="W26" s="379"/>
+      <c r="W26" s="377"/>
       <c r="X26" s="270">
         <f>O60</f>
         <v>33916.510607689197</v>
@@ -14305,7 +14317,7 @@
       <c r="B27" s="165"/>
       <c r="C27" s="165"/>
       <c r="D27" s="198" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E27" s="200">
         <f>E25+E26</f>
@@ -14344,7 +14356,7 @@
       <c r="V27" s="268">
         <v>2022</v>
       </c>
-      <c r="W27" s="379"/>
+      <c r="W27" s="377"/>
       <c r="X27" s="270" t="e">
         <f>O86</f>
         <v>#REF!</v>
@@ -14381,23 +14393,23 @@
       <c r="P28" s="151"/>
       <c r="R28" s="197"/>
       <c r="T28" s="268"/>
-      <c r="V28" s="380" t="s">
-        <v>535</v>
-      </c>
-      <c r="W28" s="379"/>
-      <c r="X28" s="370" t="e">
+      <c r="V28" s="378" t="s">
+        <v>534</v>
+      </c>
+      <c r="W28" s="377"/>
+      <c r="X28" s="379" t="e">
         <f>SUM(X23:X27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y28" s="371" t="e">
+      <c r="Y28" s="380" t="e">
         <f>SUM(Y23:Y27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z28" s="370" t="e">
+      <c r="Z28" s="379" t="e">
         <f>SUM(Z23:Z27)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA28" s="371" t="e">
+      <c r="AA28" s="380" t="e">
         <f>SUM(AA23:AA27)</f>
         <v>#REF!</v>
       </c>
@@ -14433,26 +14445,26 @@
       <c r="R29" s="158"/>
       <c r="S29" s="156"/>
       <c r="T29" s="290"/>
-      <c r="V29" s="380"/>
-      <c r="W29" s="379"/>
-      <c r="X29" s="370"/>
-      <c r="Y29" s="371"/>
-      <c r="Z29" s="370"/>
-      <c r="AA29" s="371"/>
-      <c r="AB29" s="374" t="s">
-        <v>549</v>
-      </c>
-      <c r="AC29" s="374"/>
+      <c r="V29" s="378"/>
+      <c r="W29" s="377"/>
+      <c r="X29" s="379"/>
+      <c r="Y29" s="380"/>
+      <c r="Z29" s="379"/>
+      <c r="AA29" s="380"/>
+      <c r="AB29" s="376" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC29" s="376"/>
     </row>
     <row r="30" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A30" s="159" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="146">
         <v>43920</v>
       </c>
       <c r="C30" s="146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D30" s="194">
         <v>6200</v>
@@ -14509,13 +14521,13 @@
     </row>
     <row r="31" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B31" s="146">
         <v>44134</v>
       </c>
       <c r="C31" s="146" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D31" s="194">
         <v>7800</v>
@@ -14571,22 +14583,22 @@
       </c>
       <c r="V31" s="153"/>
       <c r="W31" s="156"/>
-      <c r="X31" s="375" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y31" s="375"/>
-      <c r="Z31" s="376" t="s">
+      <c r="X31" s="370" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y31" s="370"/>
+      <c r="Z31" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="376"/>
-      <c r="AB31" s="377" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC31" s="377"/>
+      <c r="AA31" s="383"/>
+      <c r="AB31" s="384" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC31" s="384"/>
     </row>
     <row r="32" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A32" s="159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B32" s="146">
         <v>44134</v>
@@ -14646,33 +14658,33 @@
       <c r="V32" s="162"/>
       <c r="W32" s="165"/>
       <c r="X32" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y32" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z32" s="262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA32" s="263" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB32" s="264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC32" s="264" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A33" s="159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" s="146">
         <v>44177</v>
       </c>
       <c r="C33" s="146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D33" s="194">
         <v>30000</v>
@@ -14726,23 +14738,23 @@
       <c r="T33" s="268">
         <v>7.93</v>
       </c>
-      <c r="V33" s="369" t="s">
-        <v>550</v>
-      </c>
-      <c r="W33" s="369"/>
-      <c r="X33" s="370" t="e">
+      <c r="V33" s="386" t="s">
+        <v>549</v>
+      </c>
+      <c r="W33" s="386"/>
+      <c r="X33" s="379" t="e">
         <f>X28+X18</f>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="371" t="e">
+      <c r="Y33" s="380" t="e">
         <f>Y28+Y18</f>
         <v>#REF!</v>
       </c>
-      <c r="Z33" s="370" t="e">
+      <c r="Z33" s="379" t="e">
         <f>Z28+Z18</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="371" t="e">
+      <c r="AA33" s="380" t="e">
         <f>AA28+AA18</f>
         <v>#REF!</v>
       </c>
@@ -14757,7 +14769,7 @@
     </row>
     <row r="34" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A34" s="159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" s="146">
         <v>44177</v>
@@ -14814,26 +14826,26 @@
       <c r="T34" s="268">
         <v>7.93</v>
       </c>
-      <c r="V34" s="369"/>
-      <c r="W34" s="369"/>
-      <c r="X34" s="370"/>
-      <c r="Y34" s="371"/>
-      <c r="Z34" s="370"/>
-      <c r="AA34" s="371"/>
-      <c r="AB34" s="374" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC34" s="374"/>
+      <c r="V34" s="386"/>
+      <c r="W34" s="386"/>
+      <c r="X34" s="379"/>
+      <c r="Y34" s="380"/>
+      <c r="Z34" s="379"/>
+      <c r="AA34" s="380"/>
+      <c r="AB34" s="376" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC34" s="376"/>
     </row>
     <row r="35" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B35" s="146">
         <v>44165</v>
       </c>
       <c r="C35" s="146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D35" s="194">
         <v>35000</v>
@@ -14890,7 +14902,7 @@
     </row>
     <row r="36" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A36" s="159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" s="146">
         <v>44165</v>
@@ -14950,7 +14962,7 @@
     </row>
     <row r="37" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A37" s="159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B37" s="146">
         <v>44165</v>
@@ -15007,26 +15019,26 @@
       <c r="T37" s="268">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V37" s="369" t="s">
-        <v>551</v>
-      </c>
-      <c r="W37" s="369"/>
-      <c r="X37" s="369"/>
-      <c r="Y37" s="369"/>
-      <c r="Z37" s="369"/>
-      <c r="AA37" s="369"/>
-      <c r="AB37" s="369"/>
-      <c r="AC37" s="369"/>
+      <c r="V37" s="386" t="s">
+        <v>550</v>
+      </c>
+      <c r="W37" s="386"/>
+      <c r="X37" s="386"/>
+      <c r="Y37" s="386"/>
+      <c r="Z37" s="386"/>
+      <c r="AA37" s="386"/>
+      <c r="AB37" s="386"/>
+      <c r="AC37" s="386"/>
     </row>
     <row r="38" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" s="146">
         <v>43922</v>
       </c>
       <c r="C38" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D38" s="194">
         <v>3014</v>
@@ -15081,25 +15093,25 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="V38" s="311" t="s">
+        <v>551</v>
+      </c>
+      <c r="W38" s="157" t="s">
         <v>552</v>
-      </c>
-      <c r="W38" s="157" t="s">
-        <v>553</v>
       </c>
       <c r="X38" s="157"/>
       <c r="Y38" s="157"/>
       <c r="Z38" s="157"/>
       <c r="AA38" s="174" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB38" s="174"/>
       <c r="AC38" s="312" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A39" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="146">
         <v>43922</v>
@@ -15162,7 +15174,7 @@
         <v>2016</v>
       </c>
       <c r="W39" s="145" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA39" s="314">
         <f>H4</f>
@@ -15202,7 +15214,7 @@
         <v>2017</v>
       </c>
       <c r="W40" s="145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA40" s="315">
         <f>H5</f>
@@ -15218,7 +15230,7 @@
       <c r="A41" s="159"/>
       <c r="B41" s="218"/>
       <c r="D41" s="296" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E41" s="303">
         <f>SUM(D30:D39)</f>
@@ -15237,10 +15249,10 @@
       <c r="R41" s="197"/>
       <c r="T41" s="268"/>
       <c r="V41" s="317" t="s">
+        <v>556</v>
+      </c>
+      <c r="W41" s="145" t="s">
         <v>557</v>
-      </c>
-      <c r="W41" s="145" t="s">
-        <v>558</v>
       </c>
       <c r="AA41" s="318"/>
       <c r="AB41" s="318"/>
@@ -15252,7 +15264,7 @@
     <row r="42" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A42" s="159"/>
       <c r="D42" s="210" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E42" s="194">
         <f>E30+E31+E33+E35+E38</f>
@@ -15285,10 +15297,10 @@
       <c r="R42" s="197"/>
       <c r="T42" s="268"/>
       <c r="V42" s="317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W42" s="145" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA42" s="320" t="e">
         <f>(AA40-AA44)*-1</f>
@@ -15303,7 +15315,7 @@
     <row r="43" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A43" s="159"/>
       <c r="D43" s="210" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E43" s="194">
         <f>E39+E37+E36+E34+E32</f>
@@ -15335,17 +15347,17 @@
       <c r="R43" s="197"/>
       <c r="T43" s="268"/>
       <c r="V43" s="317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W43" s="145" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA43" s="322" t="s">
         <v>562</v>
-      </c>
-      <c r="AA43" s="322" t="s">
-        <v>563</v>
       </c>
       <c r="AB43" s="322"/>
       <c r="AC43" s="323" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
@@ -15353,7 +15365,7 @@
       <c r="B44" s="165"/>
       <c r="C44" s="165"/>
       <c r="D44" s="198" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E44" s="200">
         <f>E42+E43</f>
@@ -15393,7 +15405,7 @@
         <v>2023</v>
       </c>
       <c r="W44" s="258" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X44" s="258"/>
       <c r="Y44" s="258"/>
@@ -15413,35 +15425,35 @@
       <c r="B45" s="155"/>
       <c r="C45" s="155"/>
       <c r="D45" s="157" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E45" s="178" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F45" s="280"/>
       <c r="G45" s="157"/>
       <c r="H45" s="372" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I45" s="372"/>
       <c r="J45" s="157"/>
       <c r="K45" s="373" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L45" s="373"/>
       <c r="M45" s="157"/>
       <c r="N45" s="372" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O45" s="372"/>
       <c r="P45" s="372"/>
       <c r="Q45" s="373" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R45" s="373"/>
       <c r="S45" s="157"/>
       <c r="T45" s="275" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
@@ -15449,47 +15461,47 @@
       <c r="B46" s="163"/>
       <c r="C46" s="164"/>
       <c r="D46" s="167" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E46" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F46" s="283"/>
       <c r="G46" s="167"/>
       <c r="H46" s="284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I46" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J46" s="169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K46" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L46" s="285" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M46" s="166"/>
       <c r="N46" s="284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O46" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P46" s="170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q46" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R46" s="171" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S46" s="167"/>
       <c r="T46" s="286" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
@@ -15518,13 +15530,13 @@
     </row>
     <row r="48" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A48" s="159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" s="146">
         <v>44316</v>
       </c>
       <c r="C48" s="146" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D48" s="194">
         <v>6800</v>
@@ -15582,7 +15594,7 @@
     </row>
     <row r="49" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A49" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" s="146">
         <v>44285</v>
@@ -15642,13 +15654,13 @@
     </row>
     <row r="50" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A50" s="159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B50" s="146">
         <v>44457</v>
       </c>
       <c r="C50" s="146" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D50" s="194">
         <v>24000</v>
@@ -15706,7 +15718,7 @@
     </row>
     <row r="51" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A51" s="159" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B51" s="146">
         <v>44352</v>
@@ -15766,13 +15778,13 @@
     </row>
     <row r="52" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A52" s="159" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" s="146">
         <v>44438</v>
       </c>
       <c r="C52" s="146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D52" s="194">
         <v>28800</v>
@@ -15830,13 +15842,13 @@
     </row>
     <row r="53" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A53" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="146">
         <v>44529</v>
       </c>
       <c r="C53" s="146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D53" s="194">
         <v>43160</v>
@@ -15894,13 +15906,13 @@
     </row>
     <row r="54" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A54" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B54" s="146">
         <v>44413</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D54" s="194">
         <v>30000</v>
@@ -15958,7 +15970,7 @@
     </row>
     <row r="55" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A55" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B55" s="146">
         <v>44423</v>
@@ -16018,7 +16030,7 @@
     </row>
     <row r="56" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A56" s="159" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B56" s="146">
         <v>44423</v>
@@ -16078,7 +16090,7 @@
     </row>
     <row r="57" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A57" s="159" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B57" s="146">
         <v>44423</v>
@@ -16160,7 +16172,7 @@
       <c r="A59" s="159"/>
       <c r="B59" s="218"/>
       <c r="D59" s="296" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E59" s="303">
         <f>SUM(D48:D57)</f>
@@ -16176,7 +16188,7 @@
     <row r="60" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A60" s="159"/>
       <c r="D60" s="210" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E60" s="194">
         <f>SUM(E48:E54)</f>
@@ -16212,7 +16224,7 @@
     <row r="61" spans="1:20" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A61" s="159"/>
       <c r="D61" s="210" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E61" s="194">
         <f>SUM(E55:E57)</f>
@@ -16249,7 +16261,7 @@
       <c r="B62" s="165"/>
       <c r="C62" s="165"/>
       <c r="D62" s="198" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E62" s="200">
         <f>E60+E61</f>
@@ -16328,13 +16340,13 @@
     </row>
     <row r="65" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A65" s="159" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B65" s="146">
         <v>44651</v>
       </c>
       <c r="C65" s="146" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D65" s="194">
         <v>36000</v>
@@ -16392,13 +16404,13 @@
     </row>
     <row r="66" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A66" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B66" s="146">
         <v>44774</v>
       </c>
       <c r="C66" s="146" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D66" s="194">
         <v>45000</v>
@@ -16456,7 +16468,7 @@
     </row>
     <row r="67" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A67" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B67" s="146">
         <v>44778</v>
@@ -16516,7 +16528,7 @@
     </row>
     <row r="68" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A68" s="159" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B68" s="146">
         <v>44777</v>
@@ -16576,13 +16588,13 @@
     </row>
     <row r="69" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A69" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B69" s="146">
         <v>44798</v>
       </c>
       <c r="C69" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D69" s="194">
         <v>40000</v>
@@ -16639,13 +16651,13 @@
     </row>
     <row r="70" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A70" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" s="146">
         <v>44834</v>
       </c>
       <c r="C70" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D70" s="194">
         <v>1000</v>
@@ -16702,13 +16714,13 @@
     </row>
     <row r="71" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A71" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B71" s="146">
         <v>44844</v>
       </c>
       <c r="C71" s="146" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D71" s="194">
         <v>40000</v>
@@ -16766,13 +16778,13 @@
     </row>
     <row r="72" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A72" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B72" s="146">
         <v>44864</v>
       </c>
       <c r="C72" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D72" s="194">
         <v>1000</v>
@@ -16829,13 +16841,13 @@
     </row>
     <row r="73" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A73" s="159" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B73" s="146">
         <v>44895</v>
       </c>
       <c r="C73" s="146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D73" s="194">
         <v>82000</v>
@@ -16892,13 +16904,13 @@
     </row>
     <row r="74" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A74" s="159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B74" s="146">
         <v>44895</v>
       </c>
       <c r="C74" s="146" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D74" s="194">
         <v>84000</v>
@@ -16955,13 +16967,13 @@
     </row>
     <row r="75" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A75" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B75" s="146">
         <v>44895</v>
       </c>
       <c r="C75" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D75" s="194">
         <v>1000</v>
@@ -17018,13 +17030,13 @@
     </row>
     <row r="76" spans="1:1024" customFormat="1" ht="11.25" customHeight="1">
       <c r="A76" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="146">
         <v>44925</v>
       </c>
       <c r="C76" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D76" s="194">
         <v>1000</v>
@@ -18086,13 +18098,13 @@
     </row>
     <row r="77" spans="1:1024" customFormat="1" ht="11.25" customHeight="1">
       <c r="A77" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" s="146">
         <v>44956</v>
       </c>
       <c r="C77" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D77" s="194">
         <v>1000</v>
@@ -19154,13 +19166,13 @@
     </row>
     <row r="78" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A78" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B78" s="146">
         <v>44985</v>
       </c>
       <c r="C78" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D78" s="194">
         <v>1000</v>
@@ -19216,13 +19228,13 @@
     </row>
     <row r="79" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A79" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B79" s="146">
         <v>45015</v>
       </c>
       <c r="C79" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D79" s="194">
         <v>1000</v>
@@ -19278,13 +19290,13 @@
     </row>
     <row r="80" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A80" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B80" s="146">
         <v>45046</v>
       </c>
       <c r="C80" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D80" s="194">
         <v>1000</v>
@@ -19340,13 +19352,13 @@
     </row>
     <row r="81" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A81" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" s="146">
         <v>44764</v>
       </c>
       <c r="C81" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D81" s="194"/>
       <c r="E81" s="194">
@@ -19401,13 +19413,13 @@
     </row>
     <row r="82" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A82" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" s="146">
         <v>44764</v>
       </c>
       <c r="C82" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D82" s="194">
         <v>3892.36</v>
@@ -19464,13 +19476,13 @@
     </row>
     <row r="83" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A83" s="159" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B83" s="146">
         <v>44764</v>
       </c>
       <c r="C83" s="146" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D83" s="194">
         <v>11181.35</v>
@@ -19532,27 +19544,27 @@
       <c r="D84" s="331"/>
       <c r="E84" s="332"/>
       <c r="F84" s="333" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G84" s="334"/>
-      <c r="H84" s="368" t="e">
+      <c r="H84" s="385" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="I84" s="368"/>
+      <c r="I84" s="385"/>
       <c r="J84" s="335" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K84" s="334"/>
       <c r="L84" s="336"/>
       <c r="M84" s="332"/>
-      <c r="N84" s="368" t="e">
+      <c r="N84" s="385" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="O84" s="368"/>
+      <c r="O84" s="385"/>
       <c r="P84" s="337" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q84" s="147"/>
       <c r="R84" s="267"/>
@@ -19563,7 +19575,7 @@
       <c r="A85" s="159"/>
       <c r="B85" s="218"/>
       <c r="D85" s="296" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E85" s="235">
         <f>SUM(D65:D83)</f>
@@ -19582,7 +19594,7 @@
     <row r="86" spans="1:1024" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A86" s="159"/>
       <c r="D86" s="210" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E86" s="194">
         <f>SUM(E69:E83)+SUM(E65:E67)</f>
@@ -19620,7 +19632,7 @@
       <c r="B87" s="145"/>
       <c r="C87" s="145"/>
       <c r="D87" s="210" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E87" s="194" t="e">
         <f>E68</f>
@@ -20666,7 +20678,7 @@
       <c r="B88" s="165"/>
       <c r="C88" s="165"/>
       <c r="D88" s="198" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E88" s="200" t="e">
         <f>E86+E87</f>
@@ -48457,18 +48469,35 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="V33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="V37:AC37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W19"/>
@@ -48485,35 +48514,18 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="V33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="V37:AC37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -48526,10 +48538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -48607,9 +48619,11 @@
       <c r="D5" s="14"/>
       <c r="E5" s="18">
         <f>G40</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2500</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="19" t="s">
@@ -48634,7 +48648,7 @@
       </c>
       <c r="G7" s="25">
         <f>F4-E5</f>
-        <v>84000</v>
+        <v>81500</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -48790,18 +48804,18 @@
         <v>34</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -48847,7 +48861,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="30"/>
       <c r="D28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -48897,10 +48911,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33">
         <v>62.06</v>
@@ -48918,10 +48932,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C34">
         <v>74.47</v>
@@ -48939,7 +48953,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
@@ -48954,7 +48968,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -48997,7 +49011,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="357" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>190</v>
@@ -49007,61 +49021,49 @@
       <c r="E40" s="47"/>
       <c r="F40" s="48"/>
       <c r="G40" s="49">
-        <f>SUM(F41:F41)</f>
-        <v>0</v>
+        <f>SUM(F41:F42)</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>610</v>
+      </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41"/>
+      <c r="F41">
+        <v>500</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
+      <c r="B42" t="s">
+        <v>611</v>
+      </c>
+      <c r="F42">
+        <v>2000</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="30">
-        <v>45166</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="30"/>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="30"/>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="30">
-        <v>45170</v>
+        <v>45166</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
@@ -49070,11 +49072,9 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="30">
-        <v>45174</v>
-      </c>
+      <c r="A47" s="30"/>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -49085,7 +49085,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="30"/>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
@@ -49094,9 +49094,11 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="30"/>
+      <c r="A49" s="30">
+        <v>45170</v>
+      </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D49" s="34"/>
       <c r="E49" s="34"/>
@@ -49105,9 +49107,11 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="30"/>
+      <c r="A50" s="30">
+        <v>45174</v>
+      </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="34"/>
@@ -49118,7 +49122,7 @@
     <row r="51" spans="1:8">
       <c r="A51" s="30"/>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
@@ -49129,7 +49133,7 @@
     <row r="52" spans="1:8">
       <c r="A52" s="30"/>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
@@ -49140,7 +49144,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="30"/>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -49149,11 +49153,9 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="30">
-        <v>45196</v>
-      </c>
+      <c r="A54" s="30"/>
       <c r="B54" t="s">
-        <v>583</v>
+        <v>54</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -49164,7 +49166,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="30"/>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
@@ -49173,130 +49175,126 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="30"/>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="30">
         <v>45196</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>582</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="D57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="F58" s="50"/>
+      <c r="A58" s="30"/>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8"/>
-      <c r="F59" s="51"/>
+      <c r="A59" s="7">
+        <v>45196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="8"/>
-      <c r="F60" s="51"/>
+      <c r="D60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="51"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="8"/>
+      <c r="F62" s="51"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="B63" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="8"/>
+      <c r="F63" s="51"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="51"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="B65" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="B66" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="15">
-        <f>SUM(D76:D78)</f>
-        <v>42000</v>
+      <c r="B66" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="51" t="s">
+        <v>59</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="B67" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="16">
-        <f>SUM(E76:E78)</f>
-        <v>40000</v>
-      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="B68" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55">
-        <f>F78</f>
-        <v>2000</v>
-      </c>
+      <c r="B68" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="23"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="54"/>
-      <c r="D69" s="51">
-        <f>E100</f>
-        <v>0</v>
+      <c r="D69" s="15">
+        <f>SUM(D79:D81)</f>
+        <v>42000</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -49304,55 +49302,73 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" s="54" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C70" s="54"/>
-      <c r="D70" s="51">
-        <v>0</v>
+      <c r="D70" s="16">
+        <f>SUM(E79:E81)</f>
+        <v>40000</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="B71" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="56">
-        <f>D67-D69</f>
-        <v>40000</v>
+      <c r="B71" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55">
+        <f>F81</f>
+        <v>2000</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="B72" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="54"/>
+      <c r="D72" s="51">
+        <f>E103</f>
+        <v>0</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="3"/>
+      <c r="B73" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="54"/>
+      <c r="D73" s="51">
+        <v>0</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="D74" s="3"/>
+      <c r="B74" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="56">
+        <f>D70-D72</f>
+        <v>40000</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8">
+      <c r="B75" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="8"/>
       <c r="D75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -49360,7 +49376,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="B76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76" s="3"/>
       <c r="F76" s="3"/>
@@ -49368,146 +49384,128 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
-        <v>44885</v>
-      </c>
-      <c r="B77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" s="3">
-        <v>42000</v>
-      </c>
-      <c r="E77" s="3">
-        <v>40000</v>
-      </c>
-      <c r="F77" s="3">
-        <f>F73+D77-E77</f>
-        <v>2000</v>
-      </c>
+      <c r="D77" s="3"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8">
       <c r="D78" s="3"/>
-      <c r="F78" s="3">
-        <f>F77+D78-E78</f>
-        <v>2000</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8">
+      <c r="A80" s="7">
+        <v>44885</v>
+      </c>
       <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="F80" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D80" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F80" s="3">
+        <f>F76+D80-E80</f>
+        <v>2000</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
       <c r="D81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3">
+        <f>F80+D81-E81</f>
+        <v>2000</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="B82" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="8"/>
       <c r="D82" s="3"/>
-      <c r="F82" s="51"/>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="B83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="1"/>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
       <c r="D83" s="3"/>
-      <c r="F83" s="51"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="B84" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="F84" s="51"/>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
+      <c r="B85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="3"/>
       <c r="F85" s="51"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="B86" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="E86"/>
+      <c r="B86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="3"/>
       <c r="F86" s="51"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="B87" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
-        <v>45132</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="51"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
-        <v>45137</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="B89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="E89"/>
+      <c r="F89" s="51"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="7">
-        <v>45148</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="F90" s="3"/>
@@ -49516,10 +49514,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7">
-        <v>45160</v>
+        <v>45132</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -49528,8 +49526,11 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8">
+      <c r="A92" s="7">
+        <v>45137</v>
+      </c>
       <c r="B92" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -49538,8 +49539,11 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8">
+      <c r="A93" s="7">
+        <v>45148</v>
+      </c>
       <c r="B93" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -49548,8 +49552,11 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8">
+      <c r="A94" s="7">
+        <v>45160</v>
+      </c>
       <c r="B94" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -49559,7 +49566,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="B95" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -49569,7 +49576,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="B96" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -49579,7 +49586,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="B97" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -49588,11 +49595,8 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
-        <v>45167</v>
-      </c>
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -49602,7 +49606,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="B99" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -49612,7 +49616,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="B100" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -49621,10 +49625,43 @@
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8">
+      <c r="A101" s="7">
+        <v>45167</v>
+      </c>
       <c r="B101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
@@ -49638,7 +49675,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -49778,12 +49815,6 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>44926</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="27">
@@ -49794,7 +49825,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
@@ -49806,7 +49837,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
@@ -49914,7 +49945,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -50182,7 +50213,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="357" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>190</v>
@@ -50217,7 +50248,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="B44" s="48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C44" s="48"/>
       <c r="D44" s="48">
@@ -50538,8 +50569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -50596,7 +50627,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15">
         <f>SUM(D9:D20)</f>
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
@@ -50604,7 +50635,7 @@
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -50664,12 +50695,12 @@
       </c>
       <c r="C9"/>
       <c r="D9" s="28">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="27">
         <f>D9-E9</f>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -50682,7 +50713,7 @@
       <c r="E10" s="29"/>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -50693,7 +50724,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -50704,7 +50735,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -50715,7 +50746,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -50726,7 +50757,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -50737,7 +50768,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -50748,7 +50779,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -50759,7 +50790,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -50770,7 +50801,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -50781,7 +50812,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -50792,7 +50823,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -50826,7 +50857,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -51080,7 +51111,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="357" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>190</v>
@@ -51143,7 +51174,7 @@
         <v>45214</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D45"/>
     </row>
@@ -51152,7 +51183,7 @@
         <v>45214</v>
       </c>
       <c r="B46" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D46"/>
     </row>
@@ -52009,7 +52040,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -52270,7 +52301,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="357" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>190</v>
@@ -52675,7 +52706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -53061,7 +53092,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -53388,7 +53419,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="357" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>190</v>
@@ -54151,8 +54182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -54213,11 +54244,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
-        <v>86000</v>
+        <v>96000</v>
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -54254,7 +54285,7 @@
       </c>
       <c r="F7" s="25">
         <f>E4-D5</f>
-        <v>86000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -54286,8 +54317,8 @@
       <c r="A10" s="60">
         <v>45194</v>
       </c>
-      <c r="B10" s="385" t="s">
-        <v>605</v>
+      <c r="B10" s="360" t="s">
+        <v>604</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29">
@@ -54303,7 +54334,7 @@
         <v>45195</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29">
@@ -54332,11 +54363,11 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="386">
+      <c r="A13" s="361">
         <v>45244</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
@@ -54348,7 +54379,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="30"/>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
@@ -54360,7 +54391,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="30"/>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
@@ -54372,7 +54403,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="30"/>
       <c r="B16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
@@ -54382,36 +54413,43 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
+      <c r="A17" s="30">
+        <v>45258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>609</v>
+      </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="32">
+        <v>10000</v>
+      </c>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="30"/>
       <c r="B18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="30"/>
       <c r="B19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -54420,7 +54458,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -54450,7 +54488,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -54719,7 +54757,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="357" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>190</v>
@@ -55032,10 +55070,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -55059,14 +55097,14 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="F2" s="57">
-        <f>SUM(F6:F55)</f>
-        <v>3056.4</v>
+        <f>SUM(F6:F56)</f>
+        <v>5556.4</v>
       </c>
       <c r="G2" s="57"/>
     </row>
@@ -55102,7 +55140,7 @@
         <v>44956</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -55110,7 +55148,7 @@
         <v>87.69</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G22" si="0">G5+E6-F6</f>
+        <f t="shared" ref="G6:G23" si="0">G5+E6-F6</f>
         <v>-87.69</v>
       </c>
     </row>
@@ -55119,7 +55157,7 @@
         <v>44985</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -55136,7 +55174,7 @@
         <v>45015</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -55153,7 +55191,7 @@
         <v>45046</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -55170,7 +55208,7 @@
         <v>45076</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -55187,7 +55225,7 @@
         <v>45060</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -55204,7 +55242,7 @@
         <v>45060</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -55218,10 +55256,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="60">
-        <v>45076</v>
+        <v>45107</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -55235,10 +55273,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="60">
-        <v>45107</v>
+        <v>45137</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -55252,10 +55290,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="60">
-        <v>45137</v>
+        <v>45168</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -55269,10 +55307,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="60">
-        <v>45168</v>
+        <v>45199</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -55286,10 +55324,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60">
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -55302,10 +55340,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="60">
-        <v>45229</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="101">
+        <v>45213</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C18"/>
@@ -55336,72 +55374,83 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101">
-        <v>45213</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="F20"/>
+      <c r="A20" s="361">
+        <v>45257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2500</v>
+      </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>-2936.4</v>
+        <v>-5436.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="60">
-        <v>45290</v>
+        <v>45260</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C21"/>
+      <c r="D21"/>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>-2936.4</v>
+        <v>-5436.4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
+      <c r="A22" s="60">
+        <v>45290</v>
+      </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22">
-        <v>120</v>
-      </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>-3056.4</v>
+        <v>-5436.4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23"/>
+      <c r="F23">
+        <v>120</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>-5556.4</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
+      <c r="C24"/>
       <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="60"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="60"/>
-      <c r="B26" s="3"/>
-      <c r="D26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="60"/>
       <c r="B27" s="3"/>
       <c r="D27"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="E31" s="1"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="60"/>
+      <c r="B28" s="3"/>
+      <c r="D28"/>
     </row>
     <row r="32" spans="1:7">
       <c r="E32" s="1"/>
@@ -55410,7 +55459,6 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="60"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:7">
@@ -55418,14 +55466,18 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:7">
+      <c r="A36" s="60"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="60"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="G47" s="57"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="60"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>

--- a/02-23-sny.xlsx
+++ b/02-23-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9BE43B-1AAE-4C01-A517-10E95959D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE3424-E7C2-4EDF-B4E0-3DED9F59EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="180" windowWidth="14535" windowHeight="14835" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="615">
   <si>
     <t>2022-23</t>
   </si>
@@ -2217,6 +2217,9 @@
   </si>
   <si>
     <t>SnyH  Yazıhane</t>
+  </si>
+  <si>
+    <t>KALAN</t>
   </si>
 </sst>
 </file>
@@ -3861,15 +3864,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3884,44 +3878,17 @@
     <xf numFmtId="174" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3933,6 +3900,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="F9" s="4">
         <f>'SnyB202-22'!D6</f>
-        <v>-739.07</v>
+        <v>-858.79999999999984</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4379,7 +4382,7 @@
       </c>
       <c r="F10" s="4">
         <f>'SnyC301-22'!D6</f>
-        <v>-3983.74</v>
+        <v>-3924.1099999999997</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4427,7 +4430,7 @@
       </c>
       <c r="F12" s="4">
         <f>'SnyF601-22'!D6</f>
-        <v>-2232.38</v>
+        <v>-2384.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4492,7 +4495,7 @@
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
-        <v>-8955.1899999999987</v>
+        <v>-9167.7099999999991</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -8874,21 +8877,21 @@
       <c r="D2" s="156"/>
       <c r="E2" s="157"/>
       <c r="F2" s="156"/>
-      <c r="G2" s="362" t="s">
+      <c r="G2" s="367" t="s">
         <v>480</v>
       </c>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367"/>
       <c r="L2" s="156"/>
-      <c r="M2" s="362" t="s">
+      <c r="M2" s="367" t="s">
         <v>481</v>
       </c>
-      <c r="N2" s="362"/>
-      <c r="O2" s="362"/>
-      <c r="P2" s="362"/>
-      <c r="Q2" s="362"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
       <c r="R2" s="156"/>
       <c r="S2" s="158"/>
     </row>
@@ -8900,23 +8903,23 @@
       <c r="E3" s="160" t="s">
         <v>483</v>
       </c>
-      <c r="G3" s="363" t="s">
+      <c r="G3" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="H3" s="363"/>
-      <c r="J3" s="364" t="s">
+      <c r="H3" s="368"/>
+      <c r="J3" s="369" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="364"/>
-      <c r="M3" s="363" t="s">
+      <c r="K3" s="369"/>
+      <c r="M3" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="364" t="s">
+      <c r="N3" s="368"/>
+      <c r="O3" s="368"/>
+      <c r="P3" s="369" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" s="364"/>
+      <c r="Q3" s="369"/>
       <c r="S3" s="161" t="s">
         <v>365</v>
       </c>
@@ -8979,11 +8982,11 @@
         <v>450000</v>
       </c>
       <c r="F5" s="157"/>
-      <c r="G5" s="365">
+      <c r="G5" s="362">
         <f>K5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="365"/>
+      <c r="H5" s="362"/>
       <c r="I5" s="176"/>
       <c r="J5" s="177" t="s">
         <v>489</v>
@@ -8992,11 +8995,11 @@
         <v>225000</v>
       </c>
       <c r="L5" s="178"/>
-      <c r="M5" s="366">
+      <c r="M5" s="363">
         <f>Q5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="366"/>
+      <c r="N5" s="363"/>
       <c r="O5" s="179"/>
       <c r="P5" s="176"/>
       <c r="Q5" s="175">
@@ -9016,11 +9019,11 @@
         <v>490</v>
       </c>
       <c r="F6" s="165"/>
-      <c r="G6" s="367">
+      <c r="G6" s="364">
         <f>K6/$E$5</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="H6" s="367"/>
+      <c r="H6" s="364"/>
       <c r="I6" s="183" t="s">
         <v>491</v>
       </c>
@@ -9032,11 +9035,11 @@
         <v>351562.54</v>
       </c>
       <c r="L6" s="165"/>
-      <c r="M6" s="367">
+      <c r="M6" s="364">
         <f>Q6/$E$5</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="N6" s="367"/>
+      <c r="N6" s="364"/>
       <c r="O6" s="186" t="s">
         <v>492</v>
       </c>
@@ -12099,23 +12102,23 @@
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="159"/>
-      <c r="C65" s="368" t="s">
+      <c r="C65" s="365" t="s">
         <v>518</v>
       </c>
-      <c r="D65" s="368"/>
-      <c r="E65" s="368"/>
-      <c r="G65" s="369" t="e">
+      <c r="D65" s="365"/>
+      <c r="E65" s="365"/>
+      <c r="G65" s="366" t="e">
         <f>G64</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="369"/>
+      <c r="H65" s="366"/>
       <c r="I65" s="151"/>
       <c r="J65" s="147"/>
-      <c r="M65" s="369" t="e">
+      <c r="M65" s="366" t="e">
         <f>M64</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="369"/>
+      <c r="N65" s="366"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="149"/>
       <c r="R65" s="147"/>
@@ -12123,15 +12126,15 @@
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="159"/>
-      <c r="C66" s="368"/>
-      <c r="D66" s="368"/>
-      <c r="E66" s="368"/>
-      <c r="G66" s="369"/>
-      <c r="H66" s="369"/>
+      <c r="C66" s="365"/>
+      <c r="D66" s="365"/>
+      <c r="E66" s="365"/>
+      <c r="G66" s="366"/>
+      <c r="H66" s="366"/>
       <c r="I66" s="151"/>
       <c r="J66" s="147"/>
-      <c r="M66" s="369"/>
-      <c r="N66" s="369"/>
+      <c r="M66" s="366"/>
+      <c r="N66" s="366"/>
       <c r="P66" s="147"/>
       <c r="Q66" s="149"/>
       <c r="R66" s="147"/>
@@ -12558,6 +12561,12 @@
     <row r="1048548" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="G6:H6"/>
@@ -12565,12 +12574,6 @@
     <mergeCell ref="C65:E66"/>
     <mergeCell ref="G65:H66"/>
     <mergeCell ref="M65:N66"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12844,7 +12847,7 @@
       <c r="G1" s="147"/>
       <c r="O1" s="150"/>
       <c r="T1" s="147"/>
-      <c r="V1" s="375" t="s">
+      <c r="V1" s="380" t="s">
         <v>526</v>
       </c>
       <c r="W1" s="253" t="s">
@@ -12873,24 +12876,24 @@
       <c r="E2" s="258"/>
       <c r="F2" s="259"/>
       <c r="G2" s="257"/>
-      <c r="H2" s="374" t="s">
+      <c r="H2" s="386" t="s">
         <v>480</v>
       </c>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
       <c r="M2" s="257"/>
-      <c r="N2" s="374" t="s">
+      <c r="N2" s="386" t="s">
         <v>481</v>
       </c>
-      <c r="O2" s="374"/>
-      <c r="P2" s="374"/>
-      <c r="Q2" s="374"/>
-      <c r="R2" s="374"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
+      <c r="Q2" s="386"/>
+      <c r="R2" s="386"/>
       <c r="S2" s="257"/>
       <c r="T2" s="260"/>
-      <c r="V2" s="375"/>
+      <c r="V2" s="380"/>
       <c r="W2" s="261" t="s">
         <v>286</v>
       </c>
@@ -13038,11 +13041,11 @@
       </c>
       <c r="F5" s="276"/>
       <c r="G5" s="165"/>
-      <c r="H5" s="371">
+      <c r="H5" s="385">
         <f>L5/$E$4</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="I5" s="371"/>
+      <c r="I5" s="385"/>
       <c r="J5" s="183" t="s">
         <v>532</v>
       </c>
@@ -13054,11 +13057,11 @@
         <v>351562.54</v>
       </c>
       <c r="M5" s="165"/>
-      <c r="N5" s="371">
+      <c r="N5" s="385">
         <f>R5/$E$4</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="O5" s="371"/>
+      <c r="O5" s="385"/>
       <c r="P5" s="186" t="s">
         <v>492</v>
       </c>
@@ -13196,49 +13199,49 @@
       </c>
       <c r="F8" s="280"/>
       <c r="G8" s="157"/>
-      <c r="H8" s="372" t="s">
+      <c r="H8" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="I8" s="372"/>
+      <c r="I8" s="377"/>
       <c r="J8" s="157"/>
-      <c r="K8" s="373" t="s">
+      <c r="K8" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="L8" s="373"/>
+      <c r="L8" s="378"/>
       <c r="M8" s="157"/>
-      <c r="N8" s="372" t="s">
+      <c r="N8" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="O8" s="372"/>
-      <c r="P8" s="372"/>
-      <c r="Q8" s="373" t="s">
+      <c r="O8" s="377"/>
+      <c r="P8" s="377"/>
+      <c r="Q8" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="R8" s="373"/>
+      <c r="R8" s="378"/>
       <c r="S8" s="157"/>
       <c r="T8" s="275" t="s">
         <v>365</v>
       </c>
-      <c r="V8" s="381" t="s">
+      <c r="V8" s="383" t="s">
         <v>534</v>
       </c>
-      <c r="W8" s="382">
+      <c r="W8" s="384">
         <f>SUM(W3:W7)</f>
         <v>626102.71</v>
       </c>
-      <c r="X8" s="379">
+      <c r="X8" s="375">
         <f>SUM(X3:X7)</f>
         <v>626102.71</v>
       </c>
-      <c r="Y8" s="380" t="e">
+      <c r="Y8" s="376" t="e">
         <f>SUM(Y3:Y7)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="379" t="e">
+      <c r="Z8" s="375" t="e">
         <f>SUM(Z3:Z7)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="380" t="e">
+      <c r="AA8" s="376" t="e">
         <f>SUM(AA3:AA7)</f>
         <v>#REF!</v>
       </c>
@@ -13298,16 +13301,16 @@
       <c r="T9" s="286" t="s">
         <v>487</v>
       </c>
-      <c r="V9" s="381"/>
-      <c r="W9" s="382"/>
-      <c r="X9" s="379"/>
-      <c r="Y9" s="380"/>
-      <c r="Z9" s="379"/>
-      <c r="AA9" s="380"/>
-      <c r="AB9" s="376" t="s">
+      <c r="V9" s="383"/>
+      <c r="W9" s="384"/>
+      <c r="X9" s="375"/>
+      <c r="Y9" s="376"/>
+      <c r="Z9" s="375"/>
+      <c r="AA9" s="376"/>
+      <c r="AB9" s="379" t="s">
         <v>536</v>
       </c>
-      <c r="AC9" s="376"/>
+      <c r="AC9" s="379"/>
     </row>
     <row r="10" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="190">
@@ -13395,10 +13398,10 @@
       <c r="T11" s="268">
         <v>5.52</v>
       </c>
-      <c r="V11" s="375" t="s">
+      <c r="V11" s="380" t="s">
         <v>537</v>
       </c>
-      <c r="W11" s="377" t="e">
+      <c r="W11" s="381" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
@@ -13474,8 +13477,8 @@
       <c r="T12" s="268">
         <v>5.52</v>
       </c>
-      <c r="V12" s="375"/>
-      <c r="W12" s="377"/>
+      <c r="V12" s="380"/>
+      <c r="W12" s="381"/>
       <c r="X12" s="262" t="s">
         <v>286</v>
       </c>
@@ -13517,7 +13520,7 @@
       <c r="V13" s="268">
         <v>2018</v>
       </c>
-      <c r="W13" s="377"/>
+      <c r="W13" s="381"/>
       <c r="X13" s="270">
         <f>I15</f>
         <v>16406.251866666666</v>
@@ -13568,7 +13571,7 @@
       <c r="V14" s="268">
         <v>2019</v>
       </c>
-      <c r="W14" s="377"/>
+      <c r="W14" s="381"/>
       <c r="X14" s="270">
         <f>I25</f>
         <v>20699.204717171131</v>
@@ -13633,7 +13636,7 @@
       <c r="V15" s="268">
         <v>2020</v>
       </c>
-      <c r="W15" s="377"/>
+      <c r="W15" s="381"/>
       <c r="X15" s="270">
         <f>I42</f>
         <v>50197.878908060913</v>
@@ -13696,7 +13699,7 @@
       <c r="V16" s="268">
         <v>2021</v>
       </c>
-      <c r="W16" s="377"/>
+      <c r="W16" s="381"/>
       <c r="X16" s="270">
         <f>I60</f>
         <v>118343.48939231082</v>
@@ -13766,7 +13769,7 @@
       <c r="V17" s="268">
         <v>2022</v>
       </c>
-      <c r="W17" s="377"/>
+      <c r="W17" s="381"/>
       <c r="X17" s="270" t="e">
         <f>I86</f>
         <v>#REF!</v>
@@ -13807,23 +13810,23 @@
       <c r="P18" s="151"/>
       <c r="R18" s="197"/>
       <c r="T18" s="268"/>
-      <c r="V18" s="378" t="s">
+      <c r="V18" s="382" t="s">
         <v>534</v>
       </c>
-      <c r="W18" s="377"/>
-      <c r="X18" s="379" t="e">
+      <c r="W18" s="381"/>
+      <c r="X18" s="375" t="e">
         <f>SUM(X13:X17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="380" t="e">
+      <c r="Y18" s="376" t="e">
         <f>SUM(Y13:Y17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="379" t="e">
+      <c r="Z18" s="375" t="e">
         <f>SUM(Z13:Z17)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA18" s="380" t="e">
+      <c r="AA18" s="376" t="e">
         <f>SUM(AA13:AA17)</f>
         <v>#REF!</v>
       </c>
@@ -13859,16 +13862,16 @@
       <c r="R19" s="158"/>
       <c r="S19" s="156"/>
       <c r="T19" s="290"/>
-      <c r="V19" s="378"/>
-      <c r="W19" s="377"/>
-      <c r="X19" s="379"/>
-      <c r="Y19" s="380"/>
-      <c r="Z19" s="379"/>
-      <c r="AA19" s="380"/>
-      <c r="AB19" s="376" t="s">
+      <c r="V19" s="382"/>
+      <c r="W19" s="381"/>
+      <c r="X19" s="375"/>
+      <c r="Y19" s="376"/>
+      <c r="Z19" s="375"/>
+      <c r="AA19" s="376"/>
+      <c r="AB19" s="379" t="s">
         <v>542</v>
       </c>
-      <c r="AC19" s="376"/>
+      <c r="AC19" s="379"/>
     </row>
     <row r="20" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A20" s="159" t="s">
@@ -13995,10 +13998,10 @@
       <c r="T21" s="268">
         <v>5.73</v>
       </c>
-      <c r="V21" s="375" t="s">
+      <c r="V21" s="380" t="s">
         <v>543</v>
       </c>
-      <c r="W21" s="377" t="e">
+      <c r="W21" s="381" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
@@ -14074,8 +14077,8 @@
       <c r="T22" s="268">
         <v>5.73</v>
       </c>
-      <c r="V22" s="375"/>
-      <c r="W22" s="377"/>
+      <c r="V22" s="380"/>
+      <c r="W22" s="381"/>
       <c r="X22" s="262" t="s">
         <v>286</v>
       </c>
@@ -14107,7 +14110,7 @@
       <c r="V23" s="268">
         <v>2018</v>
       </c>
-      <c r="W23" s="377"/>
+      <c r="W23" s="381"/>
       <c r="X23" s="270">
         <f>O15</f>
         <v>4593.7481333333335</v>
@@ -14159,7 +14162,7 @@
       <c r="V24" s="268">
         <v>2019</v>
       </c>
-      <c r="W24" s="377"/>
+      <c r="W24" s="381"/>
       <c r="X24" s="270">
         <f>O25</f>
         <v>5800.7952828288689</v>
@@ -14223,7 +14226,7 @@
       <c r="V25" s="268">
         <v>2020</v>
       </c>
-      <c r="W25" s="377"/>
+      <c r="W25" s="381"/>
       <c r="X25" s="270">
         <f>O42</f>
         <v>14302.121091939091</v>
@@ -14286,7 +14289,7 @@
       <c r="V26" s="268">
         <v>2021</v>
       </c>
-      <c r="W26" s="377"/>
+      <c r="W26" s="381"/>
       <c r="X26" s="270">
         <f>O60</f>
         <v>33916.510607689197</v>
@@ -14356,7 +14359,7 @@
       <c r="V27" s="268">
         <v>2022</v>
       </c>
-      <c r="W27" s="377"/>
+      <c r="W27" s="381"/>
       <c r="X27" s="270" t="e">
         <f>O86</f>
         <v>#REF!</v>
@@ -14393,23 +14396,23 @@
       <c r="P28" s="151"/>
       <c r="R28" s="197"/>
       <c r="T28" s="268"/>
-      <c r="V28" s="378" t="s">
+      <c r="V28" s="382" t="s">
         <v>534</v>
       </c>
-      <c r="W28" s="377"/>
-      <c r="X28" s="379" t="e">
+      <c r="W28" s="381"/>
+      <c r="X28" s="375" t="e">
         <f>SUM(X23:X27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y28" s="380" t="e">
+      <c r="Y28" s="376" t="e">
         <f>SUM(Y23:Y27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z28" s="379" t="e">
+      <c r="Z28" s="375" t="e">
         <f>SUM(Z23:Z27)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA28" s="380" t="e">
+      <c r="AA28" s="376" t="e">
         <f>SUM(AA23:AA27)</f>
         <v>#REF!</v>
       </c>
@@ -14445,16 +14448,16 @@
       <c r="R29" s="158"/>
       <c r="S29" s="156"/>
       <c r="T29" s="290"/>
-      <c r="V29" s="378"/>
-      <c r="W29" s="377"/>
-      <c r="X29" s="379"/>
-      <c r="Y29" s="380"/>
-      <c r="Z29" s="379"/>
-      <c r="AA29" s="380"/>
-      <c r="AB29" s="376" t="s">
+      <c r="V29" s="382"/>
+      <c r="W29" s="381"/>
+      <c r="X29" s="375"/>
+      <c r="Y29" s="376"/>
+      <c r="Z29" s="375"/>
+      <c r="AA29" s="376"/>
+      <c r="AB29" s="379" t="s">
         <v>548</v>
       </c>
-      <c r="AC29" s="376"/>
+      <c r="AC29" s="379"/>
     </row>
     <row r="30" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A30" s="159" t="s">
@@ -14587,14 +14590,14 @@
         <v>522</v>
       </c>
       <c r="Y31" s="370"/>
-      <c r="Z31" s="383" t="s">
+      <c r="Z31" s="371" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="383"/>
-      <c r="AB31" s="384" t="s">
+      <c r="AA31" s="371"/>
+      <c r="AB31" s="372" t="s">
         <v>528</v>
       </c>
-      <c r="AC31" s="384"/>
+      <c r="AC31" s="372"/>
     </row>
     <row r="32" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A32" s="159" t="s">
@@ -14738,23 +14741,23 @@
       <c r="T33" s="268">
         <v>7.93</v>
       </c>
-      <c r="V33" s="386" t="s">
+      <c r="V33" s="374" t="s">
         <v>549</v>
       </c>
-      <c r="W33" s="386"/>
-      <c r="X33" s="379" t="e">
+      <c r="W33" s="374"/>
+      <c r="X33" s="375" t="e">
         <f>X28+X18</f>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="380" t="e">
+      <c r="Y33" s="376" t="e">
         <f>Y28+Y18</f>
         <v>#REF!</v>
       </c>
-      <c r="Z33" s="379" t="e">
+      <c r="Z33" s="375" t="e">
         <f>Z28+Z18</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="380" t="e">
+      <c r="AA33" s="376" t="e">
         <f>AA28+AA18</f>
         <v>#REF!</v>
       </c>
@@ -14826,16 +14829,16 @@
       <c r="T34" s="268">
         <v>7.93</v>
       </c>
-      <c r="V34" s="386"/>
-      <c r="W34" s="386"/>
-      <c r="X34" s="379"/>
-      <c r="Y34" s="380"/>
-      <c r="Z34" s="379"/>
-      <c r="AA34" s="380"/>
-      <c r="AB34" s="376" t="s">
+      <c r="V34" s="374"/>
+      <c r="W34" s="374"/>
+      <c r="X34" s="375"/>
+      <c r="Y34" s="376"/>
+      <c r="Z34" s="375"/>
+      <c r="AA34" s="376"/>
+      <c r="AB34" s="379" t="s">
         <v>536</v>
       </c>
-      <c r="AC34" s="376"/>
+      <c r="AC34" s="379"/>
     </row>
     <row r="35" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
@@ -15019,16 +15022,16 @@
       <c r="T37" s="268">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V37" s="386" t="s">
+      <c r="V37" s="374" t="s">
         <v>550</v>
       </c>
-      <c r="W37" s="386"/>
-      <c r="X37" s="386"/>
-      <c r="Y37" s="386"/>
-      <c r="Z37" s="386"/>
-      <c r="AA37" s="386"/>
-      <c r="AB37" s="386"/>
-      <c r="AC37" s="386"/>
+      <c r="W37" s="374"/>
+      <c r="X37" s="374"/>
+      <c r="Y37" s="374"/>
+      <c r="Z37" s="374"/>
+      <c r="AA37" s="374"/>
+      <c r="AB37" s="374"/>
+      <c r="AC37" s="374"/>
     </row>
     <row r="38" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
@@ -15432,25 +15435,25 @@
       </c>
       <c r="F45" s="280"/>
       <c r="G45" s="157"/>
-      <c r="H45" s="372" t="s">
+      <c r="H45" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="I45" s="372"/>
+      <c r="I45" s="377"/>
       <c r="J45" s="157"/>
-      <c r="K45" s="373" t="s">
+      <c r="K45" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="L45" s="373"/>
+      <c r="L45" s="378"/>
       <c r="M45" s="157"/>
-      <c r="N45" s="372" t="s">
+      <c r="N45" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="O45" s="372"/>
-      <c r="P45" s="372"/>
-      <c r="Q45" s="373" t="s">
+      <c r="O45" s="377"/>
+      <c r="P45" s="377"/>
+      <c r="Q45" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="R45" s="373"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="157"/>
       <c r="T45" s="275" t="s">
         <v>365</v>
@@ -19547,22 +19550,22 @@
         <v>570</v>
       </c>
       <c r="G84" s="334"/>
-      <c r="H84" s="385" t="e">
+      <c r="H84" s="373" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="I84" s="385"/>
+      <c r="I84" s="373"/>
       <c r="J84" s="335" t="s">
         <v>480</v>
       </c>
       <c r="K84" s="334"/>
       <c r="L84" s="336"/>
       <c r="M84" s="332"/>
-      <c r="N84" s="385" t="e">
+      <c r="N84" s="373" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="O84" s="385"/>
+      <c r="O84" s="373"/>
       <c r="P84" s="337" t="s">
         <v>481</v>
       </c>
@@ -48469,6 +48472,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W19"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="X31:Y31"/>
     <mergeCell ref="Z31:AA31"/>
     <mergeCell ref="AB31:AC31"/>
@@ -48485,47 +48529,6 @@
     <mergeCell ref="Z33:Z34"/>
     <mergeCell ref="AA33:AA34"/>
     <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W19"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -48540,7 +48543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -49674,14 +49677,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
@@ -49767,7 +49770,7 @@
       </c>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-739.07</v>
+        <v>-858.79999999999984</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -49988,11 +49991,11 @@
         <v>913.16</v>
       </c>
       <c r="E26" s="35">
-        <v>933.16</v>
+        <v>913.16</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -50008,11 +50011,11 @@
         <v>815.31</v>
       </c>
       <c r="E27" s="35">
-        <v>835.31</v>
+        <v>815.31</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -50028,11 +50031,11 @@
         <v>388.74</v>
       </c>
       <c r="E28" s="35">
-        <v>509.04</v>
+        <v>489.04</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-160.30000000000001</v>
+        <v>-100.30000000000001</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -50048,11 +50051,11 @@
         <v>437.09</v>
       </c>
       <c r="E29" s="35">
-        <v>557.09</v>
+        <v>537.09</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-280.30000000000007</v>
+        <v>-200.30000000000007</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -50068,11 +50071,11 @@
         <v>417.16</v>
       </c>
       <c r="E30" s="35">
-        <v>547.27</v>
+        <v>517.27</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-410.41</v>
+        <v>-300.41000000000003</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -50088,11 +50091,11 @@
         <v>389.39</v>
       </c>
       <c r="E31" s="35">
-        <v>520.63</v>
+        <v>490.63</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-541.65000000000009</v>
+        <v>-401.65000000000003</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -50108,11 +50111,11 @@
         <v>536.5</v>
       </c>
       <c r="E32" s="35">
-        <v>673.8</v>
+        <v>643.79999999999995</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-678.95</v>
+        <v>-508.95</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -50128,11 +50131,11 @@
         <v>438.93</v>
       </c>
       <c r="E33" s="35">
-        <v>578.66</v>
+        <v>548.66</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-818.68000000000006</v>
+        <v>-618.67999999999995</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -50148,11 +50151,11 @@
         <v>477.73</v>
       </c>
       <c r="E34" s="35">
-        <v>628.12</v>
+        <v>598.12</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-969.07</v>
+        <v>-739.06999999999994</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -50161,11 +50164,18 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" s="34">
+        <v>798.2</v>
+      </c>
+      <c r="E35" s="35">
+        <v>917.93</v>
+      </c>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-969.07</v>
+        <v>-858.79999999999984</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -50179,7 +50189,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-969.07</v>
+        <v>-858.79999999999984</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -50192,20 +50202,22 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
       <c r="F37" s="45">
-        <f>D37-E37+F36+C37</f>
-        <v>-739.07</v>
+        <f>D37-E37+F36</f>
+        <v>-858.79999999999984</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="F38" s="34" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="D39" s="3"/>
@@ -50569,14 +50581,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="B18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
@@ -50658,7 +50670,7 @@
       <c r="C6"/>
       <c r="D6" s="58">
         <f>F36</f>
-        <v>-3983.74</v>
+        <v>-3924.1099999999997</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -50901,11 +50913,11 @@
         <v>676.29</v>
       </c>
       <c r="E26">
-        <v>996.81</v>
+        <v>946.81</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="1"/>
-        <v>-1520.52</v>
+        <v>-1470.52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -50920,11 +50932,11 @@
         <v>961.03</v>
       </c>
       <c r="E27">
-        <v>1240.52</v>
+        <v>1190.52</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-1800.01</v>
+        <v>-1700.01</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -50939,11 +50951,11 @@
         <v>638.45000000000005</v>
       </c>
       <c r="E28">
-        <v>938.46</v>
+        <v>888.46</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-2100.02</v>
+        <v>-1950.02</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -50962,7 +50974,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-2400.04</v>
+        <v>-2250.04</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -50977,11 +50989,11 @@
         <v>700.93</v>
       </c>
       <c r="E30">
-        <v>990.96</v>
+        <v>950.96</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-2690.07</v>
+        <v>-2500.0700000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -50996,11 +51008,11 @@
         <v>738.4</v>
       </c>
       <c r="E31">
-        <v>1036.8399999999999</v>
+        <v>996.84</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-2988.51</v>
+        <v>-2758.51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -51015,11 +51027,11 @@
         <v>865.98</v>
       </c>
       <c r="E32">
-        <v>1165.77</v>
+        <v>1125.77</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-3288.3</v>
+        <v>-3018.3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -51034,11 +51046,11 @@
         <v>943.11</v>
       </c>
       <c r="E33">
-        <v>1237.75</v>
+        <v>1197.75</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-3582.94</v>
+        <v>-3272.94</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -51053,11 +51065,11 @@
         <v>1138.94</v>
       </c>
       <c r="E34">
-        <v>1539.74</v>
+        <v>1489.74</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-3983.74</v>
+        <v>-3623.74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -51065,12 +51077,18 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1479.69</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1780.06</v>
+      </c>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-3983.74</v>
+        <v>-3924.1099999999997</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -51083,7 +51101,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-3983.74</v>
+        <v>-3924.1099999999997</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -51095,13 +51113,13 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
       <c r="F37" s="45">
-        <f>D37-E37+F36+C37</f>
-        <v>-3573.74</v>
+        <f>D37-E37+F36</f>
+        <v>-3924.1099999999997</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -51729,8 +51747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -52084,11 +52102,11 @@
         <v>185.38</v>
       </c>
       <c r="E26" s="35">
-        <v>233.14</v>
+        <v>223.14</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="1"/>
-        <v>-797.76</v>
+        <v>-787.76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -52103,11 +52121,11 @@
         <v>173.47</v>
       </c>
       <c r="E27" s="35">
-        <v>195.71</v>
+        <v>185.71</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-820</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -52122,11 +52140,11 @@
         <v>116.34</v>
       </c>
       <c r="E28" s="35">
-        <v>126.34</v>
+        <v>116.34</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-830</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -52141,11 +52159,11 @@
         <v>119.21</v>
       </c>
       <c r="E29" s="35">
-        <v>129.21</v>
+        <v>119.21</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-840</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -52160,11 +52178,11 @@
         <v>102.16</v>
       </c>
       <c r="E30" s="35">
-        <v>112.16</v>
+        <v>102.16</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -52179,11 +52197,11 @@
         <v>83.65</v>
       </c>
       <c r="E31" s="35">
-        <v>93.65</v>
+        <v>83.65</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-860</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -52198,11 +52216,11 @@
         <v>96.22</v>
       </c>
       <c r="E32" s="35">
-        <v>106.22</v>
+        <v>96.22</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-870</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -52217,11 +52235,11 @@
         <v>145.32</v>
       </c>
       <c r="E33" s="35">
-        <v>155.32</v>
+        <v>145.32</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-880</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -52236,11 +52254,11 @@
         <v>145.4</v>
       </c>
       <c r="E34" s="35">
-        <v>165.4</v>
+        <v>145.4</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -52248,12 +52266,18 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="34">
+        <v>199.55</v>
+      </c>
+      <c r="E35" s="35">
+        <v>199.55</v>
+      </c>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -52266,7 +52290,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -52278,12 +52302,12 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
       <c r="F37" s="45">
-        <f>D37-E37+F36+C37</f>
+        <f>D37-E37+F36</f>
         <v>-800</v>
       </c>
     </row>
@@ -52706,8 +52730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -52798,7 +52822,7 @@
       <c r="C6"/>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-2232.38</v>
+        <v>-2384.8000000000002</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -53122,11 +53146,11 @@
         <v>1224.8399999999999</v>
       </c>
       <c r="E25" s="3">
-        <v>1367.33</v>
+        <v>1347.33</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" ref="F25:F36" si="2">D25-E25+F24</f>
-        <v>-375.01</v>
+        <v>-355.01</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -53144,11 +53168,11 @@
         <v>1007.84</v>
       </c>
       <c r="E26" s="3">
-        <v>1128.6300000000001</v>
+        <v>1108.6300000000001</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>-495.80000000000007</v>
+        <v>-455.80000000000007</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
@@ -53167,11 +53191,11 @@
         <v>1303.74</v>
       </c>
       <c r="E27" s="3">
-        <v>1447.94</v>
+        <v>1427.94</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>-640.00000000000011</v>
+        <v>-580.00000000000011</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="3"/>
@@ -53190,11 +53214,11 @@
         <v>664.04</v>
       </c>
       <c r="E28" s="3">
-        <v>934.05</v>
+        <v>914.05</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>-910.0100000000001</v>
+        <v>-830.0100000000001</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="3"/>
@@ -53213,11 +53237,11 @@
         <v>1110.03</v>
       </c>
       <c r="E29" s="3">
-        <v>1380.9</v>
+        <v>1360.9</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>-1180.8800000000001</v>
+        <v>-1080.8800000000001</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="3"/>
@@ -53236,11 +53260,11 @@
         <v>844.75</v>
       </c>
       <c r="E30" s="3">
-        <v>1115.05</v>
+        <v>1095.05</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>-1451.18</v>
+        <v>-1331.18</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="3"/>
@@ -53259,11 +53283,11 @@
         <v>1103.97</v>
       </c>
       <c r="E31" s="3">
-        <v>1377.88</v>
+        <v>1357.88</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>-1725.0900000000001</v>
+        <v>-1585.0900000000001</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="3"/>
@@ -53282,11 +53306,11 @@
         <v>942.66</v>
       </c>
       <c r="E32" s="3">
-        <v>1157.58</v>
+        <v>1137.58</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>-1940.0100000000002</v>
+        <v>-1780.0100000000002</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="3"/>
@@ -53305,11 +53329,11 @@
         <v>1072.24</v>
       </c>
       <c r="E33" s="3">
-        <v>1313.94</v>
+        <v>1293.94</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>-2181.71</v>
+        <v>-2001.7100000000003</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="3"/>
@@ -53328,11 +53352,11 @@
         <v>912.12</v>
       </c>
       <c r="E34" s="57">
-        <v>1142.79</v>
+        <v>1112.79</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>-2412.38</v>
+        <v>-2202.38</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
@@ -53344,12 +53368,18 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1520.2</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1702.62</v>
+      </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>-2412.38</v>
+        <v>-2384.8000000000002</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -53367,7 +53397,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>-2412.38</v>
+        <v>-2384.8000000000002</v>
       </c>
       <c r="H36" s="1"/>
       <c r="J36" s="68"/>
@@ -53383,13 +53413,13 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
       <c r="F37" s="45">
-        <f>D37-E37+F36+C37</f>
-        <v>-2232.38</v>
+        <f>D37-E37+F36</f>
+        <v>-2384.8000000000002</v>
       </c>
       <c r="H37" s="1"/>
       <c r="J37" s="68"/>
@@ -54182,8 +54212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -54531,11 +54561,11 @@
         <v>312.39999999999998</v>
       </c>
       <c r="E26" s="35">
-        <v>342.4</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="1"/>
-        <v>-1230</v>
+        <v>-1200</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -54551,11 +54581,11 @@
         <v>305.31</v>
       </c>
       <c r="E27" s="35">
-        <v>335.31</v>
+        <v>305.31</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-1260</v>
+        <v>-1200</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -54571,11 +54601,11 @@
         <v>190.12</v>
       </c>
       <c r="E28" s="35">
-        <v>220.12</v>
+        <v>190.12</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-1290</v>
+        <v>-1200</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -54591,11 +54621,11 @@
         <v>309.37</v>
       </c>
       <c r="E29" s="35">
-        <v>339.37</v>
+        <v>309.37</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-1320</v>
+        <v>-1200</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -54611,11 +54641,11 @@
         <v>292.29000000000002</v>
       </c>
       <c r="E30" s="35">
-        <v>322.29000000000002</v>
+        <v>292.29000000000002</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-1350</v>
+        <v>-1200</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -54631,11 +54661,11 @@
         <v>227.87</v>
       </c>
       <c r="E31" s="35">
-        <v>257.87</v>
+        <v>227.87</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-1380</v>
+        <v>-1200</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -54651,11 +54681,11 @@
         <v>323.64999999999998</v>
       </c>
       <c r="E32" s="35">
-        <v>353.65</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-1410</v>
+        <v>-1200</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -54671,11 +54701,11 @@
         <v>287.68</v>
       </c>
       <c r="E33" s="35">
-        <v>317.68</v>
+        <v>287.68</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-1440</v>
+        <v>-1200</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -54691,11 +54721,11 @@
         <v>339.26</v>
       </c>
       <c r="E34" s="35">
-        <v>379.26</v>
+        <v>339.26</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-1480</v>
+        <v>-1200</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -54704,11 +54734,18 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35" s="34">
+        <v>459.34</v>
+      </c>
+      <c r="E35" s="35">
+        <v>459.34</v>
+      </c>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-1480</v>
+        <v>-1200</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -54722,7 +54759,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-1480</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -54734,12 +54771,12 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
       <c r="F37" s="45">
-        <f>D37-E37+F36+C37</f>
+        <f>D37-E37+F36</f>
         <v>-1200</v>
       </c>
     </row>

--- a/02-23-sny.xlsx
+++ b/02-23-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE3424-E7C2-4EDF-B4E0-3DED9F59EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758178B-BB00-4853-B161-77802F9BACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="180" windowWidth="14535" windowHeight="14835" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="616">
   <si>
     <t>2022-23</t>
   </si>
@@ -2220,6 +2220,9 @@
   </si>
   <si>
     <t>KALAN</t>
+  </si>
+  <si>
+    <t>ödeme jmjtjn hesaba</t>
   </si>
 </sst>
 </file>
@@ -3864,6 +3867,15 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3878,17 +3890,44 @@
     <xf numFmtId="174" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3900,42 +3939,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4374,11 +4377,11 @@
       </c>
       <c r="D10" s="3">
         <f>'SnyC301-22'!E4</f>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
       <c r="F10" s="4">
         <f>'SnyC301-22'!D6</f>
@@ -4398,11 +4401,11 @@
       </c>
       <c r="D11" s="3">
         <f>'SnyE502-22'!E4</f>
-        <v>77000</v>
+        <v>83000</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="F11" s="4">
         <f>'SnyE502-22'!D6</f>
@@ -4487,11 +4490,11 @@
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
-        <v>366312.52</v>
+        <v>507312.52</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>253443.59909485455</v>
+        <v>112443.59909485455</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -8877,21 +8880,21 @@
       <c r="D2" s="156"/>
       <c r="E2" s="157"/>
       <c r="F2" s="156"/>
-      <c r="G2" s="367" t="s">
+      <c r="G2" s="362" t="s">
         <v>480</v>
       </c>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367"/>
-      <c r="K2" s="367"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
       <c r="L2" s="156"/>
-      <c r="M2" s="367" t="s">
+      <c r="M2" s="362" t="s">
         <v>481</v>
       </c>
-      <c r="N2" s="367"/>
-      <c r="O2" s="367"/>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
       <c r="R2" s="156"/>
       <c r="S2" s="158"/>
     </row>
@@ -8903,23 +8906,23 @@
       <c r="E3" s="160" t="s">
         <v>483</v>
       </c>
-      <c r="G3" s="368" t="s">
+      <c r="G3" s="363" t="s">
         <v>484</v>
       </c>
-      <c r="H3" s="368"/>
-      <c r="J3" s="369" t="s">
+      <c r="H3" s="363"/>
+      <c r="J3" s="364" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="369"/>
-      <c r="M3" s="368" t="s">
+      <c r="K3" s="364"/>
+      <c r="M3" s="363" t="s">
         <v>484</v>
       </c>
-      <c r="N3" s="368"/>
-      <c r="O3" s="368"/>
-      <c r="P3" s="369" t="s">
+      <c r="N3" s="363"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="364" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" s="369"/>
+      <c r="Q3" s="364"/>
       <c r="S3" s="161" t="s">
         <v>365</v>
       </c>
@@ -8982,11 +8985,11 @@
         <v>450000</v>
       </c>
       <c r="F5" s="157"/>
-      <c r="G5" s="362">
+      <c r="G5" s="365">
         <f>K5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="362"/>
+      <c r="H5" s="365"/>
       <c r="I5" s="176"/>
       <c r="J5" s="177" t="s">
         <v>489</v>
@@ -8995,11 +8998,11 @@
         <v>225000</v>
       </c>
       <c r="L5" s="178"/>
-      <c r="M5" s="363">
+      <c r="M5" s="366">
         <f>Q5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="363"/>
+      <c r="N5" s="366"/>
       <c r="O5" s="179"/>
       <c r="P5" s="176"/>
       <c r="Q5" s="175">
@@ -9019,11 +9022,11 @@
         <v>490</v>
       </c>
       <c r="F6" s="165"/>
-      <c r="G6" s="364">
+      <c r="G6" s="367">
         <f>K6/$E$5</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="H6" s="364"/>
+      <c r="H6" s="367"/>
       <c r="I6" s="183" t="s">
         <v>491</v>
       </c>
@@ -9035,11 +9038,11 @@
         <v>351562.54</v>
       </c>
       <c r="L6" s="165"/>
-      <c r="M6" s="364">
+      <c r="M6" s="367">
         <f>Q6/$E$5</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="N6" s="364"/>
+      <c r="N6" s="367"/>
       <c r="O6" s="186" t="s">
         <v>492</v>
       </c>
@@ -12102,23 +12105,23 @@
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="159"/>
-      <c r="C65" s="365" t="s">
+      <c r="C65" s="368" t="s">
         <v>518</v>
       </c>
-      <c r="D65" s="365"/>
-      <c r="E65" s="365"/>
-      <c r="G65" s="366" t="e">
+      <c r="D65" s="368"/>
+      <c r="E65" s="368"/>
+      <c r="G65" s="369" t="e">
         <f>G64</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="366"/>
+      <c r="H65" s="369"/>
       <c r="I65" s="151"/>
       <c r="J65" s="147"/>
-      <c r="M65" s="366" t="e">
+      <c r="M65" s="369" t="e">
         <f>M64</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="366"/>
+      <c r="N65" s="369"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="149"/>
       <c r="R65" s="147"/>
@@ -12126,15 +12129,15 @@
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="159"/>
-      <c r="C66" s="365"/>
-      <c r="D66" s="365"/>
-      <c r="E66" s="365"/>
-      <c r="G66" s="366"/>
-      <c r="H66" s="366"/>
+      <c r="C66" s="368"/>
+      <c r="D66" s="368"/>
+      <c r="E66" s="368"/>
+      <c r="G66" s="369"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="151"/>
       <c r="J66" s="147"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="366"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="369"/>
       <c r="P66" s="147"/>
       <c r="Q66" s="149"/>
       <c r="R66" s="147"/>
@@ -12561,12 +12564,6 @@
     <row r="1048548" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="G6:H6"/>
@@ -12574,6 +12571,12 @@
     <mergeCell ref="C65:E66"/>
     <mergeCell ref="G65:H66"/>
     <mergeCell ref="M65:N66"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12847,7 +12850,7 @@
       <c r="G1" s="147"/>
       <c r="O1" s="150"/>
       <c r="T1" s="147"/>
-      <c r="V1" s="380" t="s">
+      <c r="V1" s="375" t="s">
         <v>526</v>
       </c>
       <c r="W1" s="253" t="s">
@@ -12876,24 +12879,24 @@
       <c r="E2" s="258"/>
       <c r="F2" s="259"/>
       <c r="G2" s="257"/>
-      <c r="H2" s="386" t="s">
+      <c r="H2" s="374" t="s">
         <v>480</v>
       </c>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
+      <c r="K2" s="374"/>
+      <c r="L2" s="374"/>
       <c r="M2" s="257"/>
-      <c r="N2" s="386" t="s">
+      <c r="N2" s="374" t="s">
         <v>481</v>
       </c>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
+      <c r="O2" s="374"/>
+      <c r="P2" s="374"/>
+      <c r="Q2" s="374"/>
+      <c r="R2" s="374"/>
       <c r="S2" s="257"/>
       <c r="T2" s="260"/>
-      <c r="V2" s="380"/>
+      <c r="V2" s="375"/>
       <c r="W2" s="261" t="s">
         <v>286</v>
       </c>
@@ -13041,11 +13044,11 @@
       </c>
       <c r="F5" s="276"/>
       <c r="G5" s="165"/>
-      <c r="H5" s="385">
+      <c r="H5" s="371">
         <f>L5/$E$4</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="I5" s="385"/>
+      <c r="I5" s="371"/>
       <c r="J5" s="183" t="s">
         <v>532</v>
       </c>
@@ -13057,11 +13060,11 @@
         <v>351562.54</v>
       </c>
       <c r="M5" s="165"/>
-      <c r="N5" s="385">
+      <c r="N5" s="371">
         <f>R5/$E$4</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="O5" s="385"/>
+      <c r="O5" s="371"/>
       <c r="P5" s="186" t="s">
         <v>492</v>
       </c>
@@ -13199,49 +13202,49 @@
       </c>
       <c r="F8" s="280"/>
       <c r="G8" s="157"/>
-      <c r="H8" s="377" t="s">
+      <c r="H8" s="372" t="s">
         <v>484</v>
       </c>
-      <c r="I8" s="377"/>
+      <c r="I8" s="372"/>
       <c r="J8" s="157"/>
-      <c r="K8" s="378" t="s">
+      <c r="K8" s="373" t="s">
         <v>485</v>
       </c>
-      <c r="L8" s="378"/>
+      <c r="L8" s="373"/>
       <c r="M8" s="157"/>
-      <c r="N8" s="377" t="s">
+      <c r="N8" s="372" t="s">
         <v>484</v>
       </c>
-      <c r="O8" s="377"/>
-      <c r="P8" s="377"/>
-      <c r="Q8" s="378" t="s">
+      <c r="O8" s="372"/>
+      <c r="P8" s="372"/>
+      <c r="Q8" s="373" t="s">
         <v>485</v>
       </c>
-      <c r="R8" s="378"/>
+      <c r="R8" s="373"/>
       <c r="S8" s="157"/>
       <c r="T8" s="275" t="s">
         <v>365</v>
       </c>
-      <c r="V8" s="383" t="s">
+      <c r="V8" s="381" t="s">
         <v>534</v>
       </c>
-      <c r="W8" s="384">
+      <c r="W8" s="382">
         <f>SUM(W3:W7)</f>
         <v>626102.71</v>
       </c>
-      <c r="X8" s="375">
+      <c r="X8" s="379">
         <f>SUM(X3:X7)</f>
         <v>626102.71</v>
       </c>
-      <c r="Y8" s="376" t="e">
+      <c r="Y8" s="380" t="e">
         <f>SUM(Y3:Y7)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="375" t="e">
+      <c r="Z8" s="379" t="e">
         <f>SUM(Z3:Z7)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="376" t="e">
+      <c r="AA8" s="380" t="e">
         <f>SUM(AA3:AA7)</f>
         <v>#REF!</v>
       </c>
@@ -13301,16 +13304,16 @@
       <c r="T9" s="286" t="s">
         <v>487</v>
       </c>
-      <c r="V9" s="383"/>
-      <c r="W9" s="384"/>
-      <c r="X9" s="375"/>
-      <c r="Y9" s="376"/>
-      <c r="Z9" s="375"/>
-      <c r="AA9" s="376"/>
-      <c r="AB9" s="379" t="s">
+      <c r="V9" s="381"/>
+      <c r="W9" s="382"/>
+      <c r="X9" s="379"/>
+      <c r="Y9" s="380"/>
+      <c r="Z9" s="379"/>
+      <c r="AA9" s="380"/>
+      <c r="AB9" s="376" t="s">
         <v>536</v>
       </c>
-      <c r="AC9" s="379"/>
+      <c r="AC9" s="376"/>
     </row>
     <row r="10" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="190">
@@ -13398,10 +13401,10 @@
       <c r="T11" s="268">
         <v>5.52</v>
       </c>
-      <c r="V11" s="380" t="s">
+      <c r="V11" s="375" t="s">
         <v>537</v>
       </c>
-      <c r="W11" s="381" t="e">
+      <c r="W11" s="377" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
@@ -13477,8 +13480,8 @@
       <c r="T12" s="268">
         <v>5.52</v>
       </c>
-      <c r="V12" s="380"/>
-      <c r="W12" s="381"/>
+      <c r="V12" s="375"/>
+      <c r="W12" s="377"/>
       <c r="X12" s="262" t="s">
         <v>286</v>
       </c>
@@ -13520,7 +13523,7 @@
       <c r="V13" s="268">
         <v>2018</v>
       </c>
-      <c r="W13" s="381"/>
+      <c r="W13" s="377"/>
       <c r="X13" s="270">
         <f>I15</f>
         <v>16406.251866666666</v>
@@ -13571,7 +13574,7 @@
       <c r="V14" s="268">
         <v>2019</v>
       </c>
-      <c r="W14" s="381"/>
+      <c r="W14" s="377"/>
       <c r="X14" s="270">
         <f>I25</f>
         <v>20699.204717171131</v>
@@ -13636,7 +13639,7 @@
       <c r="V15" s="268">
         <v>2020</v>
       </c>
-      <c r="W15" s="381"/>
+      <c r="W15" s="377"/>
       <c r="X15" s="270">
         <f>I42</f>
         <v>50197.878908060913</v>
@@ -13699,7 +13702,7 @@
       <c r="V16" s="268">
         <v>2021</v>
       </c>
-      <c r="W16" s="381"/>
+      <c r="W16" s="377"/>
       <c r="X16" s="270">
         <f>I60</f>
         <v>118343.48939231082</v>
@@ -13769,7 +13772,7 @@
       <c r="V17" s="268">
         <v>2022</v>
       </c>
-      <c r="W17" s="381"/>
+      <c r="W17" s="377"/>
       <c r="X17" s="270" t="e">
         <f>I86</f>
         <v>#REF!</v>
@@ -13810,23 +13813,23 @@
       <c r="P18" s="151"/>
       <c r="R18" s="197"/>
       <c r="T18" s="268"/>
-      <c r="V18" s="382" t="s">
+      <c r="V18" s="378" t="s">
         <v>534</v>
       </c>
-      <c r="W18" s="381"/>
-      <c r="X18" s="375" t="e">
+      <c r="W18" s="377"/>
+      <c r="X18" s="379" t="e">
         <f>SUM(X13:X17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="376" t="e">
+      <c r="Y18" s="380" t="e">
         <f>SUM(Y13:Y17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="375" t="e">
+      <c r="Z18" s="379" t="e">
         <f>SUM(Z13:Z17)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA18" s="376" t="e">
+      <c r="AA18" s="380" t="e">
         <f>SUM(AA13:AA17)</f>
         <v>#REF!</v>
       </c>
@@ -13862,16 +13865,16 @@
       <c r="R19" s="158"/>
       <c r="S19" s="156"/>
       <c r="T19" s="290"/>
-      <c r="V19" s="382"/>
-      <c r="W19" s="381"/>
-      <c r="X19" s="375"/>
-      <c r="Y19" s="376"/>
-      <c r="Z19" s="375"/>
-      <c r="AA19" s="376"/>
-      <c r="AB19" s="379" t="s">
+      <c r="V19" s="378"/>
+      <c r="W19" s="377"/>
+      <c r="X19" s="379"/>
+      <c r="Y19" s="380"/>
+      <c r="Z19" s="379"/>
+      <c r="AA19" s="380"/>
+      <c r="AB19" s="376" t="s">
         <v>542</v>
       </c>
-      <c r="AC19" s="379"/>
+      <c r="AC19" s="376"/>
     </row>
     <row r="20" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A20" s="159" t="s">
@@ -13998,10 +14001,10 @@
       <c r="T21" s="268">
         <v>5.73</v>
       </c>
-      <c r="V21" s="380" t="s">
+      <c r="V21" s="375" t="s">
         <v>543</v>
       </c>
-      <c r="W21" s="381" t="e">
+      <c r="W21" s="377" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
@@ -14077,8 +14080,8 @@
       <c r="T22" s="268">
         <v>5.73</v>
       </c>
-      <c r="V22" s="380"/>
-      <c r="W22" s="381"/>
+      <c r="V22" s="375"/>
+      <c r="W22" s="377"/>
       <c r="X22" s="262" t="s">
         <v>286</v>
       </c>
@@ -14110,7 +14113,7 @@
       <c r="V23" s="268">
         <v>2018</v>
       </c>
-      <c r="W23" s="381"/>
+      <c r="W23" s="377"/>
       <c r="X23" s="270">
         <f>O15</f>
         <v>4593.7481333333335</v>
@@ -14162,7 +14165,7 @@
       <c r="V24" s="268">
         <v>2019</v>
       </c>
-      <c r="W24" s="381"/>
+      <c r="W24" s="377"/>
       <c r="X24" s="270">
         <f>O25</f>
         <v>5800.7952828288689</v>
@@ -14226,7 +14229,7 @@
       <c r="V25" s="268">
         <v>2020</v>
       </c>
-      <c r="W25" s="381"/>
+      <c r="W25" s="377"/>
       <c r="X25" s="270">
         <f>O42</f>
         <v>14302.121091939091</v>
@@ -14289,7 +14292,7 @@
       <c r="V26" s="268">
         <v>2021</v>
       </c>
-      <c r="W26" s="381"/>
+      <c r="W26" s="377"/>
       <c r="X26" s="270">
         <f>O60</f>
         <v>33916.510607689197</v>
@@ -14359,7 +14362,7 @@
       <c r="V27" s="268">
         <v>2022</v>
       </c>
-      <c r="W27" s="381"/>
+      <c r="W27" s="377"/>
       <c r="X27" s="270" t="e">
         <f>O86</f>
         <v>#REF!</v>
@@ -14396,23 +14399,23 @@
       <c r="P28" s="151"/>
       <c r="R28" s="197"/>
       <c r="T28" s="268"/>
-      <c r="V28" s="382" t="s">
+      <c r="V28" s="378" t="s">
         <v>534</v>
       </c>
-      <c r="W28" s="381"/>
-      <c r="X28" s="375" t="e">
+      <c r="W28" s="377"/>
+      <c r="X28" s="379" t="e">
         <f>SUM(X23:X27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y28" s="376" t="e">
+      <c r="Y28" s="380" t="e">
         <f>SUM(Y23:Y27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z28" s="375" t="e">
+      <c r="Z28" s="379" t="e">
         <f>SUM(Z23:Z27)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA28" s="376" t="e">
+      <c r="AA28" s="380" t="e">
         <f>SUM(AA23:AA27)</f>
         <v>#REF!</v>
       </c>
@@ -14448,16 +14451,16 @@
       <c r="R29" s="158"/>
       <c r="S29" s="156"/>
       <c r="T29" s="290"/>
-      <c r="V29" s="382"/>
-      <c r="W29" s="381"/>
-      <c r="X29" s="375"/>
-      <c r="Y29" s="376"/>
-      <c r="Z29" s="375"/>
-      <c r="AA29" s="376"/>
-      <c r="AB29" s="379" t="s">
+      <c r="V29" s="378"/>
+      <c r="W29" s="377"/>
+      <c r="X29" s="379"/>
+      <c r="Y29" s="380"/>
+      <c r="Z29" s="379"/>
+      <c r="AA29" s="380"/>
+      <c r="AB29" s="376" t="s">
         <v>548</v>
       </c>
-      <c r="AC29" s="379"/>
+      <c r="AC29" s="376"/>
     </row>
     <row r="30" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A30" s="159" t="s">
@@ -14590,14 +14593,14 @@
         <v>522</v>
       </c>
       <c r="Y31" s="370"/>
-      <c r="Z31" s="371" t="s">
+      <c r="Z31" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="371"/>
-      <c r="AB31" s="372" t="s">
+      <c r="AA31" s="383"/>
+      <c r="AB31" s="384" t="s">
         <v>528</v>
       </c>
-      <c r="AC31" s="372"/>
+      <c r="AC31" s="384"/>
     </row>
     <row r="32" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A32" s="159" t="s">
@@ -14741,23 +14744,23 @@
       <c r="T33" s="268">
         <v>7.93</v>
       </c>
-      <c r="V33" s="374" t="s">
+      <c r="V33" s="386" t="s">
         <v>549</v>
       </c>
-      <c r="W33" s="374"/>
-      <c r="X33" s="375" t="e">
+      <c r="W33" s="386"/>
+      <c r="X33" s="379" t="e">
         <f>X28+X18</f>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="376" t="e">
+      <c r="Y33" s="380" t="e">
         <f>Y28+Y18</f>
         <v>#REF!</v>
       </c>
-      <c r="Z33" s="375" t="e">
+      <c r="Z33" s="379" t="e">
         <f>Z28+Z18</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="376" t="e">
+      <c r="AA33" s="380" t="e">
         <f>AA28+AA18</f>
         <v>#REF!</v>
       </c>
@@ -14829,16 +14832,16 @@
       <c r="T34" s="268">
         <v>7.93</v>
       </c>
-      <c r="V34" s="374"/>
-      <c r="W34" s="374"/>
-      <c r="X34" s="375"/>
-      <c r="Y34" s="376"/>
-      <c r="Z34" s="375"/>
-      <c r="AA34" s="376"/>
-      <c r="AB34" s="379" t="s">
+      <c r="V34" s="386"/>
+      <c r="W34" s="386"/>
+      <c r="X34" s="379"/>
+      <c r="Y34" s="380"/>
+      <c r="Z34" s="379"/>
+      <c r="AA34" s="380"/>
+      <c r="AB34" s="376" t="s">
         <v>536</v>
       </c>
-      <c r="AC34" s="379"/>
+      <c r="AC34" s="376"/>
     </row>
     <row r="35" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
@@ -15022,16 +15025,16 @@
       <c r="T37" s="268">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V37" s="374" t="s">
+      <c r="V37" s="386" t="s">
         <v>550</v>
       </c>
-      <c r="W37" s="374"/>
-      <c r="X37" s="374"/>
-      <c r="Y37" s="374"/>
-      <c r="Z37" s="374"/>
-      <c r="AA37" s="374"/>
-      <c r="AB37" s="374"/>
-      <c r="AC37" s="374"/>
+      <c r="W37" s="386"/>
+      <c r="X37" s="386"/>
+      <c r="Y37" s="386"/>
+      <c r="Z37" s="386"/>
+      <c r="AA37" s="386"/>
+      <c r="AB37" s="386"/>
+      <c r="AC37" s="386"/>
     </row>
     <row r="38" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
@@ -15435,25 +15438,25 @@
       </c>
       <c r="F45" s="280"/>
       <c r="G45" s="157"/>
-      <c r="H45" s="377" t="s">
+      <c r="H45" s="372" t="s">
         <v>484</v>
       </c>
-      <c r="I45" s="377"/>
+      <c r="I45" s="372"/>
       <c r="J45" s="157"/>
-      <c r="K45" s="378" t="s">
+      <c r="K45" s="373" t="s">
         <v>485</v>
       </c>
-      <c r="L45" s="378"/>
+      <c r="L45" s="373"/>
       <c r="M45" s="157"/>
-      <c r="N45" s="377" t="s">
+      <c r="N45" s="372" t="s">
         <v>484</v>
       </c>
-      <c r="O45" s="377"/>
-      <c r="P45" s="377"/>
-      <c r="Q45" s="378" t="s">
+      <c r="O45" s="372"/>
+      <c r="P45" s="372"/>
+      <c r="Q45" s="373" t="s">
         <v>485</v>
       </c>
-      <c r="R45" s="378"/>
+      <c r="R45" s="373"/>
       <c r="S45" s="157"/>
       <c r="T45" s="275" t="s">
         <v>365</v>
@@ -19550,22 +19553,22 @@
         <v>570</v>
       </c>
       <c r="G84" s="334"/>
-      <c r="H84" s="373" t="e">
+      <c r="H84" s="385" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="I84" s="373"/>
+      <c r="I84" s="385"/>
       <c r="J84" s="335" t="s">
         <v>480</v>
       </c>
       <c r="K84" s="334"/>
       <c r="L84" s="336"/>
       <c r="M84" s="332"/>
-      <c r="N84" s="373" t="e">
+      <c r="N84" s="385" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="O84" s="373"/>
+      <c r="O84" s="385"/>
       <c r="P84" s="337" t="s">
         <v>481</v>
       </c>
@@ -48472,18 +48475,35 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="V33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="V37:AC37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W19"/>
@@ -48500,35 +48520,18 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="V33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="V37:AC37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -48543,7 +48546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -49677,8 +49680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -50581,8 +50584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -50643,11 +50646,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -50685,7 +50688,7 @@
       </c>
       <c r="F7" s="25">
         <f>E4-D5</f>
-        <v>0</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -50718,14 +50721,16 @@
     <row r="10" spans="1:6">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>615</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="29">
+        <v>135000</v>
+      </c>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -50736,7 +50741,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -50747,7 +50752,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -50758,7 +50763,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -50769,7 +50774,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -50780,7 +50785,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -50791,7 +50796,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -50802,7 +50807,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -50813,7 +50818,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -50824,7 +50829,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -50835,7 +50840,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -51747,8 +51752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -51807,11 +51812,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
-        <v>77000</v>
+        <v>83000</v>
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -51847,7 +51852,7 @@
       </c>
       <c r="F7" s="25">
         <f>E4-D5</f>
-        <v>77000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -51917,7 +51922,9 @@
       <c r="B12" t="s">
         <v>152</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" s="361">
+        <v>45238</v>
+      </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29">
         <v>6000</v>
@@ -51934,12 +51941,16 @@
       <c r="B13" t="s">
         <v>153</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" s="361">
+        <v>45266</v>
+      </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="29">
+        <v>6000</v>
+      </c>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -51949,12 +51960,11 @@
       <c r="B14" t="s">
         <v>154</v>
       </c>
-      <c r="C14"/>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -51969,7 +51979,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -51980,7 +51990,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -51991,7 +52001,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -52002,7 +52012,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -52013,7 +52023,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -52024,7 +52034,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>19000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -54212,7 +54222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/02-23-sny.xlsx
+++ b/02-23-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758178B-BB00-4853-B161-77802F9BACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332431BB-F59E-4F99-958B-9D05939B107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="420" windowWidth="15105" windowHeight="14835" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -3867,15 +3867,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3890,44 +3881,17 @@
     <xf numFmtId="174" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,6 +3903,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F9" s="4">
         <f>'SnyB202-22'!D6</f>
-        <v>-858.79999999999984</v>
+        <v>-1000.1199999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
-        <v>-9167.7099999999991</v>
+        <v>-9309.0299999999988</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -8880,21 +8880,21 @@
       <c r="D2" s="156"/>
       <c r="E2" s="157"/>
       <c r="F2" s="156"/>
-      <c r="G2" s="362" t="s">
+      <c r="G2" s="367" t="s">
         <v>480</v>
       </c>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367"/>
       <c r="L2" s="156"/>
-      <c r="M2" s="362" t="s">
+      <c r="M2" s="367" t="s">
         <v>481</v>
       </c>
-      <c r="N2" s="362"/>
-      <c r="O2" s="362"/>
-      <c r="P2" s="362"/>
-      <c r="Q2" s="362"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
       <c r="R2" s="156"/>
       <c r="S2" s="158"/>
     </row>
@@ -8906,23 +8906,23 @@
       <c r="E3" s="160" t="s">
         <v>483</v>
       </c>
-      <c r="G3" s="363" t="s">
+      <c r="G3" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="H3" s="363"/>
-      <c r="J3" s="364" t="s">
+      <c r="H3" s="368"/>
+      <c r="J3" s="369" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="364"/>
-      <c r="M3" s="363" t="s">
+      <c r="K3" s="369"/>
+      <c r="M3" s="368" t="s">
         <v>484</v>
       </c>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="364" t="s">
+      <c r="N3" s="368"/>
+      <c r="O3" s="368"/>
+      <c r="P3" s="369" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" s="364"/>
+      <c r="Q3" s="369"/>
       <c r="S3" s="161" t="s">
         <v>365</v>
       </c>
@@ -8985,11 +8985,11 @@
         <v>450000</v>
       </c>
       <c r="F5" s="157"/>
-      <c r="G5" s="365">
+      <c r="G5" s="362">
         <f>K5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="365"/>
+      <c r="H5" s="362"/>
       <c r="I5" s="176"/>
       <c r="J5" s="177" t="s">
         <v>489</v>
@@ -8998,11 +8998,11 @@
         <v>225000</v>
       </c>
       <c r="L5" s="178"/>
-      <c r="M5" s="366">
+      <c r="M5" s="363">
         <f>Q5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="366"/>
+      <c r="N5" s="363"/>
       <c r="O5" s="179"/>
       <c r="P5" s="176"/>
       <c r="Q5" s="175">
@@ -9022,11 +9022,11 @@
         <v>490</v>
       </c>
       <c r="F6" s="165"/>
-      <c r="G6" s="367">
+      <c r="G6" s="364">
         <f>K6/$E$5</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="H6" s="367"/>
+      <c r="H6" s="364"/>
       <c r="I6" s="183" t="s">
         <v>491</v>
       </c>
@@ -9038,11 +9038,11 @@
         <v>351562.54</v>
       </c>
       <c r="L6" s="165"/>
-      <c r="M6" s="367">
+      <c r="M6" s="364">
         <f>Q6/$E$5</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="N6" s="367"/>
+      <c r="N6" s="364"/>
       <c r="O6" s="186" t="s">
         <v>492</v>
       </c>
@@ -12105,23 +12105,23 @@
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="159"/>
-      <c r="C65" s="368" t="s">
+      <c r="C65" s="365" t="s">
         <v>518</v>
       </c>
-      <c r="D65" s="368"/>
-      <c r="E65" s="368"/>
-      <c r="G65" s="369" t="e">
+      <c r="D65" s="365"/>
+      <c r="E65" s="365"/>
+      <c r="G65" s="366" t="e">
         <f>G64</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="369"/>
+      <c r="H65" s="366"/>
       <c r="I65" s="151"/>
       <c r="J65" s="147"/>
-      <c r="M65" s="369" t="e">
+      <c r="M65" s="366" t="e">
         <f>M64</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="369"/>
+      <c r="N65" s="366"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="149"/>
       <c r="R65" s="147"/>
@@ -12129,15 +12129,15 @@
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="159"/>
-      <c r="C66" s="368"/>
-      <c r="D66" s="368"/>
-      <c r="E66" s="368"/>
-      <c r="G66" s="369"/>
-      <c r="H66" s="369"/>
+      <c r="C66" s="365"/>
+      <c r="D66" s="365"/>
+      <c r="E66" s="365"/>
+      <c r="G66" s="366"/>
+      <c r="H66" s="366"/>
       <c r="I66" s="151"/>
       <c r="J66" s="147"/>
-      <c r="M66" s="369"/>
-      <c r="N66" s="369"/>
+      <c r="M66" s="366"/>
+      <c r="N66" s="366"/>
       <c r="P66" s="147"/>
       <c r="Q66" s="149"/>
       <c r="R66" s="147"/>
@@ -12564,6 +12564,12 @@
     <row r="1048548" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="G6:H6"/>
@@ -12571,12 +12577,6 @@
     <mergeCell ref="C65:E66"/>
     <mergeCell ref="G65:H66"/>
     <mergeCell ref="M65:N66"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12850,7 +12850,7 @@
       <c r="G1" s="147"/>
       <c r="O1" s="150"/>
       <c r="T1" s="147"/>
-      <c r="V1" s="375" t="s">
+      <c r="V1" s="380" t="s">
         <v>526</v>
       </c>
       <c r="W1" s="253" t="s">
@@ -12879,24 +12879,24 @@
       <c r="E2" s="258"/>
       <c r="F2" s="259"/>
       <c r="G2" s="257"/>
-      <c r="H2" s="374" t="s">
+      <c r="H2" s="386" t="s">
         <v>480</v>
       </c>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
       <c r="M2" s="257"/>
-      <c r="N2" s="374" t="s">
+      <c r="N2" s="386" t="s">
         <v>481</v>
       </c>
-      <c r="O2" s="374"/>
-      <c r="P2" s="374"/>
-      <c r="Q2" s="374"/>
-      <c r="R2" s="374"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
+      <c r="Q2" s="386"/>
+      <c r="R2" s="386"/>
       <c r="S2" s="257"/>
       <c r="T2" s="260"/>
-      <c r="V2" s="375"/>
+      <c r="V2" s="380"/>
       <c r="W2" s="261" t="s">
         <v>286</v>
       </c>
@@ -13044,11 +13044,11 @@
       </c>
       <c r="F5" s="276"/>
       <c r="G5" s="165"/>
-      <c r="H5" s="371">
+      <c r="H5" s="385">
         <f>L5/$E$4</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="I5" s="371"/>
+      <c r="I5" s="385"/>
       <c r="J5" s="183" t="s">
         <v>532</v>
       </c>
@@ -13060,11 +13060,11 @@
         <v>351562.54</v>
       </c>
       <c r="M5" s="165"/>
-      <c r="N5" s="371">
+      <c r="N5" s="385">
         <f>R5/$E$4</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="O5" s="371"/>
+      <c r="O5" s="385"/>
       <c r="P5" s="186" t="s">
         <v>492</v>
       </c>
@@ -13202,49 +13202,49 @@
       </c>
       <c r="F8" s="280"/>
       <c r="G8" s="157"/>
-      <c r="H8" s="372" t="s">
+      <c r="H8" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="I8" s="372"/>
+      <c r="I8" s="377"/>
       <c r="J8" s="157"/>
-      <c r="K8" s="373" t="s">
+      <c r="K8" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="L8" s="373"/>
+      <c r="L8" s="378"/>
       <c r="M8" s="157"/>
-      <c r="N8" s="372" t="s">
+      <c r="N8" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="O8" s="372"/>
-      <c r="P8" s="372"/>
-      <c r="Q8" s="373" t="s">
+      <c r="O8" s="377"/>
+      <c r="P8" s="377"/>
+      <c r="Q8" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="R8" s="373"/>
+      <c r="R8" s="378"/>
       <c r="S8" s="157"/>
       <c r="T8" s="275" t="s">
         <v>365</v>
       </c>
-      <c r="V8" s="381" t="s">
+      <c r="V8" s="383" t="s">
         <v>534</v>
       </c>
-      <c r="W8" s="382">
+      <c r="W8" s="384">
         <f>SUM(W3:W7)</f>
         <v>626102.71</v>
       </c>
-      <c r="X8" s="379">
+      <c r="X8" s="375">
         <f>SUM(X3:X7)</f>
         <v>626102.71</v>
       </c>
-      <c r="Y8" s="380" t="e">
+      <c r="Y8" s="376" t="e">
         <f>SUM(Y3:Y7)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="379" t="e">
+      <c r="Z8" s="375" t="e">
         <f>SUM(Z3:Z7)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="380" t="e">
+      <c r="AA8" s="376" t="e">
         <f>SUM(AA3:AA7)</f>
         <v>#REF!</v>
       </c>
@@ -13304,16 +13304,16 @@
       <c r="T9" s="286" t="s">
         <v>487</v>
       </c>
-      <c r="V9" s="381"/>
-      <c r="W9" s="382"/>
-      <c r="X9" s="379"/>
-      <c r="Y9" s="380"/>
-      <c r="Z9" s="379"/>
-      <c r="AA9" s="380"/>
-      <c r="AB9" s="376" t="s">
+      <c r="V9" s="383"/>
+      <c r="W9" s="384"/>
+      <c r="X9" s="375"/>
+      <c r="Y9" s="376"/>
+      <c r="Z9" s="375"/>
+      <c r="AA9" s="376"/>
+      <c r="AB9" s="379" t="s">
         <v>536</v>
       </c>
-      <c r="AC9" s="376"/>
+      <c r="AC9" s="379"/>
     </row>
     <row r="10" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="190">
@@ -13401,10 +13401,10 @@
       <c r="T11" s="268">
         <v>5.52</v>
       </c>
-      <c r="V11" s="375" t="s">
+      <c r="V11" s="380" t="s">
         <v>537</v>
       </c>
-      <c r="W11" s="377" t="e">
+      <c r="W11" s="381" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
@@ -13480,8 +13480,8 @@
       <c r="T12" s="268">
         <v>5.52</v>
       </c>
-      <c r="V12" s="375"/>
-      <c r="W12" s="377"/>
+      <c r="V12" s="380"/>
+      <c r="W12" s="381"/>
       <c r="X12" s="262" t="s">
         <v>286</v>
       </c>
@@ -13523,7 +13523,7 @@
       <c r="V13" s="268">
         <v>2018</v>
       </c>
-      <c r="W13" s="377"/>
+      <c r="W13" s="381"/>
       <c r="X13" s="270">
         <f>I15</f>
         <v>16406.251866666666</v>
@@ -13574,7 +13574,7 @@
       <c r="V14" s="268">
         <v>2019</v>
       </c>
-      <c r="W14" s="377"/>
+      <c r="W14" s="381"/>
       <c r="X14" s="270">
         <f>I25</f>
         <v>20699.204717171131</v>
@@ -13639,7 +13639,7 @@
       <c r="V15" s="268">
         <v>2020</v>
       </c>
-      <c r="W15" s="377"/>
+      <c r="W15" s="381"/>
       <c r="X15" s="270">
         <f>I42</f>
         <v>50197.878908060913</v>
@@ -13702,7 +13702,7 @@
       <c r="V16" s="268">
         <v>2021</v>
       </c>
-      <c r="W16" s="377"/>
+      <c r="W16" s="381"/>
       <c r="X16" s="270">
         <f>I60</f>
         <v>118343.48939231082</v>
@@ -13772,7 +13772,7 @@
       <c r="V17" s="268">
         <v>2022</v>
       </c>
-      <c r="W17" s="377"/>
+      <c r="W17" s="381"/>
       <c r="X17" s="270" t="e">
         <f>I86</f>
         <v>#REF!</v>
@@ -13813,23 +13813,23 @@
       <c r="P18" s="151"/>
       <c r="R18" s="197"/>
       <c r="T18" s="268"/>
-      <c r="V18" s="378" t="s">
+      <c r="V18" s="382" t="s">
         <v>534</v>
       </c>
-      <c r="W18" s="377"/>
-      <c r="X18" s="379" t="e">
+      <c r="W18" s="381"/>
+      <c r="X18" s="375" t="e">
         <f>SUM(X13:X17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="380" t="e">
+      <c r="Y18" s="376" t="e">
         <f>SUM(Y13:Y17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="379" t="e">
+      <c r="Z18" s="375" t="e">
         <f>SUM(Z13:Z17)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA18" s="380" t="e">
+      <c r="AA18" s="376" t="e">
         <f>SUM(AA13:AA17)</f>
         <v>#REF!</v>
       </c>
@@ -13865,16 +13865,16 @@
       <c r="R19" s="158"/>
       <c r="S19" s="156"/>
       <c r="T19" s="290"/>
-      <c r="V19" s="378"/>
-      <c r="W19" s="377"/>
-      <c r="X19" s="379"/>
-      <c r="Y19" s="380"/>
-      <c r="Z19" s="379"/>
-      <c r="AA19" s="380"/>
-      <c r="AB19" s="376" t="s">
+      <c r="V19" s="382"/>
+      <c r="W19" s="381"/>
+      <c r="X19" s="375"/>
+      <c r="Y19" s="376"/>
+      <c r="Z19" s="375"/>
+      <c r="AA19" s="376"/>
+      <c r="AB19" s="379" t="s">
         <v>542</v>
       </c>
-      <c r="AC19" s="376"/>
+      <c r="AC19" s="379"/>
     </row>
     <row r="20" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A20" s="159" t="s">
@@ -14001,10 +14001,10 @@
       <c r="T21" s="268">
         <v>5.73</v>
       </c>
-      <c r="V21" s="375" t="s">
+      <c r="V21" s="380" t="s">
         <v>543</v>
       </c>
-      <c r="W21" s="377" t="e">
+      <c r="W21" s="381" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
@@ -14080,8 +14080,8 @@
       <c r="T22" s="268">
         <v>5.73</v>
       </c>
-      <c r="V22" s="375"/>
-      <c r="W22" s="377"/>
+      <c r="V22" s="380"/>
+      <c r="W22" s="381"/>
       <c r="X22" s="262" t="s">
         <v>286</v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="V23" s="268">
         <v>2018</v>
       </c>
-      <c r="W23" s="377"/>
+      <c r="W23" s="381"/>
       <c r="X23" s="270">
         <f>O15</f>
         <v>4593.7481333333335</v>
@@ -14165,7 +14165,7 @@
       <c r="V24" s="268">
         <v>2019</v>
       </c>
-      <c r="W24" s="377"/>
+      <c r="W24" s="381"/>
       <c r="X24" s="270">
         <f>O25</f>
         <v>5800.7952828288689</v>
@@ -14229,7 +14229,7 @@
       <c r="V25" s="268">
         <v>2020</v>
       </c>
-      <c r="W25" s="377"/>
+      <c r="W25" s="381"/>
       <c r="X25" s="270">
         <f>O42</f>
         <v>14302.121091939091</v>
@@ -14292,7 +14292,7 @@
       <c r="V26" s="268">
         <v>2021</v>
       </c>
-      <c r="W26" s="377"/>
+      <c r="W26" s="381"/>
       <c r="X26" s="270">
         <f>O60</f>
         <v>33916.510607689197</v>
@@ -14362,7 +14362,7 @@
       <c r="V27" s="268">
         <v>2022</v>
       </c>
-      <c r="W27" s="377"/>
+      <c r="W27" s="381"/>
       <c r="X27" s="270" t="e">
         <f>O86</f>
         <v>#REF!</v>
@@ -14399,23 +14399,23 @@
       <c r="P28" s="151"/>
       <c r="R28" s="197"/>
       <c r="T28" s="268"/>
-      <c r="V28" s="378" t="s">
+      <c r="V28" s="382" t="s">
         <v>534</v>
       </c>
-      <c r="W28" s="377"/>
-      <c r="X28" s="379" t="e">
+      <c r="W28" s="381"/>
+      <c r="X28" s="375" t="e">
         <f>SUM(X23:X27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y28" s="380" t="e">
+      <c r="Y28" s="376" t="e">
         <f>SUM(Y23:Y27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z28" s="379" t="e">
+      <c r="Z28" s="375" t="e">
         <f>SUM(Z23:Z27)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA28" s="380" t="e">
+      <c r="AA28" s="376" t="e">
         <f>SUM(AA23:AA27)</f>
         <v>#REF!</v>
       </c>
@@ -14451,16 +14451,16 @@
       <c r="R29" s="158"/>
       <c r="S29" s="156"/>
       <c r="T29" s="290"/>
-      <c r="V29" s="378"/>
-      <c r="W29" s="377"/>
-      <c r="X29" s="379"/>
-      <c r="Y29" s="380"/>
-      <c r="Z29" s="379"/>
-      <c r="AA29" s="380"/>
-      <c r="AB29" s="376" t="s">
+      <c r="V29" s="382"/>
+      <c r="W29" s="381"/>
+      <c r="X29" s="375"/>
+      <c r="Y29" s="376"/>
+      <c r="Z29" s="375"/>
+      <c r="AA29" s="376"/>
+      <c r="AB29" s="379" t="s">
         <v>548</v>
       </c>
-      <c r="AC29" s="376"/>
+      <c r="AC29" s="379"/>
     </row>
     <row r="30" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A30" s="159" t="s">
@@ -14593,14 +14593,14 @@
         <v>522</v>
       </c>
       <c r="Y31" s="370"/>
-      <c r="Z31" s="383" t="s">
+      <c r="Z31" s="371" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="383"/>
-      <c r="AB31" s="384" t="s">
+      <c r="AA31" s="371"/>
+      <c r="AB31" s="372" t="s">
         <v>528</v>
       </c>
-      <c r="AC31" s="384"/>
+      <c r="AC31" s="372"/>
     </row>
     <row r="32" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A32" s="159" t="s">
@@ -14744,23 +14744,23 @@
       <c r="T33" s="268">
         <v>7.93</v>
       </c>
-      <c r="V33" s="386" t="s">
+      <c r="V33" s="374" t="s">
         <v>549</v>
       </c>
-      <c r="W33" s="386"/>
-      <c r="X33" s="379" t="e">
+      <c r="W33" s="374"/>
+      <c r="X33" s="375" t="e">
         <f>X28+X18</f>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="380" t="e">
+      <c r="Y33" s="376" t="e">
         <f>Y28+Y18</f>
         <v>#REF!</v>
       </c>
-      <c r="Z33" s="379" t="e">
+      <c r="Z33" s="375" t="e">
         <f>Z28+Z18</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="380" t="e">
+      <c r="AA33" s="376" t="e">
         <f>AA28+AA18</f>
         <v>#REF!</v>
       </c>
@@ -14832,16 +14832,16 @@
       <c r="T34" s="268">
         <v>7.93</v>
       </c>
-      <c r="V34" s="386"/>
-      <c r="W34" s="386"/>
-      <c r="X34" s="379"/>
-      <c r="Y34" s="380"/>
-      <c r="Z34" s="379"/>
-      <c r="AA34" s="380"/>
-      <c r="AB34" s="376" t="s">
+      <c r="V34" s="374"/>
+      <c r="W34" s="374"/>
+      <c r="X34" s="375"/>
+      <c r="Y34" s="376"/>
+      <c r="Z34" s="375"/>
+      <c r="AA34" s="376"/>
+      <c r="AB34" s="379" t="s">
         <v>536</v>
       </c>
-      <c r="AC34" s="376"/>
+      <c r="AC34" s="379"/>
     </row>
     <row r="35" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
@@ -15025,16 +15025,16 @@
       <c r="T37" s="268">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V37" s="386" t="s">
+      <c r="V37" s="374" t="s">
         <v>550</v>
       </c>
-      <c r="W37" s="386"/>
-      <c r="X37" s="386"/>
-      <c r="Y37" s="386"/>
-      <c r="Z37" s="386"/>
-      <c r="AA37" s="386"/>
-      <c r="AB37" s="386"/>
-      <c r="AC37" s="386"/>
+      <c r="W37" s="374"/>
+      <c r="X37" s="374"/>
+      <c r="Y37" s="374"/>
+      <c r="Z37" s="374"/>
+      <c r="AA37" s="374"/>
+      <c r="AB37" s="374"/>
+      <c r="AC37" s="374"/>
     </row>
     <row r="38" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
@@ -15438,25 +15438,25 @@
       </c>
       <c r="F45" s="280"/>
       <c r="G45" s="157"/>
-      <c r="H45" s="372" t="s">
+      <c r="H45" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="I45" s="372"/>
+      <c r="I45" s="377"/>
       <c r="J45" s="157"/>
-      <c r="K45" s="373" t="s">
+      <c r="K45" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="L45" s="373"/>
+      <c r="L45" s="378"/>
       <c r="M45" s="157"/>
-      <c r="N45" s="372" t="s">
+      <c r="N45" s="377" t="s">
         <v>484</v>
       </c>
-      <c r="O45" s="372"/>
-      <c r="P45" s="372"/>
-      <c r="Q45" s="373" t="s">
+      <c r="O45" s="377"/>
+      <c r="P45" s="377"/>
+      <c r="Q45" s="378" t="s">
         <v>485</v>
       </c>
-      <c r="R45" s="373"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="157"/>
       <c r="T45" s="275" t="s">
         <v>365</v>
@@ -19553,22 +19553,22 @@
         <v>570</v>
       </c>
       <c r="G84" s="334"/>
-      <c r="H84" s="385" t="e">
+      <c r="H84" s="373" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="I84" s="385"/>
+      <c r="I84" s="373"/>
       <c r="J84" s="335" t="s">
         <v>480</v>
       </c>
       <c r="K84" s="334"/>
       <c r="L84" s="336"/>
       <c r="M84" s="332"/>
-      <c r="N84" s="385" t="e">
+      <c r="N84" s="373" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="O84" s="385"/>
+      <c r="O84" s="373"/>
       <c r="P84" s="337" t="s">
         <v>481</v>
       </c>
@@ -48475,6 +48475,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W19"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="X31:Y31"/>
     <mergeCell ref="Z31:AA31"/>
     <mergeCell ref="AB31:AC31"/>
@@ -48491,47 +48532,6 @@
     <mergeCell ref="Z33:Z34"/>
     <mergeCell ref="AA33:AA34"/>
     <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W19"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -48546,7 +48546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -49680,8 +49680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -49773,7 +49773,7 @@
       </c>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-858.79999999999984</v>
+        <v>-1000.1199999999998</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -50187,12 +50187,18 @@
       <c r="B36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="C36" s="23">
+        <v>30</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1158.4000000000001</v>
+      </c>
+      <c r="E36" s="38">
+        <v>1299.72</v>
+      </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-858.79999999999984</v>
+        <v>-1000.1199999999998</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -50205,13 +50211,13 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
       <c r="F37" s="45">
         <f>D37-E37+F36</f>
-        <v>-858.79999999999984</v>
+        <v>-1000.1199999999998</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -50584,8 +50590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -51101,9 +51107,15 @@
       <c r="B36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="C36" s="23">
+        <v>50</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1232.42</v>
+      </c>
+      <c r="E36" s="38">
+        <v>1232.42</v>
+      </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
         <v>-3924.1099999999997</v>
@@ -51118,7 +51130,7 @@
       </c>
       <c r="C37" s="42">
         <f>SUM(C25:C36)</f>
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44"/>
@@ -51752,7 +51764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -52740,7 +52752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
